--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8436CDBD-07B0-6346-BA6E-C9655D5586FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54167B08-A96E-5F40-89F8-255250E299A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="500" windowWidth="16240" windowHeight="16340" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="18340" yWindow="500" windowWidth="11560" windowHeight="16340" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="best.models" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="81">
   <si>
     <t>model</t>
   </si>
@@ -266,16 +266,22 @@
     <t>BEST, tc = 10</t>
   </si>
   <si>
-    <t>tc = 9 and 10 same</t>
+    <t>tc</t>
   </si>
   <si>
-    <t>BEST, tc = 9 and 10 same</t>
+    <t>BEST, tc = 10 better than 1-9</t>
   </si>
   <si>
-    <t>BEST, tc 2 equal to 3-10</t>
+    <t>no difference between tc = 9 and 10 same</t>
   </si>
   <si>
-    <t>BEST, tc 6 equal to 7-10</t>
+    <t>BEST, tc = 9</t>
+  </si>
+  <si>
+    <t>BEST, tc 2 equal to 3-10 so use tc=2</t>
+  </si>
+  <si>
+    <t>BEST, tc 6 equal to 7-10, go with tc = 6</t>
   </si>
 </sst>
 </file>
@@ -318,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +340,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,17 +398,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,15 +728,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253AA50-120C-E840-A4B6-D46FED88DE7A}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="12" customWidth="1"/>
-    <col min="9" max="20" width="10.83203125" style="12"/>
+    <col min="8" max="8" width="28.6640625" style="14" customWidth="1"/>
+    <col min="9" max="20" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -755,40 +758,40 @@
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -811,40 +814,40 @@
       <c r="F2" s="3">
         <v>1.02</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="15">
         <v>1E-4</v>
       </c>
-      <c r="J2" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K2" s="13">
-        <v>50</v>
-      </c>
-      <c r="L2" s="13">
+      <c r="J2" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="15">
+        <v>50</v>
+      </c>
+      <c r="L2" s="15">
         <v>1000</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="15">
         <v>2.96</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q2" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="13">
-        <v>50</v>
-      </c>
-      <c r="S2" s="13">
+      <c r="Q2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="15">
+        <v>50</v>
+      </c>
+      <c r="S2" s="15">
         <v>1000</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="15">
         <v>2.2200000000000002</v>
       </c>
     </row>
@@ -867,43 +870,43 @@
       <c r="F3" s="3">
         <v>1.84</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J3" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="13">
-        <v>50</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="J3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="15">
+        <v>50</v>
+      </c>
+      <c r="L3" s="15">
         <v>1600</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="15">
         <v>14.59</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q3" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R3" s="13">
-        <v>50</v>
-      </c>
-      <c r="S3" s="13">
+      <c r="Q3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R3" s="15">
+        <v>50</v>
+      </c>
+      <c r="S3" s="15">
         <v>1150</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="15">
         <v>2.41</v>
       </c>
     </row>
@@ -926,40 +929,40 @@
       <c r="F4" s="3">
         <v>1.87</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="15">
         <v>1E-4</v>
       </c>
-      <c r="J4" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K4" s="13">
-        <v>50</v>
-      </c>
-      <c r="L4" s="13">
+      <c r="J4" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="15">
+        <v>50</v>
+      </c>
+      <c r="L4" s="15">
         <v>1000</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="15">
         <v>3.16</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Q4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="13">
-        <v>50</v>
-      </c>
-      <c r="S4" s="13">
+      <c r="Q4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="15">
+        <v>50</v>
+      </c>
+      <c r="S4" s="15">
         <v>1000</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="15">
         <v>0.23</v>
       </c>
     </row>
@@ -985,41 +988,41 @@
       <c r="G5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J5" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="16">
-        <v>50</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="J5" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="17">
+        <v>50</v>
+      </c>
+      <c r="L5" s="17">
         <v>1100</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="17">
         <v>12.76</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="16"/>
+      <c r="O5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q5" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R5" s="13">
-        <v>50</v>
-      </c>
-      <c r="S5" s="13">
+      <c r="Q5" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R5" s="15">
+        <v>50</v>
+      </c>
+      <c r="S5" s="15">
         <v>1000</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="15">
         <v>2.19</v>
       </c>
     </row>
@@ -1042,40 +1045,40 @@
       <c r="F6" s="3">
         <v>5.44</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="I6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="13" t="s">
+      <c r="P6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1098,40 +1101,40 @@
       <c r="F7" s="3">
         <v>12.6</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="12" t="s">
+      <c r="I7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="15">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="Q7" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R7" s="13">
-        <v>50</v>
-      </c>
-      <c r="S7" s="13">
+      <c r="Q7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R7" s="15">
+        <v>50</v>
+      </c>
+      <c r="S7" s="15">
         <v>1000</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="15">
         <v>1.07</v>
       </c>
     </row>
@@ -1154,40 +1157,40 @@
       <c r="F8" s="3">
         <v>9.36</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="12" t="s">
+      <c r="I8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" s="13" t="s">
+      <c r="P8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1213,40 +1216,40 @@
       <c r="G9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="12" t="s">
+      <c r="I9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T9" s="13" t="s">
+      <c r="P9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1269,40 +1272,40 @@
       <c r="F10" s="3">
         <v>24.47</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J10" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="13">
-        <v>50</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="J10" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="15">
+        <v>50</v>
+      </c>
+      <c r="L10" s="15">
         <v>1350</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="15">
         <v>19.079999999999998</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="13">
-        <v>25</v>
-      </c>
-      <c r="S10" s="13">
+      <c r="P10" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>25</v>
+      </c>
+      <c r="S10" s="15">
         <v>1150</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="15">
         <v>19.23</v>
       </c>
     </row>
@@ -1325,40 +1328,40 @@
       <c r="F11" s="3">
         <v>27.72</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="13">
-        <v>25</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="I11" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="15">
+        <v>25</v>
+      </c>
+      <c r="L11" s="15">
         <v>1050</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="15">
         <v>15.29</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R11" s="13">
-        <v>25</v>
-      </c>
-      <c r="S11" s="13">
+      <c r="P11" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R11" s="15">
+        <v>25</v>
+      </c>
+      <c r="S11" s="15">
         <v>1625</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="15">
         <v>34.58</v>
       </c>
     </row>
@@ -1381,43 +1384,43 @@
       <c r="F12" s="3">
         <v>27.75</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="H12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J12" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K12" s="13">
-        <v>50</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="J12" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="15">
+        <v>50</v>
+      </c>
+      <c r="L12" s="15">
         <v>1350</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="15">
         <v>19.46</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R12" s="13">
-        <v>25</v>
-      </c>
-      <c r="S12" s="13">
+      <c r="O12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R12" s="15">
+        <v>25</v>
+      </c>
+      <c r="S12" s="15">
         <v>775</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="15">
         <v>23.32</v>
       </c>
     </row>
@@ -1443,41 +1446,41 @@
       <c r="G13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="16">
-        <v>25</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="I13" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="17">
+        <v>25</v>
+      </c>
+      <c r="L13" s="17">
         <v>1050</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="17">
         <v>15.52</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="16"/>
+      <c r="O13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R13" s="13">
-        <v>25</v>
-      </c>
-      <c r="S13" s="13">
+      <c r="P13" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R13" s="15">
+        <v>25</v>
+      </c>
+      <c r="S13" s="15">
         <v>1550</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="15">
         <v>33.6</v>
       </c>
     </row>
@@ -1500,40 +1503,40 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="12" t="s">
+      <c r="I14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14" s="12" t="s">
+      <c r="P14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1556,43 +1559,43 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J15" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K15" s="13">
-        <v>50</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="J15" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="15">
+        <v>50</v>
+      </c>
+      <c r="L15" s="15">
         <v>1050</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="15">
         <v>9.9700000000000006</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q15" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R15" s="13">
-        <v>50</v>
-      </c>
-      <c r="S15" s="13">
+      <c r="Q15" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R15" s="15">
+        <v>50</v>
+      </c>
+      <c r="S15" s="15">
         <v>1000</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="15">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -1615,40 +1618,40 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="15">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J16" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K16" s="13">
-        <v>50</v>
-      </c>
-      <c r="L16" s="13">
+      <c r="J16" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="15">
+        <v>50</v>
+      </c>
+      <c r="L16" s="15">
         <v>1000</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="15">
         <v>1.66</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="12" t="s">
+      <c r="P16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1671,41 +1674,41 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="17">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="16">
-        <v>50</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="J17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17">
         <v>1000</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="17">
         <v>7.7</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="12" t="s">
+      <c r="N17" s="16"/>
+      <c r="O17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q17" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R17" s="13">
-        <v>50</v>
-      </c>
-      <c r="S17" s="13">
+      <c r="Q17" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R17" s="15">
+        <v>50</v>
+      </c>
+      <c r="S17" s="15">
         <v>1000</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="15">
         <v>2.27</v>
       </c>
     </row>
@@ -1728,40 +1731,40 @@
       <c r="F18" s="3">
         <v>1.06</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="12" t="s">
+      <c r="I18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18" s="12" t="s">
+      <c r="P18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1784,40 +1787,40 @@
       <c r="F19" s="3">
         <v>2.25</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="12" t="s">
+      <c r="I19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="12" t="s">
+      <c r="P19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1840,99 +1843,99 @@
       <c r="F20" s="3">
         <v>2.16</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="12" t="s">
+      <c r="I20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20" s="12" t="s">
+      <c r="P20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D21" s="3">
-        <v>50</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C21" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="8">
+        <v>50</v>
+      </c>
+      <c r="E21" s="8">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="8">
         <v>2.4</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="12" t="s">
+      <c r="I21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21" s="12" t="s">
+      <c r="P21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1958,40 +1961,40 @@
       <c r="G22" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="12" t="s">
+      <c r="I22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T22" s="12" t="s">
+      <c r="P22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2014,40 +2017,40 @@
       <c r="F23" s="3">
         <v>1.75</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="12" t="s">
+      <c r="I23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T23" s="12" t="s">
+      <c r="P23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2070,40 +2073,40 @@
       <c r="F24" s="3">
         <v>2.9</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="12" t="s">
+      <c r="I24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24" s="12" t="s">
+      <c r="P24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2126,43 +2129,43 @@
       <c r="F25" s="8">
         <v>1.84</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="12" t="s">
+      <c r="I25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T25" s="12" t="s">
+      <c r="P25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2185,40 +2188,40 @@
       <c r="F26" s="3">
         <v>21.95</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J26" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="13">
-        <v>50</v>
-      </c>
-      <c r="L26" s="13">
+      <c r="J26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="15">
+        <v>50</v>
+      </c>
+      <c r="L26" s="15">
         <v>1000</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="15">
         <v>10.58</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q26" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R26" s="13">
-        <v>50</v>
-      </c>
-      <c r="S26" s="13">
+      <c r="Q26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="15">
+        <v>50</v>
+      </c>
+      <c r="S26" s="15">
         <v>1400</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="15">
         <v>3.33</v>
       </c>
     </row>
@@ -2241,40 +2244,40 @@
       <c r="F27" s="3">
         <v>26.33</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J27" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="K27" s="13">
-        <v>50</v>
-      </c>
-      <c r="L27" s="13">
+      <c r="J27" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="15">
+        <v>50</v>
+      </c>
+      <c r="L27" s="15">
         <v>1200</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="15">
         <v>9.68</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q27" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R27" s="13">
-        <v>50</v>
-      </c>
-      <c r="S27" s="13">
+      <c r="Q27" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R27" s="15">
+        <v>50</v>
+      </c>
+      <c r="S27" s="15">
         <v>1300</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="15">
         <v>2.38</v>
       </c>
     </row>
@@ -2297,43 +2300,43 @@
       <c r="F28" s="3">
         <v>24.52</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J28" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K28" s="13">
-        <v>50</v>
-      </c>
-      <c r="L28" s="13">
+      <c r="J28" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="15">
+        <v>50</v>
+      </c>
+      <c r="L28" s="15">
         <v>1100</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="15">
         <v>18.690000000000001</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q28" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R28" s="13">
-        <v>50</v>
-      </c>
-      <c r="S28" s="13">
+      <c r="Q28" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R28" s="15">
+        <v>50</v>
+      </c>
+      <c r="S28" s="15">
         <v>1150</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="15">
         <v>4.5199999999999996</v>
       </c>
     </row>
@@ -2356,44 +2359,44 @@
       <c r="F29" s="8">
         <v>41.96</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="G29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="17">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J29" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K29" s="16">
-        <v>50</v>
-      </c>
-      <c r="L29" s="16">
+      <c r="J29" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="17">
+        <v>50</v>
+      </c>
+      <c r="L29" s="17">
         <v>1550</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="17">
         <v>18.53</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="12" t="s">
+      <c r="N29" s="16"/>
+      <c r="O29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q29" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R29" s="13">
-        <v>50</v>
-      </c>
-      <c r="S29" s="13">
+      <c r="Q29" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="15">
+        <v>50</v>
+      </c>
+      <c r="S29" s="15">
         <v>1400</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="15">
         <v>2.76</v>
       </c>
     </row>
@@ -2416,43 +2419,43 @@
       <c r="F30" s="3">
         <v>14.32</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="O30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P30" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R30" s="13">
-        <v>50</v>
-      </c>
-      <c r="S30" s="13">
+      <c r="P30" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R30" s="15">
+        <v>50</v>
+      </c>
+      <c r="S30" s="15">
         <v>1850</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="15">
         <v>14.09</v>
       </c>
     </row>
@@ -2475,40 +2478,40 @@
       <c r="F31" s="3">
         <v>7.17</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R31" s="13">
-        <v>25</v>
-      </c>
-      <c r="S31" s="13">
+      <c r="P31" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R31" s="15">
+        <v>25</v>
+      </c>
+      <c r="S31" s="15">
         <v>1300</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="15">
         <v>17.07</v>
       </c>
     </row>
@@ -2531,37 +2534,37 @@
       <c r="F32" s="3">
         <v>27.39</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q32" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R32" s="13">
-        <v>25</v>
-      </c>
-      <c r="S32" s="13">
+      <c r="Q32" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R32" s="15">
+        <v>25</v>
+      </c>
+      <c r="S32" s="15">
         <v>1000</v>
       </c>
     </row>
@@ -2584,43 +2587,43 @@
       <c r="F33" s="8">
         <v>34.72</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="12" t="s">
+      <c r="O33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q33" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R33" s="13">
-        <v>25</v>
-      </c>
-      <c r="S33" s="13">
+      <c r="Q33" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R33" s="15">
+        <v>25</v>
+      </c>
+      <c r="S33" s="15">
         <v>1300</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="15">
         <v>11.49</v>
       </c>
     </row>
@@ -2643,40 +2646,40 @@
       <c r="F34" s="3">
         <v>27.54</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J34" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K34" s="13">
-        <v>50</v>
-      </c>
-      <c r="L34" s="13">
+      <c r="I34" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K34" s="15">
+        <v>50</v>
+      </c>
+      <c r="L34" s="15">
         <v>2200</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="15">
         <v>43.62</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="O34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R34" s="13">
-        <v>50</v>
-      </c>
-      <c r="S34" s="13">
+      <c r="P34" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R34" s="15">
+        <v>50</v>
+      </c>
+      <c r="S34" s="15">
         <v>1100</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="15">
         <v>32.82</v>
       </c>
     </row>
@@ -2699,40 +2702,40 @@
       <c r="F35" s="3">
         <v>47.22</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K35" s="13">
-        <v>50</v>
-      </c>
-      <c r="L35" s="13">
+      <c r="I35" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="15">
+        <v>50</v>
+      </c>
+      <c r="L35" s="15">
         <v>3350</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="15">
         <v>50.97</v>
       </c>
-      <c r="O35" s="12" t="s">
+      <c r="O35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P35" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q35" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R35" s="13">
-        <v>50</v>
-      </c>
-      <c r="S35" s="13">
+      <c r="P35" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R35" s="15">
+        <v>50</v>
+      </c>
+      <c r="S35" s="15">
         <v>2550</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T35" s="15">
         <v>39.840000000000003</v>
       </c>
     </row>
@@ -2755,40 +2758,40 @@
       <c r="F36" s="3">
         <v>33.76</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J36" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K36" s="13">
-        <v>50</v>
-      </c>
-      <c r="L36" s="13">
+      <c r="I36" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="15">
+        <v>50</v>
+      </c>
+      <c r="L36" s="15">
         <v>2200</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="15">
         <v>44.79</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="O36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P36" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q36" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R36" s="13">
-        <v>50</v>
-      </c>
-      <c r="S36" s="13">
+      <c r="P36" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R36" s="15">
+        <v>50</v>
+      </c>
+      <c r="S36" s="15">
         <v>1100</v>
       </c>
-      <c r="T36" s="13">
+      <c r="T36" s="15">
         <v>33.799999999999997</v>
       </c>
     </row>
@@ -2811,46 +2814,46 @@
       <c r="F37" s="8">
         <v>54.16</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="G37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K37" s="16">
-        <v>50</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="I37" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="17">
+        <v>50</v>
+      </c>
+      <c r="L37" s="17">
         <v>3750</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="17">
         <v>56.33</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O37" s="12" t="s">
+      <c r="O37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P37" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q37" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R37" s="13">
-        <v>25</v>
-      </c>
-      <c r="S37" s="13">
+      <c r="P37" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R37" s="15">
+        <v>25</v>
+      </c>
+      <c r="S37" s="15">
         <v>2025</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T37" s="15">
         <v>36.71</v>
       </c>
     </row>
@@ -2876,40 +2879,40 @@
       <c r="G38" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O38" s="12" t="s">
+      <c r="I38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T38" s="12" t="s">
+      <c r="P38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T38" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2932,40 +2935,40 @@
       <c r="F39" s="3">
         <v>2.62</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O39" s="12" t="s">
+      <c r="I39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="P39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T39" s="12" t="s">
+      <c r="P39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T39" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2988,40 +2991,40 @@
       <c r="F40" s="3">
         <v>3.42</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="12" t="s">
+      <c r="I40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T40" s="12" t="s">
+      <c r="P40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3045,40 +3048,40 @@
         <v>1.75</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O41" s="12" t="s">
+      <c r="I41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="P41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T41" s="12" t="s">
+      <c r="P41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T41" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3101,43 +3104,43 @@
       <c r="F42" s="3">
         <v>3.17</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="15">
         <v>1E-4</v>
       </c>
-      <c r="J42" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K42" s="13">
-        <v>50</v>
-      </c>
-      <c r="L42" s="13">
+      <c r="J42" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="15">
+        <v>50</v>
+      </c>
+      <c r="L42" s="15">
         <v>2700</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="15">
         <v>8.1199999999999992</v>
       </c>
-      <c r="N42" s="12" t="s">
+      <c r="N42" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O42" s="12" t="s">
+      <c r="O42" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q42" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R42" s="13">
-        <v>50</v>
-      </c>
-      <c r="S42" s="13">
+      <c r="Q42" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R42" s="15">
+        <v>50</v>
+      </c>
+      <c r="S42" s="15">
         <v>1850</v>
       </c>
-      <c r="T42" s="13">
+      <c r="T42" s="15">
         <v>6.69</v>
       </c>
     </row>
@@ -3160,40 +3163,40 @@
       <c r="F43" s="3">
         <v>7.73</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="15">
         <v>1E-4</v>
       </c>
-      <c r="J43" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="13">
-        <v>50</v>
-      </c>
-      <c r="L43" s="13">
+      <c r="J43" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="15">
+        <v>50</v>
+      </c>
+      <c r="L43" s="15">
         <v>1600</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="15">
         <v>1.55</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="O43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q43" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R43" s="13">
-        <v>50</v>
-      </c>
-      <c r="S43" s="13">
+      <c r="Q43" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R43" s="15">
+        <v>50</v>
+      </c>
+      <c r="S43" s="15">
         <v>1100</v>
       </c>
-      <c r="T43" s="13">
+      <c r="T43" s="15">
         <v>3.35</v>
       </c>
     </row>
@@ -3216,40 +3219,40 @@
       <c r="F44" s="3">
         <v>2.88</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" s="13">
+      <c r="H44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="15">
         <v>1E-4</v>
       </c>
-      <c r="J44" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K44" s="13">
-        <v>50</v>
-      </c>
-      <c r="L44" s="13">
+      <c r="J44" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K44" s="15">
+        <v>50</v>
+      </c>
+      <c r="L44" s="15">
         <v>1200</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="15">
         <v>4.82</v>
       </c>
-      <c r="O44" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P44" s="13">
+      <c r="O44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P44" s="15">
         <v>1E-4</v>
       </c>
-      <c r="Q44" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R44" s="13">
-        <v>50</v>
-      </c>
-      <c r="S44" s="13">
+      <c r="Q44" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R44" s="15">
+        <v>50</v>
+      </c>
+      <c r="S44" s="15">
         <v>1350</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="15">
         <v>5.79</v>
       </c>
     </row>
@@ -3275,41 +3278,41 @@
       <c r="G45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="17">
         <v>1E-4</v>
       </c>
-      <c r="J45" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K45" s="16">
-        <v>50</v>
-      </c>
-      <c r="L45" s="16">
+      <c r="J45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K45" s="17">
+        <v>50</v>
+      </c>
+      <c r="L45" s="17">
         <v>1450</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="17">
         <v>1.52</v>
       </c>
-      <c r="N45" s="15"/>
-      <c r="O45" s="12" t="s">
+      <c r="N45" s="16"/>
+      <c r="O45" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="15">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="Q45" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="R45" s="13">
-        <v>50</v>
-      </c>
-      <c r="S45" s="13">
+      <c r="Q45" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="R45" s="15">
+        <v>50</v>
+      </c>
+      <c r="S45" s="15">
         <v>1000</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="15">
         <v>1.72</v>
       </c>
     </row>
@@ -3320,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6B57BE-A270-EA4B-AE92-242CF0ABE278}">
-  <dimension ref="A1:F634"/>
+  <dimension ref="A1:G668"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="G246" sqref="G246"/>
+    <sheetView topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="E671" sqref="E671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15811,7 +15814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>51</v>
       </c>
@@ -15831,7 +15834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>51</v>
       </c>
@@ -15851,7 +15854,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>51</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>51</v>
       </c>
@@ -15891,7 +15894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>51</v>
       </c>
@@ -15911,7 +15914,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>51</v>
       </c>
@@ -15931,7 +15934,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>51</v>
       </c>
@@ -15951,7 +15954,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>51</v>
       </c>
@@ -15971,7 +15974,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>51</v>
       </c>
@@ -15991,7 +15994,674 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="634" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A636" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>32</v>
+      </c>
+      <c r="B637" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C637" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D637" s="3">
+        <v>50</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F637" s="3">
+        <v>1</v>
+      </c>
+      <c r="G637" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>32</v>
+      </c>
+      <c r="B638" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C638" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D638" s="3">
+        <v>50</v>
+      </c>
+      <c r="E638" s="3">
+        <v>950</v>
+      </c>
+      <c r="F638" s="3">
+        <v>2</v>
+      </c>
+      <c r="G638" s="3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>32</v>
+      </c>
+      <c r="B639" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C639" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D639" s="3">
+        <v>50</v>
+      </c>
+      <c r="E639" s="3">
+        <v>850</v>
+      </c>
+      <c r="F639" s="3">
+        <v>3</v>
+      </c>
+      <c r="G639" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>32</v>
+      </c>
+      <c r="B640" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C640" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D640" s="3">
+        <v>50</v>
+      </c>
+      <c r="E640" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F640" s="3">
+        <v>4</v>
+      </c>
+      <c r="G640" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>32</v>
+      </c>
+      <c r="B641" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C641" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D641" s="3">
+        <v>50</v>
+      </c>
+      <c r="E641" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F641" s="3">
+        <v>5</v>
+      </c>
+      <c r="G641" s="3">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>32</v>
+      </c>
+      <c r="B642" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C642" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D642" s="3">
+        <v>50</v>
+      </c>
+      <c r="E642" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F642" s="3">
+        <v>6</v>
+      </c>
+      <c r="G642" s="3">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>32</v>
+      </c>
+      <c r="B643" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C643" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D643" s="3">
+        <v>50</v>
+      </c>
+      <c r="E643" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F643" s="3">
+        <v>7</v>
+      </c>
+      <c r="G643" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>32</v>
+      </c>
+      <c r="B644" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C644" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D644" s="3">
+        <v>50</v>
+      </c>
+      <c r="E644" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F644" s="3">
+        <v>8</v>
+      </c>
+      <c r="G644" s="3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>32</v>
+      </c>
+      <c r="B645" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C645" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D645" s="3">
+        <v>50</v>
+      </c>
+      <c r="E645" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F645" s="3">
+        <v>9</v>
+      </c>
+      <c r="G645" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>32</v>
+      </c>
+      <c r="B646" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C646" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D646" s="3">
+        <v>50</v>
+      </c>
+      <c r="E646" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F646" s="3">
+        <v>10</v>
+      </c>
+      <c r="G646" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A648" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B648" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="C648" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D648" s="12">
+        <v>50</v>
+      </c>
+      <c r="E648" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F648" s="12">
+        <v>9</v>
+      </c>
+      <c r="G648" s="12">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A649" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B649" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="C649" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D649" s="12">
+        <v>50</v>
+      </c>
+      <c r="E649" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F649" s="12">
+        <v>10</v>
+      </c>
+      <c r="G649" s="12">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B651" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C651" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D651" s="8">
+        <v>50</v>
+      </c>
+      <c r="E651" s="8">
+        <v>2850</v>
+      </c>
+      <c r="F651" s="8">
+        <v>9</v>
+      </c>
+      <c r="G651" s="18">
+        <v>42.57</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B652" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C652" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D652" s="12">
+        <v>50</v>
+      </c>
+      <c r="E652" s="12">
+        <v>2650</v>
+      </c>
+      <c r="F652" s="12">
+        <v>10</v>
+      </c>
+      <c r="G652" s="12">
+        <v>41.96</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A654" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B654" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C654" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D654" s="8">
+        <v>50</v>
+      </c>
+      <c r="E654" s="8">
+        <v>1950</v>
+      </c>
+      <c r="F654" s="6">
+        <v>2</v>
+      </c>
+      <c r="G654" s="8">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A655" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B655" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C655" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D655" s="12">
+        <v>50</v>
+      </c>
+      <c r="E655" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F655" s="11">
+        <v>3</v>
+      </c>
+      <c r="G655" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A656" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B656" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C656" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D656" s="12">
+        <v>50</v>
+      </c>
+      <c r="E656" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F656" s="11">
+        <v>4</v>
+      </c>
+      <c r="G656" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A657" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B657" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C657" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D657" s="12">
+        <v>50</v>
+      </c>
+      <c r="E657" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F657" s="11">
+        <v>5</v>
+      </c>
+      <c r="G657" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A658" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B658" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C658" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D658" s="12">
+        <v>50</v>
+      </c>
+      <c r="E658" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F658" s="11">
+        <v>6</v>
+      </c>
+      <c r="G658" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A659" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B659" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C659" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D659" s="12">
+        <v>50</v>
+      </c>
+      <c r="E659" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F659" s="11">
+        <v>7</v>
+      </c>
+      <c r="G659" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A660" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B660" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C660" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D660" s="12">
+        <v>50</v>
+      </c>
+      <c r="E660" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F660" s="11">
+        <v>8</v>
+      </c>
+      <c r="G660" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A661" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B661" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C661" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D661" s="12">
+        <v>50</v>
+      </c>
+      <c r="E661" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F661" s="11">
+        <v>9</v>
+      </c>
+      <c r="G661" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A662" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B662" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C662" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D662" s="12">
+        <v>50</v>
+      </c>
+      <c r="E662" s="12">
+        <v>1950</v>
+      </c>
+      <c r="F662" s="11">
+        <v>10</v>
+      </c>
+      <c r="G662" s="12">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A664" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B664" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C664" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D664" s="12">
+        <v>50</v>
+      </c>
+      <c r="E664" s="12">
+        <v>3950</v>
+      </c>
+      <c r="F664" s="11">
+        <v>6</v>
+      </c>
+      <c r="G664" s="12">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A665" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B665" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C665" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D665" s="12">
+        <v>50</v>
+      </c>
+      <c r="E665" s="12">
+        <v>3950</v>
+      </c>
+      <c r="F665" s="11">
+        <v>7</v>
+      </c>
+      <c r="G665" s="12">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A666" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B666" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C666" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D666" s="12">
+        <v>50</v>
+      </c>
+      <c r="E666" s="12">
+        <v>3950</v>
+      </c>
+      <c r="F666" s="11">
+        <v>8</v>
+      </c>
+      <c r="G666" s="12">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A667" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B667" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C667" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D667" s="12">
+        <v>50</v>
+      </c>
+      <c r="E667" s="12">
+        <v>3950</v>
+      </c>
+      <c r="F667" s="11">
+        <v>9</v>
+      </c>
+      <c r="G667" s="12">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A668" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B668" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C668" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D668" s="12">
+        <v>50</v>
+      </c>
+      <c r="E668" s="12">
+        <v>3950</v>
+      </c>
+      <c r="F668" s="11">
+        <v>10</v>
+      </c>
+      <c r="G668" s="12">
+        <v>54.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54167B08-A96E-5F40-89F8-255250E299A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB002C2-F343-D04B-8103-466F31096A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="500" windowWidth="11560" windowHeight="16340" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="7840" yWindow="500" windowWidth="22060" windowHeight="16340" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="best.models" sheetId="5" r:id="rId1"/>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253AA50-120C-E840-A4B6-D46FED88DE7A}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09510F30-941E-3D42-B395-2503E612B2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758F77F9-FE35-154C-B71F-6B4603502B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="600" windowWidth="10000" windowHeight="16340" firstSheet="1" activeTab="1" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="18120" yWindow="600" windowWidth="10000" windowHeight="16340" firstSheet="4" activeTab="4" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="best.models" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="95">
   <si>
     <t>model</t>
   </si>
@@ -322,7 +322,10 @@
     <t>tc = 2</t>
   </si>
   <si>
-    <t>tc = 5</t>
+    <t xml:space="preserve">wouldn't finish tc test </t>
+  </si>
+  <si>
+    <t>tc = NA</t>
   </si>
 </sst>
 </file>
@@ -2700,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6B57BE-A270-EA4B-AE92-242CF0ABE278}">
   <dimension ref="A1:N827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H758" workbookViewId="0">
-      <selection activeCell="N781" sqref="N781"/>
+    <sheetView topLeftCell="H765" workbookViewId="0">
+      <selection activeCell="N783" sqref="N783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17770,10 +17773,10 @@
         <v>25</v>
       </c>
       <c r="L768" s="3">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="M768" s="3">
-        <v>21.47</v>
+        <v>19.760000000000002</v>
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.2">
@@ -17809,10 +17812,10 @@
         <v>25</v>
       </c>
       <c r="L769" s="3">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="M769" s="3">
-        <v>15.64</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.2">
@@ -17847,10 +17850,10 @@
         <v>50</v>
       </c>
       <c r="L770" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M770" s="3">
-        <v>23.97</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="771" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17888,7 +17891,7 @@
         <v>250</v>
       </c>
       <c r="M771" s="13">
-        <v>24.73</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.2">
@@ -17924,10 +17927,10 @@
         <v>25</v>
       </c>
       <c r="L772" s="13">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="M772" s="13">
-        <v>18.260000000000002</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.2">
@@ -17963,10 +17966,10 @@
         <v>25</v>
       </c>
       <c r="L773" s="13">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="M773" s="13">
-        <v>19.420000000000002</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="774" spans="1:14" x14ac:dyDescent="0.2">
@@ -18002,13 +18005,13 @@
         <v>50</v>
       </c>
       <c r="L774" s="14">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="M774" s="14">
-        <v>23.9</v>
+        <v>18.62</v>
       </c>
       <c r="N774" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="775" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -18044,10 +18047,10 @@
         <v>50</v>
       </c>
       <c r="L775" s="13">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M775" s="13">
-        <v>21.35</v>
+        <v>19.77</v>
       </c>
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.2">
@@ -18183,10 +18186,10 @@
         <v>25</v>
       </c>
       <c r="L780" s="3">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M780" s="3">
-        <v>43.68</v>
+        <v>33.18</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.2">
@@ -18222,10 +18225,10 @@
         <v>25</v>
       </c>
       <c r="L781" s="3">
-        <v>900</v>
+        <v>575</v>
       </c>
       <c r="M781" s="3">
-        <v>60.75</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.2">
@@ -18248,23 +18251,23 @@
         <v>11</v>
       </c>
       <c r="G782" s="3"/>
-      <c r="H782" s="6" t="s">
+      <c r="H782" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I782" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J782" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K782" s="8">
-        <v>50</v>
-      </c>
-      <c r="L782" s="8">
-        <v>1500</v>
-      </c>
-      <c r="M782" s="8">
-        <v>58.83</v>
+      <c r="I782" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J782" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K782" s="16">
+        <v>50</v>
+      </c>
+      <c r="L782" s="16">
+        <v>700</v>
+      </c>
+      <c r="M782" s="16">
+        <v>40.869999999999997</v>
       </c>
     </row>
     <row r="783" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -18287,23 +18290,26 @@
         <v>31.56</v>
       </c>
       <c r="G783" s="3"/>
-      <c r="H783" t="s">
+      <c r="H783" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I783" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J783" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K783" s="4">
+      <c r="I783" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J783" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K783" s="17">
         <v>50</v>
       </c>
       <c r="L783" s="13">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="M783" s="13">
-        <v>58.36</v>
+        <v>61.41</v>
+      </c>
+      <c r="N783" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.2">
@@ -18326,11 +18332,26 @@
         <v>33.630000000000003</v>
       </c>
       <c r="G784" s="3"/>
-      <c r="I784" s="3"/>
-      <c r="J784" s="3"/>
-      <c r="K784" s="3"/>
-    </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H784" t="s">
+        <v>26</v>
+      </c>
+      <c r="I784" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J784" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K784" s="3">
+        <v>25</v>
+      </c>
+      <c r="L784" s="16">
+        <v>3450</v>
+      </c>
+      <c r="M784" s="16">
+        <v>40.94</v>
+      </c>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>26</v>
       </c>
@@ -18350,11 +18371,26 @@
         <v>25.7</v>
       </c>
       <c r="G785" s="3"/>
-      <c r="I785" s="3"/>
-      <c r="J785" s="3"/>
-      <c r="K785" s="3"/>
-    </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H785" t="s">
+        <v>26</v>
+      </c>
+      <c r="I785" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J785" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K785" s="3">
+        <v>25</v>
+      </c>
+      <c r="L785" s="16">
+        <v>2800</v>
+      </c>
+      <c r="M785" s="16">
+        <v>48.65</v>
+      </c>
+    </row>
+    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>26</v>
       </c>
@@ -18374,12 +18410,26 @@
         <v>29.95</v>
       </c>
       <c r="G786" s="3"/>
-      <c r="H786" s="15"/>
-      <c r="I786" s="16"/>
-      <c r="J786" s="16"/>
-      <c r="K786" s="16"/>
-    </row>
-    <row r="787" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H786" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I786" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J786" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K786" s="16">
+        <v>50</v>
+      </c>
+      <c r="L786" s="16">
+        <v>1850</v>
+      </c>
+      <c r="M786" s="16">
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="787" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A787" s="6" t="s">
         <v>26</v>
       </c>
@@ -18401,12 +18451,29 @@
       <c r="G787" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H787" s="15"/>
-      <c r="I787" s="17"/>
-      <c r="J787" s="17"/>
-      <c r="K787" s="17"/>
-    </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H787" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I787" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="J787" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K787" s="9">
+        <v>50</v>
+      </c>
+      <c r="L787" s="8">
+        <v>4500</v>
+      </c>
+      <c r="M787" s="16">
+        <v>58.44</v>
+      </c>
+      <c r="N787" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="788" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>65</v>
       </c>
@@ -18438,13 +18505,13 @@
         <v>25</v>
       </c>
       <c r="L788" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M788" s="3">
-        <v>14.05</v>
-      </c>
-    </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>65</v>
       </c>
@@ -18482,7 +18549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>65</v>
       </c>
@@ -18513,14 +18580,14 @@
       <c r="K790" s="3">
         <v>50</v>
       </c>
-      <c r="L790" t="s">
-        <v>11</v>
-      </c>
-      <c r="M790" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="791" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L790" s="3">
+        <v>250</v>
+      </c>
+      <c r="M790" s="3">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="791" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>65</v>
       </c>
@@ -18558,7 +18625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>65</v>
       </c>
@@ -18591,13 +18658,13 @@
         <v>25</v>
       </c>
       <c r="L792" s="3">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M792" s="3">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>65</v>
       </c>
@@ -18633,10 +18700,10 @@
         <v>575</v>
       </c>
       <c r="M793" s="3">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>65</v>
       </c>
@@ -18669,13 +18736,13 @@
         <v>50</v>
       </c>
       <c r="L794" s="3">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M794" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="795" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="795" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>65</v>
       </c>
@@ -18708,13 +18775,13 @@
         <v>50</v>
       </c>
       <c r="L795" s="13">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M795" s="13">
-        <v>13.15</v>
-      </c>
-    </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>65</v>
       </c>
@@ -18747,13 +18814,13 @@
         <v>25</v>
       </c>
       <c r="L796" s="13">
-        <v>1650</v>
+        <v>1575</v>
       </c>
       <c r="M796" s="13">
-        <v>16.350000000000001</v>
-      </c>
-    </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>65</v>
       </c>
@@ -18773,26 +18840,29 @@
         <v>8.5</v>
       </c>
       <c r="G797" s="3"/>
-      <c r="H797" t="s">
+      <c r="H797" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I797" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J797" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K797" s="3">
-        <v>25</v>
-      </c>
-      <c r="L797" s="13">
-        <v>1025</v>
-      </c>
-      <c r="M797" s="13">
-        <v>13.47</v>
-      </c>
-    </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I797" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J797" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K797" s="8">
+        <v>25</v>
+      </c>
+      <c r="L797" s="14">
+        <v>1400</v>
+      </c>
+      <c r="M797" s="14">
+        <v>16.55</v>
+      </c>
+      <c r="N797" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>65</v>
       </c>
@@ -18828,10 +18898,10 @@
         <v>1400</v>
       </c>
       <c r="M798" s="13">
-        <v>14.56</v>
-      </c>
-    </row>
-    <row r="799" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>65</v>
       </c>
@@ -18851,26 +18921,26 @@
         <v>9.26</v>
       </c>
       <c r="G799" s="3"/>
-      <c r="H799" s="6" t="s">
+      <c r="H799" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I799" s="7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J799" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K799" s="7">
-        <v>50</v>
-      </c>
-      <c r="L799" s="14">
-        <v>1450</v>
-      </c>
-      <c r="M799" s="14">
-        <v>17.48</v>
-      </c>
-    </row>
-    <row r="800" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I799" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J799" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K799" s="18">
+        <v>50</v>
+      </c>
+      <c r="L799" s="13">
+        <v>1100</v>
+      </c>
+      <c r="M799" s="13">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>65</v>
       </c>
@@ -18894,7 +18964,7 @@
       <c r="J800" s="3"/>
       <c r="K800" s="3"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>65</v>
       </c>
@@ -18918,7 +18988,7 @@
       <c r="J801" s="3"/>
       <c r="K801" s="3"/>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>65</v>
       </c>
@@ -18942,7 +19012,7 @@
       <c r="J802" s="3"/>
       <c r="K802" s="3"/>
     </row>
-    <row r="803" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A803" s="6" t="s">
         <v>65</v>
       </c>
@@ -18969,7 +19039,7 @@
       <c r="J803" s="18"/>
       <c r="K803" s="18"/>
     </row>
-    <row r="804" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>35</v>
       </c>
@@ -19007,7 +19077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>35</v>
       </c>
@@ -19045,7 +19115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>35</v>
       </c>
@@ -19083,7 +19153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>35</v>
       </c>
@@ -19121,7 +19191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>35</v>
       </c>
@@ -19153,13 +19223,13 @@
         <v>25</v>
       </c>
       <c r="L808" s="3">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="M808" s="3">
-        <v>11.72</v>
-      </c>
-    </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>35</v>
       </c>
@@ -19191,13 +19261,13 @@
         <v>25</v>
       </c>
       <c r="L809" s="3">
-        <v>600</v>
+        <v>325</v>
       </c>
       <c r="M809" s="3">
-        <v>17.920000000000002</v>
-      </c>
-    </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>35</v>
       </c>
@@ -19229,13 +19299,13 @@
         <v>50</v>
       </c>
       <c r="L810" s="3">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M810" s="3">
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="811" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="811" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>35</v>
       </c>
@@ -19270,10 +19340,10 @@
         <v>400</v>
       </c>
       <c r="M811" s="13">
-        <v>13.02</v>
-      </c>
-    </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="812" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>35</v>
       </c>
@@ -19305,13 +19375,13 @@
         <v>25</v>
       </c>
       <c r="L812" s="3">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M812" s="13">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>35</v>
       </c>
@@ -19330,26 +19400,29 @@
       <c r="F813" t="s">
         <v>11</v>
       </c>
-      <c r="H813" t="s">
+      <c r="H813" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I813" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J813" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K813" s="3">
-        <v>25</v>
-      </c>
-      <c r="L813" s="3">
-        <v>850</v>
-      </c>
-      <c r="M813" s="13">
-        <v>13.68</v>
-      </c>
-    </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I813" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J813" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K813" s="8">
+        <v>25</v>
+      </c>
+      <c r="L813" s="8">
+        <v>1200</v>
+      </c>
+      <c r="M813" s="14">
+        <v>17.62</v>
+      </c>
+      <c r="N813" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>35</v>
       </c>
@@ -19382,13 +19455,13 @@
         <v>50</v>
       </c>
       <c r="L814" s="3">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M814" s="13">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="815" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="815" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>35</v>
       </c>
@@ -19420,13 +19493,13 @@
         <v>50</v>
       </c>
       <c r="L815" s="3">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M815" s="13">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="816" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="816" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>35</v>
       </c>
@@ -19445,26 +19518,13 @@
       <c r="F816" t="s">
         <v>11</v>
       </c>
-      <c r="H816" t="s">
-        <v>35</v>
-      </c>
-      <c r="I816" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="J816" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K816" s="3">
-        <v>25</v>
-      </c>
-      <c r="L816" s="3">
-        <v>525</v>
-      </c>
-      <c r="M816" s="13">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I816" s="3"/>
+      <c r="J816" s="3"/>
+      <c r="K816" s="3"/>
+      <c r="L816" s="3"/>
+      <c r="M816" s="13"/>
+    </row>
+    <row r="817" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>35</v>
       </c>
@@ -19484,26 +19544,14 @@
         <v>11</v>
       </c>
       <c r="G817" s="15"/>
-      <c r="H817" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I817" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="J817" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K817" s="16">
-        <v>25</v>
-      </c>
-      <c r="L817" s="3">
-        <v>1975</v>
-      </c>
-      <c r="M817" s="13">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H817" s="15"/>
+      <c r="I817" s="16"/>
+      <c r="J817" s="16"/>
+      <c r="K817" s="16"/>
+      <c r="L817" s="3"/>
+      <c r="M817" s="13"/>
+    </row>
+    <row r="818" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
         <v>35</v>
       </c>
@@ -19525,26 +19573,14 @@
       <c r="G818" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H818" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I818" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="J818" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K818" s="16">
-        <v>50</v>
-      </c>
-      <c r="L818" s="3">
-        <v>2950</v>
-      </c>
-      <c r="M818" s="13">
-        <v>7.22</v>
-      </c>
-    </row>
-    <row r="819" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H818" s="15"/>
+      <c r="I818" s="16"/>
+      <c r="J818" s="16"/>
+      <c r="K818" s="16"/>
+      <c r="L818" s="16"/>
+      <c r="M818" s="16"/>
+    </row>
+    <row r="819" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>35</v>
       </c>
@@ -19563,26 +19599,14 @@
       <c r="F819" t="s">
         <v>11</v>
       </c>
-      <c r="H819" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I819" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="J819" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K819" s="7">
-        <v>50</v>
-      </c>
-      <c r="L819" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M819" s="13">
-        <v>9.74</v>
-      </c>
-    </row>
-    <row r="820" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H819" s="6"/>
+      <c r="I819" s="7"/>
+      <c r="J819" s="7"/>
+      <c r="K819" s="7"/>
+      <c r="L819" s="8"/>
+      <c r="M819" s="8"/>
+    </row>
+    <row r="820" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>38</v>
       </c>
@@ -19615,13 +19639,13 @@
         <v>25</v>
       </c>
       <c r="L820" s="3">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M820" s="13">
-        <v>41.63</v>
-      </c>
-    </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32.71</v>
+      </c>
+    </row>
+    <row r="821" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>38</v>
       </c>
@@ -19654,13 +19678,13 @@
         <v>25</v>
       </c>
       <c r="L821" s="3">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="M821" s="13">
-        <v>45.89</v>
-      </c>
-    </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
+        <v>51.67</v>
+      </c>
+    </row>
+    <row r="822" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>38</v>
       </c>
@@ -19693,13 +19717,13 @@
         <v>50</v>
       </c>
       <c r="L822" s="3">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M822" s="13">
-        <v>45.94</v>
-      </c>
-    </row>
-    <row r="823" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="823" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>38</v>
       </c>
@@ -19731,14 +19755,14 @@
       <c r="K823" s="4">
         <v>50</v>
       </c>
-      <c r="L823" s="3">
-        <v>450</v>
+      <c r="L823" s="16">
+        <v>600</v>
       </c>
       <c r="M823" s="13">
-        <v>45.33</v>
-      </c>
-    </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="824" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>38</v>
       </c>
@@ -19771,13 +19795,13 @@
         <v>25</v>
       </c>
       <c r="L824" s="3">
-        <v>1925</v>
+        <v>2300</v>
       </c>
       <c r="M824" s="13">
-        <v>34.06</v>
-      </c>
-    </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
+        <v>35.36</v>
+      </c>
+    </row>
+    <row r="825" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
         <v>38</v>
       </c>
@@ -19812,13 +19836,13 @@
         <v>25</v>
       </c>
       <c r="L825" s="3">
-        <v>1725</v>
+        <v>1275</v>
       </c>
       <c r="M825" s="13">
-        <v>38.869999999999997</v>
-      </c>
-    </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30.35</v>
+      </c>
+    </row>
+    <row r="826" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>38</v>
       </c>
@@ -19838,26 +19862,26 @@
         <v>25.87</v>
       </c>
       <c r="G826" s="3"/>
-      <c r="H826" s="6" t="s">
+      <c r="H826" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I826" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="J826" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K826" s="8">
+      <c r="I826" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J826" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K826" s="16">
         <v>50</v>
       </c>
       <c r="L826" s="3">
-        <v>3400</v>
+        <v>3450</v>
       </c>
       <c r="M826" s="13">
-        <v>46.54</v>
-      </c>
-    </row>
-    <row r="827" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43.95</v>
+      </c>
+    </row>
+    <row r="827" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>38</v>
       </c>
@@ -19877,23 +19901,26 @@
         <v>31.18</v>
       </c>
       <c r="G827" s="3"/>
-      <c r="H827" t="s">
+      <c r="H827" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I827" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J827" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K827" s="4">
-        <v>50</v>
-      </c>
-      <c r="L827" s="3">
-        <v>2150</v>
-      </c>
-      <c r="M827" s="13">
-        <v>44.16</v>
+      <c r="I827" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="J827" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K827" s="9">
+        <v>50</v>
+      </c>
+      <c r="L827" s="8">
+        <v>2850</v>
+      </c>
+      <c r="M827" s="14">
+        <v>48.17</v>
+      </c>
+      <c r="N827" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -20558,10 +20585,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F100F66-9910-BB4F-B314-AD0619FF0014}">
-  <dimension ref="A1:H811"/>
+  <dimension ref="A1:N823"/>
   <sheetViews>
-    <sheetView topLeftCell="A759" workbookViewId="0">
-      <selection activeCell="C766" sqref="C766"/>
+    <sheetView topLeftCell="A722" workbookViewId="0">
+      <selection activeCell="A739" sqref="A739:XFD826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34815,7 +34842,7 @@
       <c r="G736" s="3"/>
       <c r="H736" s="3"/>
     </row>
-    <row r="737" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>32</v>
       </c>
@@ -34837,13 +34864,52 @@
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
     </row>
-    <row r="738" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="739" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A739" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B739" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F739" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G739" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H739" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I739" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J739" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K739" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L739" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M739" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N739" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="740" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>21</v>
       </c>
@@ -34863,9 +34929,27 @@
         <v>11</v>
       </c>
       <c r="G740" s="3"/>
-      <c r="H740" s="3"/>
-    </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H740" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I740" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J740" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K740" s="16">
+        <v>25</v>
+      </c>
+      <c r="L740" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M740" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N740" s="15"/>
+    </row>
+    <row r="741" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>21</v>
       </c>
@@ -34885,9 +34969,27 @@
         <v>11</v>
       </c>
       <c r="G741" s="3"/>
-      <c r="H741" s="3"/>
-    </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H741" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I741" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J741" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K741" s="16">
+        <v>25</v>
+      </c>
+      <c r="L741" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M741" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N741" s="15"/>
+    </row>
+    <row r="742" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>21</v>
       </c>
@@ -34906,8 +35008,27 @@
       <c r="F742" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="743" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H742" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I742" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J742" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K742" s="16">
+        <v>50</v>
+      </c>
+      <c r="L742" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M742" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N742" s="15"/>
+    </row>
+    <row r="743" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>21</v>
       </c>
@@ -34926,8 +35047,27 @@
       <c r="F743" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H743" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I743" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J743" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K743" s="17">
+        <v>50</v>
+      </c>
+      <c r="L743" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M743" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N743" s="15"/>
+    </row>
+    <row r="744" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>21</v>
       </c>
@@ -34947,9 +35087,27 @@
         <v>11</v>
       </c>
       <c r="G744" s="3"/>
-      <c r="H744" s="3"/>
-    </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H744" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I744" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J744" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K744" s="16">
+        <v>25</v>
+      </c>
+      <c r="L744" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M744" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N744" s="15"/>
+    </row>
+    <row r="745" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>21</v>
       </c>
@@ -34969,9 +35127,27 @@
         <v>11</v>
       </c>
       <c r="G745" s="3"/>
-      <c r="H745" s="3"/>
-    </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H745" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I745" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J745" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K745" s="16">
+        <v>25</v>
+      </c>
+      <c r="L745" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M745" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N745" s="15"/>
+    </row>
+    <row r="746" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>21</v>
       </c>
@@ -34991,9 +35167,27 @@
         <v>11</v>
       </c>
       <c r="G746" s="3"/>
-      <c r="H746" s="3"/>
-    </row>
-    <row r="747" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H746" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I746" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J746" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K746" s="16">
+        <v>50</v>
+      </c>
+      <c r="L746" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M746" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N746" s="15"/>
+    </row>
+    <row r="747" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>21</v>
       </c>
@@ -35013,9 +35207,27 @@
         <v>11</v>
       </c>
       <c r="G747" s="3"/>
-      <c r="H747" s="3"/>
-    </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H747" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I747" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J747" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K747" s="17">
+        <v>50</v>
+      </c>
+      <c r="L747" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M747" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N747" s="15"/>
+    </row>
+    <row r="748" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>21</v>
       </c>
@@ -35035,9 +35247,27 @@
         <v>11</v>
       </c>
       <c r="G748" s="3"/>
-      <c r="H748" s="3"/>
-    </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H748" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I748" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J748" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K748" s="16">
+        <v>25</v>
+      </c>
+      <c r="L748" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M748" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N748" s="15"/>
+    </row>
+    <row r="749" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>21</v>
       </c>
@@ -35057,9 +35287,27 @@
         <v>5.48</v>
       </c>
       <c r="G749" s="3"/>
-      <c r="H749" s="3"/>
-    </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H749" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I749" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J749" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K749" s="16">
+        <v>25</v>
+      </c>
+      <c r="L749" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M749" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N749" s="15"/>
+    </row>
+    <row r="750" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>21</v>
       </c>
@@ -35079,9 +35327,27 @@
         <v>11</v>
       </c>
       <c r="G750" s="3"/>
-      <c r="H750" s="3"/>
-    </row>
-    <row r="751" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H750" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I750" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J750" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K750" s="16">
+        <v>50</v>
+      </c>
+      <c r="L750" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M750" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N750" s="15"/>
+    </row>
+    <row r="751" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>21</v>
       </c>
@@ -35101,9 +35367,27 @@
         <v>11</v>
       </c>
       <c r="G751" s="3"/>
-      <c r="H751" s="3"/>
-    </row>
-    <row r="752" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H751" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I751" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J751" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K751" s="18">
+        <v>50</v>
+      </c>
+      <c r="L751" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M751" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N751" s="15"/>
+    </row>
+    <row r="752" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>21</v>
       </c>
@@ -35123,9 +35407,27 @@
         <v>11</v>
       </c>
       <c r="G752" s="3"/>
-      <c r="H752" s="3"/>
-    </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H752" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I752" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J752" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K752" s="16">
+        <v>25</v>
+      </c>
+      <c r="L752" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M752" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N752" s="15"/>
+    </row>
+    <row r="753" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>21</v>
       </c>
@@ -35145,9 +35447,27 @@
         <v>11</v>
       </c>
       <c r="G753" s="3"/>
-      <c r="H753" s="3"/>
-    </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H753" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I753" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J753" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K753" s="16">
+        <v>25</v>
+      </c>
+      <c r="L753" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M753" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N753" s="15"/>
+    </row>
+    <row r="754" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>21</v>
       </c>
@@ -35167,9 +35487,27 @@
         <v>11</v>
       </c>
       <c r="G754" s="3"/>
-      <c r="H754" s="3"/>
-    </row>
-    <row r="755" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H754" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I754" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J754" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K754" s="16">
+        <v>50</v>
+      </c>
+      <c r="L754" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M754" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N754" s="15"/>
+    </row>
+    <row r="755" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>21</v>
       </c>
@@ -35189,9 +35527,27 @@
         <v>1.34</v>
       </c>
       <c r="G755" s="3"/>
-      <c r="H755" s="3"/>
-    </row>
-    <row r="756" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H755" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I755" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="J755" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K755" s="18">
+        <v>50</v>
+      </c>
+      <c r="L755" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M755" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N755" s="15"/>
+    </row>
+    <row r="756" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>21</v>
       </c>
@@ -35211,9 +35567,27 @@
         <v>11</v>
       </c>
       <c r="G756" s="3"/>
-      <c r="H756" s="3"/>
-    </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H756" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I756" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J756" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K756" s="16">
+        <v>25</v>
+      </c>
+      <c r="L756" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M756" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N756" s="15"/>
+    </row>
+    <row r="757" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>21</v>
       </c>
@@ -35233,9 +35607,27 @@
         <v>11</v>
       </c>
       <c r="G757" s="3"/>
-      <c r="H757" s="3"/>
-    </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H757" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I757" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J757" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K757" s="16">
+        <v>25</v>
+      </c>
+      <c r="L757" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M757" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N757" s="15"/>
+    </row>
+    <row r="758" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>21</v>
       </c>
@@ -35255,9 +35647,27 @@
         <v>11</v>
       </c>
       <c r="G758" s="3"/>
-      <c r="H758" s="3"/>
-    </row>
-    <row r="759" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H758" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I758" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J758" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K758" s="16">
+        <v>50</v>
+      </c>
+      <c r="L758" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M758" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N758" s="15"/>
+    </row>
+    <row r="759" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>21</v>
       </c>
@@ -35277,9 +35687,27 @@
         <v>11</v>
       </c>
       <c r="G759" s="3"/>
-      <c r="H759" s="3"/>
-    </row>
-    <row r="760" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H759" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I759" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J759" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K759" s="18">
+        <v>50</v>
+      </c>
+      <c r="L759" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M759" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N759" s="15"/>
+    </row>
+    <row r="760" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>21</v>
       </c>
@@ -35299,9 +35727,27 @@
         <v>11</v>
       </c>
       <c r="G760" s="3"/>
-      <c r="H760" s="3"/>
-    </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H760" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I760" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J760" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K760" s="16">
+        <v>25</v>
+      </c>
+      <c r="L760" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M760" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N760" s="15"/>
+    </row>
+    <row r="761" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>21</v>
       </c>
@@ -35321,9 +35767,27 @@
         <v>11</v>
       </c>
       <c r="G761" s="3"/>
-      <c r="H761" s="3"/>
-    </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H761" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I761" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J761" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K761" s="16">
+        <v>25</v>
+      </c>
+      <c r="L761" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M761" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N761" s="15"/>
+    </row>
+    <row r="762" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>21</v>
       </c>
@@ -35343,9 +35807,27 @@
         <v>11</v>
       </c>
       <c r="G762" s="3"/>
-      <c r="H762" s="3"/>
-    </row>
-    <row r="763" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H762" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I762" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J762" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K762" s="16">
+        <v>50</v>
+      </c>
+      <c r="L762" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M762" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N762" s="15"/>
+    </row>
+    <row r="763" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A763" s="6" t="s">
         <v>21</v>
       </c>
@@ -35364,12 +35846,27 @@
       <c r="F763" s="8">
         <v>0.23</v>
       </c>
-      <c r="G763" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H763" s="3"/>
-    </row>
-    <row r="764" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H763" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I763" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J763" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K763" s="18">
+        <v>50</v>
+      </c>
+      <c r="L763" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M763" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N763" s="15"/>
+    </row>
+    <row r="764" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>26</v>
       </c>
@@ -35383,15 +35880,33 @@
         <v>25</v>
       </c>
       <c r="E764" s="3">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="F764" s="3">
-        <v>21.87</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G764" s="3"/>
-      <c r="H764" s="3"/>
-    </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H764" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I764" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J764" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K764" s="16">
+        <v>25</v>
+      </c>
+      <c r="L764" s="16">
+        <v>300</v>
+      </c>
+      <c r="M764" s="16">
+        <v>26.02</v>
+      </c>
+      <c r="N764" s="15"/>
+    </row>
+    <row r="765" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>26</v>
       </c>
@@ -35404,40 +35919,74 @@
       <c r="D765" s="3">
         <v>25</v>
       </c>
-      <c r="E765" s="3">
-        <v>125</v>
-      </c>
-      <c r="F765" s="3">
-        <v>16.63</v>
+      <c r="E765" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G765" s="3"/>
-      <c r="H765" s="3"/>
-    </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A766" s="6" t="s">
+      <c r="H765" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B766" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C766" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D766" s="8">
-        <v>50</v>
-      </c>
-      <c r="E766" s="8">
-        <v>1300</v>
-      </c>
-      <c r="F766" s="8">
-        <v>43.2</v>
-      </c>
-      <c r="G766" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H766" s="3"/>
-    </row>
-    <row r="767" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I765" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J765" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K765" s="16">
+        <v>25</v>
+      </c>
+      <c r="L765" s="16">
+        <v>375</v>
+      </c>
+      <c r="M765" s="16">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="N765" s="15"/>
+    </row>
+    <row r="766" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A766" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B766" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C766" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D766" s="16">
+        <v>50</v>
+      </c>
+      <c r="E766" s="16">
+        <v>400</v>
+      </c>
+      <c r="F766" s="16">
+        <v>23.76</v>
+      </c>
+      <c r="G766" s="3"/>
+      <c r="H766" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I766" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J766" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K766" s="16">
+        <v>50</v>
+      </c>
+      <c r="L766" s="16">
+        <v>300</v>
+      </c>
+      <c r="M766" s="16">
+        <v>27.64</v>
+      </c>
+      <c r="N766" s="15"/>
+    </row>
+    <row r="767" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>26</v>
       </c>
@@ -35450,16 +35999,34 @@
       <c r="D767" s="4">
         <v>50</v>
       </c>
-      <c r="E767" t="s">
-        <v>11</v>
-      </c>
-      <c r="F767" t="s">
+      <c r="E767" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F767" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G767" s="8"/>
-      <c r="H767" s="8"/>
-    </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H767" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I767" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J767" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K767" s="17">
+        <v>50</v>
+      </c>
+      <c r="L767" s="13">
+        <v>300</v>
+      </c>
+      <c r="M767" s="13">
+        <v>38.46</v>
+      </c>
+      <c r="N767" s="15"/>
+    </row>
+    <row r="768" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>26</v>
       </c>
@@ -35473,15 +36040,33 @@
         <v>25</v>
       </c>
       <c r="E768" s="3">
-        <v>1225</v>
+        <v>675</v>
       </c>
       <c r="F768" s="3">
-        <v>17.309999999999999</v>
+        <v>11.44</v>
       </c>
       <c r="G768" s="3"/>
-      <c r="H768" s="3"/>
-    </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H768" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I768" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J768" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K768" s="16">
+        <v>25</v>
+      </c>
+      <c r="L768" s="13">
+        <v>1375</v>
+      </c>
+      <c r="M768" s="13">
+        <v>25.56</v>
+      </c>
+      <c r="N768" s="15"/>
+    </row>
+    <row r="769" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>26</v>
       </c>
@@ -35494,16 +36079,33 @@
       <c r="D769" s="3">
         <v>25</v>
       </c>
-      <c r="E769" s="3">
-        <v>1550</v>
-      </c>
-      <c r="F769" s="3">
-        <v>31.42</v>
+      <c r="E769" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G769" s="3"/>
-      <c r="H769" s="3"/>
-    </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H769" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I769" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J769" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K769" s="16">
+        <v>25</v>
+      </c>
+      <c r="L769" s="13">
+        <v>975</v>
+      </c>
+      <c r="M769" s="13">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="770" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>26</v>
       </c>
@@ -35517,37 +36119,77 @@
         <v>50</v>
       </c>
       <c r="E770" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F770" s="3">
-        <v>15.39</v>
+        <v>18.98</v>
       </c>
       <c r="G770" s="3"/>
-      <c r="H770" s="3"/>
-    </row>
-    <row r="771" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+      <c r="H770" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B771" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C771" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D771" s="4">
-        <v>50</v>
-      </c>
-      <c r="E771" s="3">
-        <v>750</v>
-      </c>
-      <c r="F771" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="G771" s="8"/>
-      <c r="H771" s="8"/>
-    </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I770" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J770" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K770" s="16">
+        <v>50</v>
+      </c>
+      <c r="L770" s="13">
+        <v>1650</v>
+      </c>
+      <c r="M770" s="13">
+        <v>28.21</v>
+      </c>
+      <c r="N770" s="15"/>
+    </row>
+    <row r="771" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B771" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C771" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D771" s="9">
+        <v>50</v>
+      </c>
+      <c r="E771" s="8">
+        <v>5700</v>
+      </c>
+      <c r="F771" s="8">
+        <v>60.58</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H771" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I771" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="J771" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K771" s="9">
+        <v>50</v>
+      </c>
+      <c r="L771" s="14">
+        <v>1700</v>
+      </c>
+      <c r="M771" s="14">
+        <v>41.38</v>
+      </c>
+      <c r="N771" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="772" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>65</v>
       </c>
@@ -35566,8 +36208,27 @@
       <c r="F772" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H772" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I772" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J772" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K772" s="16">
+        <v>25</v>
+      </c>
+      <c r="L772" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M772" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N772" s="15"/>
+    </row>
+    <row r="773" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>65</v>
       </c>
@@ -35586,8 +36247,27 @@
       <c r="F773" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H773" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I773" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J773" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K773" s="16">
+        <v>25</v>
+      </c>
+      <c r="L773" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M773" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N773" s="15"/>
+    </row>
+    <row r="774" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>65</v>
       </c>
@@ -35606,8 +36286,27 @@
       <c r="F774" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="775" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H774" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I774" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J774" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K774" s="16">
+        <v>50</v>
+      </c>
+      <c r="L774" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M774" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N774" s="15"/>
+    </row>
+    <row r="775" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>65</v>
       </c>
@@ -35626,8 +36325,27 @@
       <c r="F775" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H775" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I775" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J775" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K775" s="17">
+        <v>50</v>
+      </c>
+      <c r="L775" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M775" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N775" s="15"/>
+    </row>
+    <row r="776" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>65</v>
       </c>
@@ -35647,9 +36365,27 @@
         <v>11</v>
       </c>
       <c r="G776" s="3"/>
-      <c r="H776" s="3"/>
-    </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H776" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I776" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J776" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K776" s="16">
+        <v>25</v>
+      </c>
+      <c r="L776" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M776" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N776" s="15"/>
+    </row>
+    <row r="777" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>65</v>
       </c>
@@ -35669,9 +36405,27 @@
         <v>11</v>
       </c>
       <c r="G777" s="3"/>
-      <c r="H777" s="3"/>
-    </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H777" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I777" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J777" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K777" s="16">
+        <v>25</v>
+      </c>
+      <c r="L777" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M777" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N777" s="15"/>
+    </row>
+    <row r="778" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>65</v>
       </c>
@@ -35691,9 +36445,27 @@
         <v>11</v>
       </c>
       <c r="G778" s="3"/>
-      <c r="H778" s="3"/>
-    </row>
-    <row r="779" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H778" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I778" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J778" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K778" s="16">
+        <v>50</v>
+      </c>
+      <c r="L778" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M778" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N778" s="15"/>
+    </row>
+    <row r="779" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>65</v>
       </c>
@@ -35713,9 +36485,27 @@
         <v>11</v>
       </c>
       <c r="G779" s="3"/>
-      <c r="H779" s="3"/>
-    </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H779" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I779" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J779" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K779" s="17">
+        <v>50</v>
+      </c>
+      <c r="L779" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M779" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N779" s="15"/>
+    </row>
+    <row r="780" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>65</v>
       </c>
@@ -35735,9 +36525,27 @@
         <v>11</v>
       </c>
       <c r="G780" s="3"/>
-      <c r="H780" s="3"/>
-    </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H780" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I780" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J780" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K780" s="16">
+        <v>25</v>
+      </c>
+      <c r="L780" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M780" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N780" s="15"/>
+    </row>
+    <row r="781" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>65</v>
       </c>
@@ -35757,9 +36565,27 @@
         <v>11</v>
       </c>
       <c r="G781" s="3"/>
-      <c r="H781" s="3"/>
-    </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H781" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I781" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J781" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K781" s="16">
+        <v>25</v>
+      </c>
+      <c r="L781" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M781" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N781" s="15"/>
+    </row>
+    <row r="782" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>65</v>
       </c>
@@ -35779,9 +36605,27 @@
         <v>11</v>
       </c>
       <c r="G782" s="3"/>
-      <c r="H782" s="3"/>
-    </row>
-    <row r="783" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H782" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I782" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J782" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K782" s="16">
+        <v>50</v>
+      </c>
+      <c r="L782" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M782" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N782" s="15"/>
+    </row>
+    <row r="783" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>65</v>
       </c>
@@ -35801,9 +36645,27 @@
         <v>11</v>
       </c>
       <c r="G783" s="3"/>
-      <c r="H783" s="3"/>
-    </row>
-    <row r="784" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H783" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I783" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J783" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K783" s="18">
+        <v>50</v>
+      </c>
+      <c r="L783" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M783" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N783" s="15"/>
+    </row>
+    <row r="784" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>65</v>
       </c>
@@ -35823,9 +36685,27 @@
         <v>11</v>
       </c>
       <c r="G784" s="3"/>
-      <c r="H784" s="3"/>
-    </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H784" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I784" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J784" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K784" s="16">
+        <v>25</v>
+      </c>
+      <c r="L784" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M784" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N784" s="15"/>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>65</v>
       </c>
@@ -35845,9 +36725,27 @@
         <v>11</v>
       </c>
       <c r="G785" s="3"/>
-      <c r="H785" s="3"/>
-    </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H785" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I785" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J785" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K785" s="16">
+        <v>25</v>
+      </c>
+      <c r="L785" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M785" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N785" s="15"/>
+    </row>
+    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>65</v>
       </c>
@@ -35867,9 +36765,27 @@
         <v>11</v>
       </c>
       <c r="G786" s="3"/>
-      <c r="H786" s="3"/>
-    </row>
-    <row r="787" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H786" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I786" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J786" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K786" s="16">
+        <v>50</v>
+      </c>
+      <c r="L786" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M786" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N786" s="15"/>
+    </row>
+    <row r="787" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>65</v>
       </c>
@@ -35889,9 +36805,27 @@
         <v>11</v>
       </c>
       <c r="G787" s="3"/>
-      <c r="H787" s="3"/>
-    </row>
-    <row r="788" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H787" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I787" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="J787" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K787" s="18">
+        <v>50</v>
+      </c>
+      <c r="L787" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M787" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N787" s="15"/>
+    </row>
+    <row r="788" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>35</v>
       </c>
@@ -35910,8 +36844,27 @@
       <c r="F788" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H788" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I788" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J788" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K788" s="16">
+        <v>25</v>
+      </c>
+      <c r="L788" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M788" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N788" s="15"/>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>35</v>
       </c>
@@ -35930,8 +36883,27 @@
       <c r="F789" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H789" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I789" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J789" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K789" s="16">
+        <v>25</v>
+      </c>
+      <c r="L789" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M789" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N789" s="15"/>
+    </row>
+    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>35</v>
       </c>
@@ -35950,8 +36922,27 @@
       <c r="F790" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="791" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H790" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I790" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J790" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K790" s="16">
+        <v>50</v>
+      </c>
+      <c r="L790" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M790" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N790" s="15"/>
+    </row>
+    <row r="791" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>35</v>
       </c>
@@ -35970,8 +36961,27 @@
       <c r="F791" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H791" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I791" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J791" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K791" s="17">
+        <v>50</v>
+      </c>
+      <c r="L791" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M791" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N791" s="15"/>
+    </row>
+    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>35</v>
       </c>
@@ -35990,8 +37000,27 @@
       <c r="F792" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H792" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I792" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J792" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K792" s="16">
+        <v>25</v>
+      </c>
+      <c r="L792" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M792" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N792" s="15"/>
+    </row>
+    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>35</v>
       </c>
@@ -36010,8 +37039,27 @@
       <c r="F793" s="3">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H793" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I793" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J793" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K793" s="16">
+        <v>25</v>
+      </c>
+      <c r="L793" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M793" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N793" s="15"/>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>35</v>
       </c>
@@ -36030,8 +37078,27 @@
       <c r="F794" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="795" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H794" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I794" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J794" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K794" s="16">
+        <v>50</v>
+      </c>
+      <c r="L794" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M794" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N794" s="15"/>
+    </row>
+    <row r="795" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>35</v>
       </c>
@@ -36050,8 +37117,27 @@
       <c r="F795" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H795" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I795" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J795" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K795" s="17">
+        <v>50</v>
+      </c>
+      <c r="L795" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M795" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N795" s="15"/>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>35</v>
       </c>
@@ -36070,8 +37156,27 @@
       <c r="F796" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H796" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I796" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J796" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K796" s="16">
+        <v>25</v>
+      </c>
+      <c r="L796" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M796" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N796" s="15"/>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>35</v>
       </c>
@@ -36090,8 +37195,27 @@
       <c r="F797" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H797" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I797" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J797" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K797" s="16">
+        <v>25</v>
+      </c>
+      <c r="L797" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M797" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N797" s="15"/>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>35</v>
       </c>
@@ -36111,9 +37235,27 @@
         <v>11</v>
       </c>
       <c r="G798" s="3"/>
-      <c r="H798" s="3"/>
-    </row>
-    <row r="799" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H798" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I798" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J798" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K798" s="16">
+        <v>50</v>
+      </c>
+      <c r="L798" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M798" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N798" s="15"/>
+    </row>
+    <row r="799" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>35</v>
       </c>
@@ -36132,8 +37274,27 @@
       <c r="F799" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="800" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H799" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I799" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J799" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K799" s="18">
+        <v>50</v>
+      </c>
+      <c r="L799" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M799" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N799" s="15"/>
+    </row>
+    <row r="800" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>35</v>
       </c>
@@ -36152,8 +37313,27 @@
       <c r="F800" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H800" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I800" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J800" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K800" s="16">
+        <v>25</v>
+      </c>
+      <c r="L800" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M800" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N800" s="15"/>
+    </row>
+    <row r="801" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>35</v>
       </c>
@@ -36172,8 +37352,27 @@
       <c r="F801" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H801" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I801" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J801" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K801" s="16">
+        <v>25</v>
+      </c>
+      <c r="L801" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M801" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N801" s="15"/>
+    </row>
+    <row r="802" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>35</v>
       </c>
@@ -36192,8 +37391,27 @@
       <c r="F802" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="803" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H802" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I802" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J802" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K802" s="16">
+        <v>50</v>
+      </c>
+      <c r="L802" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M802" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N802" s="15"/>
+    </row>
+    <row r="803" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>35</v>
       </c>
@@ -36212,13 +37430,32 @@
       <c r="F803" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="804" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H803" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I803" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="J803" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K803" s="18">
+        <v>50</v>
+      </c>
+      <c r="L803" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M803" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N803" s="15"/>
+    </row>
+    <row r="804" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B804" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C804" s="3">
         <v>0.5</v>
@@ -36226,21 +37463,38 @@
       <c r="D804" s="3">
         <v>25</v>
       </c>
-      <c r="E804" s="3">
-        <v>150</v>
-      </c>
-      <c r="F804" s="3">
-        <v>12.67</v>
-      </c>
-      <c r="G804" s="3"/>
-      <c r="H804" s="3"/>
-    </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E804" t="s">
+        <v>11</v>
+      </c>
+      <c r="F804" t="s">
+        <v>11</v>
+      </c>
+      <c r="H804" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I804" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J804" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K804" s="16">
+        <v>25</v>
+      </c>
+      <c r="L804" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M804" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N804" s="15"/>
+    </row>
+    <row r="805" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B805" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C805" s="3">
         <v>0.75</v>
@@ -36248,21 +37502,38 @@
       <c r="D805" s="3">
         <v>25</v>
       </c>
-      <c r="E805" s="3">
-        <v>150</v>
-      </c>
-      <c r="F805" s="3">
-        <v>17.45</v>
-      </c>
-      <c r="G805" s="3"/>
-      <c r="H805" s="3"/>
-    </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E805" t="s">
+        <v>11</v>
+      </c>
+      <c r="F805" t="s">
+        <v>11</v>
+      </c>
+      <c r="H805" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I805" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J805" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K805" s="16">
+        <v>25</v>
+      </c>
+      <c r="L805" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M805" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N805" s="15"/>
+    </row>
+    <row r="806" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B806" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C806" s="3">
         <v>0.5</v>
@@ -36270,43 +37541,79 @@
       <c r="D806" s="3">
         <v>50</v>
       </c>
-      <c r="E806" s="3">
-        <v>200</v>
-      </c>
-      <c r="F806" s="3">
-        <v>15.54</v>
-      </c>
-      <c r="G806" s="3"/>
-      <c r="H806" s="3"/>
-    </row>
-    <row r="807" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E806" t="s">
+        <v>11</v>
+      </c>
+      <c r="F806" t="s">
+        <v>11</v>
+      </c>
+      <c r="H806" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I806" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J806" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K806" s="16">
+        <v>50</v>
+      </c>
+      <c r="L806" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M806" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N806" s="15"/>
+    </row>
+    <row r="807" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>38</v>
-      </c>
-      <c r="B807" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C807" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D807" s="4">
-        <v>50</v>
-      </c>
-      <c r="E807" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F807" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G807" s="3"/>
-      <c r="H807" s="3"/>
-    </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B807" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C807" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D807" s="5">
+        <v>50</v>
+      </c>
+      <c r="E807" t="s">
+        <v>11</v>
+      </c>
+      <c r="F807" t="s">
+        <v>11</v>
+      </c>
+      <c r="H807" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I807" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J807" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K807" s="18">
+        <v>50</v>
+      </c>
+      <c r="L807" s="13">
+        <v>1000</v>
+      </c>
+      <c r="M807" s="13">
+        <v>1.87</v>
+      </c>
+      <c r="N807" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="808" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>38</v>
       </c>
       <c r="B808" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C808" s="3">
         <v>0.5</v>
@@ -36315,20 +37622,38 @@
         <v>25</v>
       </c>
       <c r="E808" s="3">
-        <v>875</v>
+        <v>150</v>
       </c>
       <c r="F808" s="3">
-        <v>14.04</v>
+        <v>12.67</v>
       </c>
       <c r="G808" s="3"/>
-      <c r="H808" s="3"/>
-    </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H808" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I808" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J808" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K808" s="16">
+        <v>25</v>
+      </c>
+      <c r="L808" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M808" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N808" s="15"/>
+    </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>38</v>
       </c>
       <c r="B809" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C809" s="3">
         <v>0.75</v>
@@ -36337,44 +37662,78 @@
         <v>25</v>
       </c>
       <c r="E809" s="3">
-        <v>425</v>
+        <v>150</v>
       </c>
       <c r="F809" s="3">
-        <v>11.55</v>
+        <v>17.45</v>
       </c>
       <c r="G809" s="3"/>
-      <c r="H809" s="3"/>
-    </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A810" s="6" t="s">
+      <c r="H809" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B810" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="C810" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D810" s="8">
-        <v>50</v>
-      </c>
-      <c r="E810" s="8">
-        <v>1050</v>
-      </c>
-      <c r="F810" s="8">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="G810" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H810" s="8"/>
-    </row>
-    <row r="811" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I809" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J809" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K809" s="16">
+        <v>25</v>
+      </c>
+      <c r="L809" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M809" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N809" s="15"/>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>38</v>
+      </c>
+      <c r="B810" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C810" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D810" s="3">
+        <v>50</v>
+      </c>
+      <c r="E810" s="3">
+        <v>200</v>
+      </c>
+      <c r="F810" s="3">
+        <v>15.54</v>
+      </c>
+      <c r="G810" s="3"/>
+      <c r="H810" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I810" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J810" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K810" s="16">
+        <v>50</v>
+      </c>
+      <c r="L810" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M810" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N810" s="15"/>
+    </row>
+    <row r="811" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>38</v>
       </c>
       <c r="B811" s="4">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C811" s="4">
         <v>0.75</v>
@@ -36382,14 +37741,361 @@
       <c r="D811" s="4">
         <v>50</v>
       </c>
-      <c r="E811" s="3">
+      <c r="E811" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G811" s="3"/>
+      <c r="H811" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I811" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J811" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K811" s="17">
+        <v>50</v>
+      </c>
+      <c r="L811" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M811" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N811" s="15"/>
+    </row>
+    <row r="812" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>38</v>
+      </c>
+      <c r="B812" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C812" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D812" s="3">
+        <v>25</v>
+      </c>
+      <c r="E812" s="3">
+        <v>875</v>
+      </c>
+      <c r="F812" s="3">
+        <v>14.04</v>
+      </c>
+      <c r="G812" s="3"/>
+      <c r="H812" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I812" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J812" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K812" s="16">
+        <v>25</v>
+      </c>
+      <c r="L812" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M812" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N812" s="15"/>
+    </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>38</v>
+      </c>
+      <c r="B813" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C813" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D813" s="3">
+        <v>25</v>
+      </c>
+      <c r="E813" s="3">
+        <v>425</v>
+      </c>
+      <c r="F813" s="3">
+        <v>11.55</v>
+      </c>
+      <c r="G813" s="3"/>
+      <c r="H813" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I813" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J813" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K813" s="16">
+        <v>25</v>
+      </c>
+      <c r="L813" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M813" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N813" s="15"/>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A814" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B814" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C814" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D814" s="8">
+        <v>50</v>
+      </c>
+      <c r="E814" s="8">
+        <v>1050</v>
+      </c>
+      <c r="F814" s="8">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="G814" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H814" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I814" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J814" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K814" s="16">
+        <v>50</v>
+      </c>
+      <c r="L814" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M814" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N814" s="15"/>
+    </row>
+    <row r="815" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>38</v>
+      </c>
+      <c r="B815" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C815" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D815" s="4">
+        <v>50</v>
+      </c>
+      <c r="E815" s="3">
         <v>550</v>
       </c>
-      <c r="F811" s="3">
+      <c r="F815" s="3">
         <v>14.17</v>
       </c>
-      <c r="G811" s="3"/>
-      <c r="H811" s="3"/>
+      <c r="G815" s="3"/>
+      <c r="H815" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I815" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J815" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K815" s="17">
+        <v>50</v>
+      </c>
+      <c r="L815" s="13">
+        <v>350</v>
+      </c>
+      <c r="M815" s="13">
+        <v>10.46</v>
+      </c>
+      <c r="N815" s="15"/>
+    </row>
+    <row r="816" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H816" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I816" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J816" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K816" s="16">
+        <v>25</v>
+      </c>
+      <c r="L816" s="16">
+        <v>750</v>
+      </c>
+      <c r="M816" s="16">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="817" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H817" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I817" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J817" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K817" s="8">
+        <v>25</v>
+      </c>
+      <c r="L817" s="8">
+        <v>1025</v>
+      </c>
+      <c r="M817" s="8">
+        <v>14.15</v>
+      </c>
+      <c r="N817" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="818" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H818" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I818" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J818" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K818" s="16">
+        <v>50</v>
+      </c>
+      <c r="L818" s="16">
+        <v>850</v>
+      </c>
+      <c r="M818" s="16">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="819" spans="8:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H819" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I819" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J819" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K819" s="17">
+        <v>50</v>
+      </c>
+      <c r="L819" s="13">
+        <v>700</v>
+      </c>
+      <c r="M819" s="13">
+        <v>10.35</v>
+      </c>
+      <c r="N819" s="15"/>
+    </row>
+    <row r="820" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H820" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I820" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J820" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K820" s="16">
+        <v>25</v>
+      </c>
+      <c r="L820" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M820" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="821" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H821" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I821" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J821" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K821" s="16">
+        <v>25</v>
+      </c>
+      <c r="L821" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M821" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="822" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H822" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I822" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J822" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K822" s="16">
+        <v>50</v>
+      </c>
+      <c r="L822" s="16">
+        <v>1350</v>
+      </c>
+      <c r="M822" s="16">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="823" spans="8:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H823" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I823" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J823" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K823" s="9">
+        <v>50</v>
+      </c>
+      <c r="L823" s="14">
+        <v>3600</v>
+      </c>
+      <c r="M823" s="14">
+        <v>10.65</v>
+      </c>
+      <c r="N823" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36398,10 +38104,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB484E-3818-5645-B1B5-5A409D44CC36}">
-  <dimension ref="A1:H766"/>
+  <dimension ref="A1:N855"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="H785" workbookViewId="0">
+      <selection activeCell="L792" sqref="L792:M799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48316,7 +50022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>32</v>
       </c>
@@ -48330,7 +50036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>32</v>
       </c>
@@ -48346,7 +50052,7 @@
       <c r="G754" s="3"/>
       <c r="H754" s="3"/>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>32</v>
       </c>
@@ -48362,7 +50068,7 @@
       <c r="G755" s="3"/>
       <c r="H755" s="3"/>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>32</v>
       </c>
@@ -48378,7 +50084,7 @@
       <c r="G756" s="3"/>
       <c r="H756" s="3"/>
     </row>
-    <row r="757" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>32</v>
       </c>
@@ -48394,7 +50100,7 @@
       <c r="G757" s="3"/>
       <c r="H757" s="3"/>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>32</v>
       </c>
@@ -48410,7 +50116,7 @@
       <c r="G758" s="3"/>
       <c r="H758" s="3"/>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>32</v>
       </c>
@@ -48426,7 +50132,7 @@
       <c r="G759" s="3"/>
       <c r="H759" s="3"/>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>32</v>
       </c>
@@ -48442,7 +50148,7 @@
       <c r="G760" s="3"/>
       <c r="H760" s="3"/>
     </row>
-    <row r="761" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>32</v>
       </c>
@@ -48458,7 +50164,7 @@
       <c r="G761" s="3"/>
       <c r="H761" s="3"/>
     </row>
-    <row r="762" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>32</v>
       </c>
@@ -48474,7 +50180,7 @@
       <c r="G762" s="3"/>
       <c r="H762" s="3"/>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>32</v>
       </c>
@@ -48490,7 +50196,7 @@
       <c r="G763" s="3"/>
       <c r="H763" s="3"/>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>32</v>
       </c>
@@ -48506,7 +50212,7 @@
       <c r="G764" s="3"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>32</v>
       </c>
@@ -48522,7 +50228,2931 @@
       <c r="G765" s="3"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="766" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="767" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A767" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G767" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H767" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I767" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J767" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K767" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L767" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M767" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N767" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="768" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>21</v>
+      </c>
+      <c r="B768" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C768" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D768" s="3">
+        <v>25</v>
+      </c>
+      <c r="E768" s="3"/>
+      <c r="F768" s="3"/>
+      <c r="G768" s="3"/>
+      <c r="H768" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I768" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J768" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K768" s="16">
+        <v>25</v>
+      </c>
+      <c r="L768" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M768" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N768" s="15"/>
+    </row>
+    <row r="769" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>21</v>
+      </c>
+      <c r="B769" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C769" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D769" s="3">
+        <v>25</v>
+      </c>
+      <c r="E769" s="3"/>
+      <c r="F769" s="3"/>
+      <c r="G769" s="3"/>
+      <c r="H769" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I769" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J769" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K769" s="16">
+        <v>25</v>
+      </c>
+      <c r="L769" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M769" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N769" s="15"/>
+    </row>
+    <row r="770" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>21</v>
+      </c>
+      <c r="B770" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C770" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D770" s="3">
+        <v>50</v>
+      </c>
+      <c r="E770" s="3"/>
+      <c r="F770" s="3"/>
+      <c r="H770" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I770" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J770" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K770" s="16">
+        <v>50</v>
+      </c>
+      <c r="L770" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M770" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N770" s="15"/>
+    </row>
+    <row r="771" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>21</v>
+      </c>
+      <c r="B771" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C771" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D771" s="4">
+        <v>50</v>
+      </c>
+      <c r="E771" s="3"/>
+      <c r="F771" s="3"/>
+      <c r="H771" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I771" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J771" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K771" s="17">
+        <v>50</v>
+      </c>
+      <c r="L771" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M771" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N771" s="15"/>
+    </row>
+    <row r="772" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>21</v>
+      </c>
+      <c r="B772" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C772" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D772" s="3">
+        <v>25</v>
+      </c>
+      <c r="E772" s="3"/>
+      <c r="F772" s="3"/>
+      <c r="G772" s="3"/>
+      <c r="H772" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I772" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J772" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K772" s="16">
+        <v>25</v>
+      </c>
+      <c r="L772" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M772" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N772" s="15"/>
+    </row>
+    <row r="773" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>21</v>
+      </c>
+      <c r="B773" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C773" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D773" s="3">
+        <v>25</v>
+      </c>
+      <c r="E773" s="3"/>
+      <c r="F773" s="3"/>
+      <c r="G773" s="3"/>
+      <c r="H773" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I773" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J773" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K773" s="16">
+        <v>25</v>
+      </c>
+      <c r="L773" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M773" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N773" s="15"/>
+    </row>
+    <row r="774" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>21</v>
+      </c>
+      <c r="B774" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C774" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D774" s="3">
+        <v>50</v>
+      </c>
+      <c r="E774" s="3"/>
+      <c r="F774" s="3"/>
+      <c r="G774" s="3"/>
+      <c r="H774" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I774" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J774" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K774" s="16">
+        <v>50</v>
+      </c>
+      <c r="L774" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M774" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N774" s="15"/>
+    </row>
+    <row r="775" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>21</v>
+      </c>
+      <c r="B775" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C775" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D775" s="4">
+        <v>50</v>
+      </c>
+      <c r="E775" s="3"/>
+      <c r="F775" s="3"/>
+      <c r="G775" s="3"/>
+      <c r="H775" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I775" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J775" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K775" s="17">
+        <v>50</v>
+      </c>
+      <c r="L775" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M775" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N775" s="15"/>
+    </row>
+    <row r="776" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>21</v>
+      </c>
+      <c r="B776" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C776" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D776" s="3">
+        <v>25</v>
+      </c>
+      <c r="E776" s="3"/>
+      <c r="F776" s="3"/>
+      <c r="G776" s="3"/>
+      <c r="H776" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I776" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J776" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K776" s="16">
+        <v>25</v>
+      </c>
+      <c r="L776" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M776" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N776" s="15"/>
+    </row>
+    <row r="777" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>21</v>
+      </c>
+      <c r="B777" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C777" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D777" s="3">
+        <v>25</v>
+      </c>
+      <c r="E777" s="3"/>
+      <c r="F777" s="3"/>
+      <c r="G777" s="3"/>
+      <c r="H777" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I777" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J777" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K777" s="16">
+        <v>25</v>
+      </c>
+      <c r="L777" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M777" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N777" s="15"/>
+    </row>
+    <row r="778" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>21</v>
+      </c>
+      <c r="B778" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C778" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D778" s="3">
+        <v>50</v>
+      </c>
+      <c r="E778" s="3"/>
+      <c r="F778" s="3"/>
+      <c r="G778" s="3"/>
+      <c r="H778" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I778" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J778" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K778" s="16">
+        <v>50</v>
+      </c>
+      <c r="L778" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M778" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N778" s="15"/>
+    </row>
+    <row r="779" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>21</v>
+      </c>
+      <c r="B779" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C779" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D779" s="5">
+        <v>50</v>
+      </c>
+      <c r="E779" s="3"/>
+      <c r="F779" s="3"/>
+      <c r="G779" s="3"/>
+      <c r="H779" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I779" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J779" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K779" s="18">
+        <v>50</v>
+      </c>
+      <c r="L779" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M779" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N779" s="15"/>
+    </row>
+    <row r="780" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>21</v>
+      </c>
+      <c r="B780" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C780" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D780" s="3">
+        <v>25</v>
+      </c>
+      <c r="E780" s="3"/>
+      <c r="F780" s="3"/>
+      <c r="G780" s="3"/>
+      <c r="H780" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I780" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J780" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K780" s="16">
+        <v>25</v>
+      </c>
+      <c r="L780" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M780" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N780" s="15"/>
+    </row>
+    <row r="781" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>21</v>
+      </c>
+      <c r="B781" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C781" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D781" s="3">
+        <v>25</v>
+      </c>
+      <c r="E781" s="3"/>
+      <c r="F781" s="3"/>
+      <c r="G781" s="3"/>
+      <c r="H781" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I781" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J781" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K781" s="16">
+        <v>25</v>
+      </c>
+      <c r="L781" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M781" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N781" s="15"/>
+    </row>
+    <row r="782" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>21</v>
+      </c>
+      <c r="B782" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C782" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D782" s="3">
+        <v>50</v>
+      </c>
+      <c r="E782" s="3"/>
+      <c r="F782" s="3"/>
+      <c r="G782" s="3"/>
+      <c r="H782" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I782" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J782" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K782" s="16">
+        <v>50</v>
+      </c>
+      <c r="L782" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M782" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N782" s="15"/>
+    </row>
+    <row r="783" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>21</v>
+      </c>
+      <c r="B783" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C783" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D783" s="5">
+        <v>50</v>
+      </c>
+      <c r="E783" s="3"/>
+      <c r="F783" s="3"/>
+      <c r="G783" s="3"/>
+      <c r="H783" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I783" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="J783" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K783" s="18">
+        <v>50</v>
+      </c>
+      <c r="L783" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M783" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N783" s="15"/>
+    </row>
+    <row r="784" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>21</v>
+      </c>
+      <c r="B784" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C784" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D784" s="3">
+        <v>25</v>
+      </c>
+      <c r="E784" s="3"/>
+      <c r="F784" s="3"/>
+      <c r="G784" s="3"/>
+      <c r="H784" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I784" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J784" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K784" s="16">
+        <v>25</v>
+      </c>
+      <c r="L784" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M784" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N784" s="15"/>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>21</v>
+      </c>
+      <c r="B785" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C785" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D785" s="3">
+        <v>25</v>
+      </c>
+      <c r="E785" s="3"/>
+      <c r="F785" s="3"/>
+      <c r="G785" s="3"/>
+      <c r="H785" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I785" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J785" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K785" s="16">
+        <v>25</v>
+      </c>
+      <c r="L785" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M785" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N785" s="15"/>
+    </row>
+    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>21</v>
+      </c>
+      <c r="B786" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C786" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D786" s="3">
+        <v>50</v>
+      </c>
+      <c r="E786" s="3"/>
+      <c r="F786" s="3"/>
+      <c r="G786" s="3"/>
+      <c r="H786" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I786" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J786" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K786" s="16">
+        <v>50</v>
+      </c>
+      <c r="L786" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M786" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N786" s="15"/>
+    </row>
+    <row r="787" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>21</v>
+      </c>
+      <c r="B787" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C787" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D787" s="5">
+        <v>50</v>
+      </c>
+      <c r="E787" s="3"/>
+      <c r="F787" s="3"/>
+      <c r="G787" s="3"/>
+      <c r="H787" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I787" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J787" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K787" s="18">
+        <v>50</v>
+      </c>
+      <c r="L787" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M787" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N787" s="15"/>
+    </row>
+    <row r="788" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>21</v>
+      </c>
+      <c r="B788" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C788" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D788" s="3">
+        <v>25</v>
+      </c>
+      <c r="E788" s="3"/>
+      <c r="F788" s="3"/>
+      <c r="G788" s="3"/>
+      <c r="H788" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I788" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J788" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K788" s="16">
+        <v>25</v>
+      </c>
+      <c r="L788" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M788" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N788" s="15"/>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>21</v>
+      </c>
+      <c r="B789" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C789" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D789" s="3">
+        <v>25</v>
+      </c>
+      <c r="E789" s="3"/>
+      <c r="F789" s="3"/>
+      <c r="G789" s="3"/>
+      <c r="H789" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I789" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J789" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K789" s="16">
+        <v>25</v>
+      </c>
+      <c r="L789" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M789" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N789" s="15"/>
+    </row>
+    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>21</v>
+      </c>
+      <c r="B790" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C790" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D790" s="3">
+        <v>50</v>
+      </c>
+      <c r="E790" s="3"/>
+      <c r="F790" s="3"/>
+      <c r="G790" s="3"/>
+      <c r="H790" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I790" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J790" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K790" s="16">
+        <v>50</v>
+      </c>
+      <c r="L790" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M790" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N790" s="15"/>
+    </row>
+    <row r="791" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B791" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C791" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D791" s="7">
+        <v>50</v>
+      </c>
+      <c r="E791" s="8"/>
+      <c r="F791" s="8"/>
+      <c r="H791" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I791" s="16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J791" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K791" s="18">
+        <v>50</v>
+      </c>
+      <c r="L791" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M791" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N791" s="15"/>
+    </row>
+    <row r="792" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>26</v>
+      </c>
+      <c r="B792" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C792" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D792" s="3">
+        <v>25</v>
+      </c>
+      <c r="E792" s="3"/>
+      <c r="F792" s="3"/>
+      <c r="G792" s="3"/>
+      <c r="H792" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I792" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J792" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K792" s="16">
+        <v>25</v>
+      </c>
+      <c r="L792" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M792" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N792" s="15"/>
+    </row>
+    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>26</v>
+      </c>
+      <c r="B793" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C793" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D793" s="3">
+        <v>25</v>
+      </c>
+      <c r="E793" s="3"/>
+      <c r="F793" s="3"/>
+      <c r="G793" s="3"/>
+      <c r="H793" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I793" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J793" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K793" s="16">
+        <v>25</v>
+      </c>
+      <c r="L793" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M793" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N793" s="15"/>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A794" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B794" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C794" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D794" s="16">
+        <v>50</v>
+      </c>
+      <c r="E794" s="16"/>
+      <c r="F794" s="16"/>
+      <c r="G794" s="3"/>
+      <c r="H794" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I794" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J794" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K794" s="16">
+        <v>50</v>
+      </c>
+      <c r="L794" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M794" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N794" s="15"/>
+    </row>
+    <row r="795" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>26</v>
+      </c>
+      <c r="B795" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C795" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D795" s="4">
+        <v>50</v>
+      </c>
+      <c r="E795" s="3"/>
+      <c r="F795" s="3"/>
+      <c r="G795" s="8"/>
+      <c r="H795" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I795" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J795" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K795" s="17">
+        <v>50</v>
+      </c>
+      <c r="L795" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M795" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N795" s="15"/>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>26</v>
+      </c>
+      <c r="B796" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C796" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D796" s="3">
+        <v>25</v>
+      </c>
+      <c r="E796" s="3"/>
+      <c r="F796" s="3"/>
+      <c r="G796" s="3"/>
+      <c r="H796" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I796" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J796" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K796" s="16">
+        <v>25</v>
+      </c>
+      <c r="L796" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M796" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N796" s="15"/>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>26</v>
+      </c>
+      <c r="B797" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C797" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D797" s="3">
+        <v>25</v>
+      </c>
+      <c r="E797" s="3"/>
+      <c r="F797" s="3"/>
+      <c r="G797" s="3"/>
+      <c r="H797" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I797" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J797" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K797" s="16">
+        <v>25</v>
+      </c>
+      <c r="L797" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M797" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>26</v>
+      </c>
+      <c r="B798" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C798" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D798" s="3">
+        <v>50</v>
+      </c>
+      <c r="E798" s="3"/>
+      <c r="F798" s="3"/>
+      <c r="G798" s="3"/>
+      <c r="H798" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I798" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J798" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K798" s="16">
+        <v>50</v>
+      </c>
+      <c r="L798" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M798" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N798" s="15"/>
+    </row>
+    <row r="799" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B799" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C799" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D799" s="9">
+        <v>50</v>
+      </c>
+      <c r="E799" s="8"/>
+      <c r="F799" s="8"/>
+      <c r="G799" s="3"/>
+      <c r="H799" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I799" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="J799" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K799" s="9">
+        <v>50</v>
+      </c>
+      <c r="L799" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M799" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N799" s="15"/>
+    </row>
+    <row r="800" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>65</v>
+      </c>
+      <c r="B800" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C800" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D800" s="3">
+        <v>25</v>
+      </c>
+      <c r="H800" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I800" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J800" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K800" s="16">
+        <v>25</v>
+      </c>
+      <c r="L800" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M800" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N800" s="15"/>
+    </row>
+    <row r="801" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>65</v>
+      </c>
+      <c r="B801" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C801" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D801" s="3">
+        <v>25</v>
+      </c>
+      <c r="H801" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I801" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J801" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K801" s="16">
+        <v>25</v>
+      </c>
+      <c r="L801" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M801" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N801" s="15"/>
+    </row>
+    <row r="802" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>65</v>
+      </c>
+      <c r="B802" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C802" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D802" s="3">
+        <v>50</v>
+      </c>
+      <c r="H802" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I802" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J802" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K802" s="16">
+        <v>50</v>
+      </c>
+      <c r="L802" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M802" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N802" s="15"/>
+    </row>
+    <row r="803" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>65</v>
+      </c>
+      <c r="B803" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C803" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D803" s="4">
+        <v>50</v>
+      </c>
+      <c r="H803" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I803" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J803" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K803" s="17">
+        <v>50</v>
+      </c>
+      <c r="L803" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M803" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N803" s="15"/>
+    </row>
+    <row r="804" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>65</v>
+      </c>
+      <c r="B804" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C804" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D804" s="3">
+        <v>25</v>
+      </c>
+      <c r="G804" s="3"/>
+      <c r="H804" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I804" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J804" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K804" s="16">
+        <v>25</v>
+      </c>
+      <c r="L804" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M804" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N804" s="15"/>
+    </row>
+    <row r="805" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>65</v>
+      </c>
+      <c r="B805" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C805" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D805" s="3">
+        <v>25</v>
+      </c>
+      <c r="G805" s="3"/>
+      <c r="H805" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I805" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J805" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K805" s="16">
+        <v>25</v>
+      </c>
+      <c r="L805" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M805" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N805" s="15"/>
+    </row>
+    <row r="806" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>65</v>
+      </c>
+      <c r="B806" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C806" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D806" s="3">
+        <v>50</v>
+      </c>
+      <c r="G806" s="3"/>
+      <c r="H806" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I806" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J806" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K806" s="16">
+        <v>50</v>
+      </c>
+      <c r="L806" s="16">
+        <v>650</v>
+      </c>
+      <c r="M806" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="N806" s="15"/>
+    </row>
+    <row r="807" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>65</v>
+      </c>
+      <c r="B807" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C807" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D807" s="4">
+        <v>50</v>
+      </c>
+      <c r="G807" s="3"/>
+      <c r="H807" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I807" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J807" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K807" s="17">
+        <v>50</v>
+      </c>
+      <c r="L807" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M807" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N807" s="15"/>
+    </row>
+    <row r="808" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>65</v>
+      </c>
+      <c r="B808" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C808" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D808" s="3">
+        <v>25</v>
+      </c>
+      <c r="G808" s="3"/>
+      <c r="H808" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I808" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J808" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K808" s="16">
+        <v>25</v>
+      </c>
+      <c r="L808" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M808" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N808" s="15"/>
+    </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>65</v>
+      </c>
+      <c r="B809" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C809" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D809" s="3">
+        <v>25</v>
+      </c>
+      <c r="G809" s="3"/>
+      <c r="H809" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I809" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J809" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K809" s="16">
+        <v>25</v>
+      </c>
+      <c r="L809" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M809" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N809" s="15"/>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>65</v>
+      </c>
+      <c r="B810" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C810" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D810" s="3">
+        <v>50</v>
+      </c>
+      <c r="G810" s="3"/>
+      <c r="H810" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I810" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J810" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K810" s="16">
+        <v>50</v>
+      </c>
+      <c r="L810" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M810" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N810" s="15"/>
+    </row>
+    <row r="811" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>65</v>
+      </c>
+      <c r="B811" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C811" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D811" s="5">
+        <v>50</v>
+      </c>
+      <c r="G811" s="3"/>
+      <c r="H811" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I811" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J811" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K811" s="18">
+        <v>50</v>
+      </c>
+      <c r="L811" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M811" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N811" s="15"/>
+    </row>
+    <row r="812" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>65</v>
+      </c>
+      <c r="B812" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C812" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D812" s="3">
+        <v>25</v>
+      </c>
+      <c r="G812" s="3"/>
+      <c r="H812" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I812" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J812" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K812" s="16">
+        <v>25</v>
+      </c>
+      <c r="L812" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M812" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N812" s="15"/>
+    </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>65</v>
+      </c>
+      <c r="B813" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C813" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D813" s="3">
+        <v>25</v>
+      </c>
+      <c r="G813" s="3"/>
+      <c r="H813" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I813" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J813" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K813" s="16">
+        <v>25</v>
+      </c>
+      <c r="L813" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M813" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N813" s="15"/>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>65</v>
+      </c>
+      <c r="B814" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C814" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D814" s="3">
+        <v>50</v>
+      </c>
+      <c r="G814" s="3"/>
+      <c r="H814" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I814" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J814" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K814" s="16">
+        <v>50</v>
+      </c>
+      <c r="L814" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M814" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N814" s="15"/>
+    </row>
+    <row r="815" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>65</v>
+      </c>
+      <c r="B815" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C815" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D815" s="5">
+        <v>50</v>
+      </c>
+      <c r="G815" s="3"/>
+      <c r="H815" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I815" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="J815" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K815" s="18">
+        <v>50</v>
+      </c>
+      <c r="L815" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M815" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N815" s="15"/>
+    </row>
+    <row r="816" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>35</v>
+      </c>
+      <c r="B816" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C816" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D816" s="3">
+        <v>25</v>
+      </c>
+      <c r="H816" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I816" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J816" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K816" s="16">
+        <v>25</v>
+      </c>
+      <c r="L816" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M816" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N816" s="15"/>
+    </row>
+    <row r="817" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>35</v>
+      </c>
+      <c r="B817" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C817" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D817" s="3">
+        <v>25</v>
+      </c>
+      <c r="H817" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I817" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J817" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K817" s="16">
+        <v>25</v>
+      </c>
+      <c r="L817" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M817" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N817" s="15"/>
+    </row>
+    <row r="818" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>35</v>
+      </c>
+      <c r="B818" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C818" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D818" s="3">
+        <v>50</v>
+      </c>
+      <c r="H818" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I818" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J818" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K818" s="16">
+        <v>50</v>
+      </c>
+      <c r="L818" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M818" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N818" s="15"/>
+    </row>
+    <row r="819" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>35</v>
+      </c>
+      <c r="B819" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C819" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D819" s="4">
+        <v>50</v>
+      </c>
+      <c r="H819" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I819" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J819" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K819" s="17">
+        <v>50</v>
+      </c>
+      <c r="L819" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M819" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N819" s="15"/>
+    </row>
+    <row r="820" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>35</v>
+      </c>
+      <c r="B820" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C820" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D820" s="3">
+        <v>25</v>
+      </c>
+      <c r="H820" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I820" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J820" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K820" s="16">
+        <v>25</v>
+      </c>
+      <c r="L820" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M820" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N820" s="15"/>
+    </row>
+    <row r="821" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>35</v>
+      </c>
+      <c r="B821" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C821" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D821" s="3">
+        <v>25</v>
+      </c>
+      <c r="E821" s="3"/>
+      <c r="F821" s="3"/>
+      <c r="H821" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I821" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J821" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K821" s="16">
+        <v>25</v>
+      </c>
+      <c r="L821" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M821" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N821" s="15"/>
+    </row>
+    <row r="822" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>35</v>
+      </c>
+      <c r="B822" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C822" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D822" s="3">
+        <v>50</v>
+      </c>
+      <c r="H822" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I822" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J822" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K822" s="16">
+        <v>50</v>
+      </c>
+      <c r="L822" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M822" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N822" s="15"/>
+    </row>
+    <row r="823" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>35</v>
+      </c>
+      <c r="B823" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C823" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D823" s="4">
+        <v>50</v>
+      </c>
+      <c r="H823" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I823" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J823" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K823" s="17">
+        <v>50</v>
+      </c>
+      <c r="L823" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M823" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N823" s="15"/>
+    </row>
+    <row r="824" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>35</v>
+      </c>
+      <c r="B824" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C824" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D824" s="3">
+        <v>25</v>
+      </c>
+      <c r="H824" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I824" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J824" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K824" s="16">
+        <v>25</v>
+      </c>
+      <c r="L824" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M824" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N824" s="15"/>
+    </row>
+    <row r="825" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>35</v>
+      </c>
+      <c r="B825" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C825" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D825" s="3">
+        <v>25</v>
+      </c>
+      <c r="H825" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I825" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J825" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K825" s="16">
+        <v>25</v>
+      </c>
+      <c r="L825" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M825" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N825" s="15"/>
+    </row>
+    <row r="826" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>35</v>
+      </c>
+      <c r="B826" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C826" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D826" s="3">
+        <v>50</v>
+      </c>
+      <c r="G826" s="3"/>
+      <c r="H826" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I826" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J826" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K826" s="16">
+        <v>50</v>
+      </c>
+      <c r="L826" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M826" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N826" s="15"/>
+    </row>
+    <row r="827" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>35</v>
+      </c>
+      <c r="B827" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C827" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D827" s="5">
+        <v>50</v>
+      </c>
+      <c r="H827" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I827" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J827" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K827" s="18">
+        <v>50</v>
+      </c>
+      <c r="L827" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M827" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N827" s="15"/>
+    </row>
+    <row r="828" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>35</v>
+      </c>
+      <c r="B828" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C828" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D828" s="3">
+        <v>25</v>
+      </c>
+      <c r="H828" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I828" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J828" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K828" s="16">
+        <v>25</v>
+      </c>
+      <c r="L828" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M828" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N828" s="15"/>
+    </row>
+    <row r="829" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>35</v>
+      </c>
+      <c r="B829" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C829" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D829" s="3">
+        <v>25</v>
+      </c>
+      <c r="H829" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I829" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J829" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K829" s="16">
+        <v>25</v>
+      </c>
+      <c r="L829" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M829" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N829" s="15"/>
+    </row>
+    <row r="830" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>35</v>
+      </c>
+      <c r="B830" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C830" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D830" s="3">
+        <v>50</v>
+      </c>
+      <c r="H830" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I830" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J830" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K830" s="16">
+        <v>50</v>
+      </c>
+      <c r="L830" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M830" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N830" s="15"/>
+    </row>
+    <row r="831" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>35</v>
+      </c>
+      <c r="B831" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C831" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D831" s="5">
+        <v>50</v>
+      </c>
+      <c r="H831" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I831" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="J831" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K831" s="18">
+        <v>50</v>
+      </c>
+      <c r="L831" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M831" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N831" s="15"/>
+    </row>
+    <row r="832" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>35</v>
+      </c>
+      <c r="B832" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C832" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D832" s="3">
+        <v>25</v>
+      </c>
+      <c r="H832" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I832" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J832" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K832" s="16">
+        <v>25</v>
+      </c>
+      <c r="L832" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M832" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N832" s="15"/>
+    </row>
+    <row r="833" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>35</v>
+      </c>
+      <c r="B833" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C833" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D833" s="3">
+        <v>25</v>
+      </c>
+      <c r="H833" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I833" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J833" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K833" s="16">
+        <v>25</v>
+      </c>
+      <c r="L833" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M833" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N833" s="15"/>
+    </row>
+    <row r="834" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>35</v>
+      </c>
+      <c r="B834" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C834" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D834" s="3">
+        <v>50</v>
+      </c>
+      <c r="H834" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I834" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J834" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K834" s="16">
+        <v>50</v>
+      </c>
+      <c r="L834" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M834" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N834" s="15"/>
+    </row>
+    <row r="835" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>35</v>
+      </c>
+      <c r="B835" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C835" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D835" s="5">
+        <v>50</v>
+      </c>
+      <c r="H835" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I835" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J835" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K835" s="18">
+        <v>50</v>
+      </c>
+      <c r="L835" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M835" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N835" s="15"/>
+    </row>
+    <row r="836" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>38</v>
+      </c>
+      <c r="B836" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C836" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D836" s="3">
+        <v>25</v>
+      </c>
+      <c r="E836" s="3"/>
+      <c r="F836" s="3"/>
+      <c r="G836" s="3"/>
+      <c r="H836" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I836" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J836" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K836" s="16">
+        <v>25</v>
+      </c>
+      <c r="L836" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M836" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N836" s="15"/>
+    </row>
+    <row r="837" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>38</v>
+      </c>
+      <c r="B837" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C837" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D837" s="3">
+        <v>25</v>
+      </c>
+      <c r="E837" s="3"/>
+      <c r="F837" s="3"/>
+      <c r="G837" s="3"/>
+      <c r="H837" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I837" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J837" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K837" s="16">
+        <v>25</v>
+      </c>
+      <c r="L837" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M837" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N837" s="15"/>
+    </row>
+    <row r="838" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>38</v>
+      </c>
+      <c r="B838" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C838" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D838" s="3">
+        <v>50</v>
+      </c>
+      <c r="E838" s="3"/>
+      <c r="F838" s="3"/>
+      <c r="G838" s="3"/>
+      <c r="H838" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I838" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J838" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K838" s="16">
+        <v>50</v>
+      </c>
+      <c r="L838" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M838" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N838" s="15"/>
+    </row>
+    <row r="839" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>38</v>
+      </c>
+      <c r="B839" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C839" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D839" s="4">
+        <v>50</v>
+      </c>
+      <c r="E839" s="3"/>
+      <c r="F839" s="3"/>
+      <c r="G839" s="3"/>
+      <c r="H839" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I839" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J839" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K839" s="17">
+        <v>50</v>
+      </c>
+      <c r="L839" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M839" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N839" s="15"/>
+    </row>
+    <row r="840" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>38</v>
+      </c>
+      <c r="B840" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C840" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D840" s="3">
+        <v>25</v>
+      </c>
+      <c r="E840" s="3"/>
+      <c r="F840" s="3"/>
+      <c r="G840" s="3"/>
+      <c r="H840" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I840" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J840" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K840" s="16">
+        <v>25</v>
+      </c>
+      <c r="L840" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M840" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N840" s="15"/>
+    </row>
+    <row r="841" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>38</v>
+      </c>
+      <c r="B841" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C841" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D841" s="3">
+        <v>25</v>
+      </c>
+      <c r="E841" s="3"/>
+      <c r="F841" s="3"/>
+      <c r="G841" s="3"/>
+      <c r="H841" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I841" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J841" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K841" s="16">
+        <v>25</v>
+      </c>
+      <c r="L841" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M841" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N841" s="15"/>
+    </row>
+    <row r="842" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A842" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B842" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C842" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D842" s="8">
+        <v>50</v>
+      </c>
+      <c r="E842" s="8"/>
+      <c r="F842" s="8"/>
+      <c r="G842" s="8"/>
+      <c r="H842" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I842" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="J842" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K842" s="16">
+        <v>50</v>
+      </c>
+      <c r="L842" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M842" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N842" s="15"/>
+    </row>
+    <row r="843" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>38</v>
+      </c>
+      <c r="B843" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C843" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D843" s="4">
+        <v>50</v>
+      </c>
+      <c r="E843" s="3"/>
+      <c r="F843" s="3"/>
+      <c r="G843" s="3"/>
+      <c r="H843" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I843" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J843" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K843" s="17">
+        <v>50</v>
+      </c>
+      <c r="L843" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M843" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N843" s="15"/>
+    </row>
+    <row r="844" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H844" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I844" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J844" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K844" s="16">
+        <v>25</v>
+      </c>
+      <c r="L844" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M844" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="845" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H845" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I845" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J845" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K845" s="8">
+        <v>25</v>
+      </c>
+      <c r="L845" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M845" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="846" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H846" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I846" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J846" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K846" s="16">
+        <v>50</v>
+      </c>
+      <c r="L846" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M846" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="847" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H847" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I847" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J847" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K847" s="17">
+        <v>50</v>
+      </c>
+      <c r="L847" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M847" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N847" s="15"/>
+    </row>
+    <row r="848" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H848" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I848" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J848" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K848" s="16">
+        <v>25</v>
+      </c>
+      <c r="L848" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M848" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="849" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H849" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I849" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J849" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K849" s="16">
+        <v>25</v>
+      </c>
+      <c r="L849" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M849" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="850" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H850" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I850" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J850" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K850" s="16">
+        <v>50</v>
+      </c>
+      <c r="L850" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M850" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="851" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H851" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I851" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J851" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K851" s="9">
+        <v>50</v>
+      </c>
+      <c r="L851" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M851" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="852" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H852" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I852" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J852" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K852" s="16">
+        <v>25</v>
+      </c>
+      <c r="L852" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M852" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="853" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H853" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I853" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J853" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K853" s="16">
+        <v>25</v>
+      </c>
+      <c r="L853" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M853" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="854" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H854" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I854" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J854" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K854" s="16">
+        <v>50</v>
+      </c>
+      <c r="L854" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M854" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="855" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H855" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I855" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J855" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K855" s="9">
+        <v>50</v>
+      </c>
+      <c r="L855" s="15">
+        <v>800</v>
+      </c>
+      <c r="M855" s="15">
+        <v>0.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAE6B1B-88FE-8E41-9B84-965ACEDCD3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0359B-AC14-FF4C-9D09-9DC2E73D2551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="600" windowWidth="18900" windowHeight="16340" firstSheet="1" activeTab="2" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="15260" yWindow="560" windowWidth="15540" windowHeight="16380" firstSheet="2" activeTab="3" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="best.models" sheetId="5" r:id="rId1"/>
     <sheet name="piston.crt.v.drt.yr1" sheetId="4" r:id="rId2"/>
     <sheet name="crt.v.drt.yr1.final" sheetId="12" r:id="rId3"/>
-    <sheet name="variance" sheetId="11" r:id="rId4"/>
-    <sheet name="piston.drt.v.drt.both.yrs" sheetId="6" r:id="rId5"/>
-    <sheet name="piston.crt.v.drt.yr2" sheetId="8" r:id="rId6"/>
-    <sheet name="unused.piston.drt.v.drt.1.plot" sheetId="7" r:id="rId7"/>
+    <sheet name="crt.v.drt.otl.rm.response" sheetId="13" r:id="rId4"/>
+    <sheet name="variance" sheetId="11" r:id="rId5"/>
+    <sheet name="piston.drt.v.drt.both.yrs" sheetId="6" r:id="rId6"/>
+    <sheet name="piston.crt.v.drt.yr2" sheetId="8" r:id="rId7"/>
+    <sheet name="unused.piston.drt.v.drt.1.plot" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="116">
   <si>
     <t>model</t>
   </si>
@@ -382,6 +383,15 @@
   <si>
     <t>stopped</t>
   </si>
+  <si>
+    <t>annual.data.map</t>
+  </si>
+  <si>
+    <t>had to use tc = 6 to generate at least 1000 trees in final model</t>
+  </si>
+  <si>
+    <t>had to use tc = 4 to generate at least 1000 trees in final model</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -507,10 +517,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -520,8 +530,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,8 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19989,14 +19998,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE8F34D-3678-6C4B-A4F3-69D73DE80E91}">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="N1" sqref="H1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="21" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="10.83203125" style="15"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -20018,25 +20026,25 @@
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -20059,25 +20067,25 @@
       <c r="F2" s="3">
         <v>9.2899999999999991</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K2" s="13">
-        <v>50</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="15">
+      <c r="I2" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="3">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
@@ -20103,25 +20111,25 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="13">
-        <v>50</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="I3" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="3">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3">
         <v>1000</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="3">
         <v>2.83</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
@@ -20147,25 +20155,25 @@
       <c r="F4" s="3">
         <v>16.12</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K4" s="13">
-        <v>50</v>
-      </c>
-      <c r="L4" s="13">
+      <c r="I4" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="3">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3">
         <v>2100</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="3">
         <v>7.67</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
@@ -20188,25 +20196,25 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="13">
-        <v>50</v>
-      </c>
-      <c r="L5" s="13">
+      <c r="I5" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="3">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3">
         <v>1650</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="3">
         <v>7.9</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5">
         <v>4</v>
       </c>
     </row>
@@ -20229,25 +20237,25 @@
       <c r="F6" s="3">
         <v>9.1300000000000008</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="13">
-        <v>50</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="I6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3">
         <v>2250</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="3">
         <v>12</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6">
         <v>5</v>
       </c>
     </row>
@@ -20273,19 +20281,19 @@
       <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="14">
-        <v>50</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="I7" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="8">
+        <v>50</v>
+      </c>
+      <c r="L7" s="8">
         <v>600</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="8">
         <v>4.42</v>
       </c>
       <c r="N7" s="6">
@@ -20311,25 +20319,25 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="13">
-        <v>50</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="I8" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="3">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="3">
         <v>9.01</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8">
         <v>7</v>
       </c>
     </row>
@@ -20346,31 +20354,31 @@
       <c r="D9" s="4">
         <v>50</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="3">
         <v>650</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="3">
         <v>11.58</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="13">
-        <v>50</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="I9" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="3">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3">
         <v>1150</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="3">
         <v>9.43</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9">
         <v>8</v>
       </c>
     </row>
@@ -20387,31 +20395,31 @@
       <c r="D10" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3">
         <v>1325</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <v>9.92</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="13">
-        <v>50</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="I10" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="3">
         <v>8.23</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10">
         <v>9</v>
       </c>
     </row>
@@ -20428,31 +20436,31 @@
       <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>925</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>8.73</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="22">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="22">
-        <v>50</v>
-      </c>
-      <c r="L11" s="22">
+      <c r="I11" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="4">
+        <v>50</v>
+      </c>
+      <c r="L11" s="4">
         <v>1400</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="4">
         <v>12.27</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="14">
         <v>10</v>
       </c>
     </row>
@@ -20469,31 +20477,31 @@
       <c r="D12" s="3">
         <v>50</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="3">
         <v>1450</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>10.63</v>
       </c>
       <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K12" s="17">
-        <v>25</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="15">
+      <c r="I12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="3">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
@@ -20513,10 +20521,10 @@
       <c r="D13" s="7">
         <v>50</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="8">
         <v>1400</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="8">
         <v>12.27</v>
       </c>
       <c r="G13" t="s">
@@ -20525,22 +20533,22 @@
       <c r="H13" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="17">
-        <v>25</v>
-      </c>
-      <c r="L13" s="13">
+      <c r="I13" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="3">
+        <v>25</v>
+      </c>
+      <c r="L13" s="3">
         <v>525</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="3">
         <v>1.55</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" t="s">
@@ -20560,31 +20568,31 @@
       <c r="D14" s="3">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="3">
         <v>125</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="3">
         <v>9.02</v>
       </c>
       <c r="H14" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K14" s="17">
-        <v>25</v>
-      </c>
-      <c r="L14" s="13">
+      <c r="I14" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="3">
+        <v>25</v>
+      </c>
+      <c r="L14" s="3">
         <v>725</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="3">
         <v>3.03</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14">
         <v>3</v>
       </c>
       <c r="O14" t="s">
@@ -20654,22 +20662,22 @@
       <c r="H16" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K16" s="17">
-        <v>25</v>
-      </c>
-      <c r="L16" s="13">
+      <c r="I16" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="3">
+        <v>25</v>
+      </c>
+      <c r="L16" s="3">
         <v>600</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="3">
         <v>3.74</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16">
         <v>5</v>
       </c>
     </row>
@@ -20695,22 +20703,22 @@
       <c r="H17" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K17" s="17">
-        <v>25</v>
-      </c>
-      <c r="L17" s="13">
+      <c r="I17" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="3">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3">
         <v>1050</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="3">
         <v>7.03</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17">
         <v>6</v>
       </c>
     </row>
@@ -20736,22 +20744,22 @@
       <c r="H18" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K18" s="17">
-        <v>25</v>
-      </c>
-      <c r="L18" s="13">
+      <c r="I18" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="3">
+        <v>25</v>
+      </c>
+      <c r="L18" s="3">
         <v>650</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="3">
         <v>5.13</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18">
         <v>7</v>
       </c>
     </row>
@@ -20777,22 +20785,22 @@
       <c r="H19" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K19" s="17">
-        <v>25</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="I19" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3">
         <v>1000</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="3">
         <v>8.06</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19">
         <v>8</v>
       </c>
     </row>
@@ -20818,22 +20826,22 @@
       <c r="H20" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K20" s="17">
-        <v>25</v>
-      </c>
-      <c r="L20" s="13">
+      <c r="I20" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="3">
+        <v>25</v>
+      </c>
+      <c r="L20" s="3">
         <v>375</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="3">
         <v>3.57</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20">
         <v>9</v>
       </c>
       <c r="O20" t="s">
@@ -20853,31 +20861,31 @@
       <c r="D21" s="4">
         <v>50</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="3">
         <v>5.83</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="22">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J21" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K21" s="22">
-        <v>25</v>
-      </c>
-      <c r="L21" s="22">
+      <c r="I21" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="4">
+        <v>25</v>
+      </c>
+      <c r="L21" s="4">
         <v>1050</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="4">
         <v>9.39</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="14">
         <v>10</v>
       </c>
       <c r="O21" t="s">
@@ -20897,31 +20905,31 @@
       <c r="D22" s="3">
         <v>25</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="3">
         <v>950</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="3">
         <v>7.27</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="17">
-        <v>25</v>
-      </c>
-      <c r="L22" s="13">
+      <c r="I22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>25</v>
+      </c>
+      <c r="L22" s="3">
         <v>575</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="3">
         <v>1.82</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" t="s">
@@ -20941,34 +20949,34 @@
       <c r="D23" s="8">
         <v>25</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="8">
         <v>1050</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="8">
         <v>9.39</v>
       </c>
       <c r="G23" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K23" s="17">
-        <v>25</v>
-      </c>
-      <c r="L23" s="13">
+      <c r="I23" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>25</v>
+      </c>
+      <c r="L23" s="3">
         <v>650</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="3">
         <v>3.51</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23">
         <v>2</v>
       </c>
     </row>
@@ -20976,40 +20984,40 @@
       <c r="A24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="17">
-        <v>50</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="B24" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3">
         <v>650</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="3">
         <v>5.08</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="17">
-        <v>25</v>
-      </c>
-      <c r="L24" s="13">
+      <c r="I24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>25</v>
+      </c>
+      <c r="L24" s="3">
         <v>1025</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="3">
         <v>7.02</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24">
         <v>3</v>
       </c>
     </row>
@@ -21017,40 +21025,40 @@
       <c r="A25" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="16">
-        <v>50</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="B25" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="5">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3">
         <v>1000</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="3">
         <v>8.9700000000000006</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="17">
-        <v>25</v>
-      </c>
-      <c r="L25" s="13">
+      <c r="I25" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>25</v>
+      </c>
+      <c r="L25" s="3">
         <v>825</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="3">
         <v>7.29</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25">
         <v>4</v>
       </c>
     </row>
@@ -21067,31 +21075,31 @@
       <c r="D26" s="3">
         <v>25</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="3">
         <v>150</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="3">
         <v>10.77</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="17">
-        <v>25</v>
-      </c>
-      <c r="L26" s="13">
+      <c r="I26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>25</v>
+      </c>
+      <c r="L26" s="3">
         <v>1075</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="3">
         <v>10.29</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26">
         <v>5</v>
       </c>
     </row>
@@ -21108,10 +21116,10 @@
       <c r="D27" s="3">
         <v>25</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="3">
         <v>125</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="3">
         <v>11.16</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -21126,10 +21134,10 @@
       <c r="K27" s="8">
         <v>25</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="8">
         <v>625</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="8">
         <v>7.27</v>
       </c>
       <c r="N27" s="6">
@@ -21155,25 +21163,25 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="17">
-        <v>25</v>
-      </c>
-      <c r="L28" s="13">
+      <c r="I28" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>25</v>
+      </c>
+      <c r="L28" s="3">
         <v>375</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="3">
         <v>5.12</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28">
         <v>7</v>
       </c>
     </row>
@@ -21196,25 +21204,25 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="17">
-        <v>25</v>
-      </c>
-      <c r="L29" s="13">
+      <c r="I29" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>25</v>
+      </c>
+      <c r="L29" s="3">
         <v>525</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="3">
         <v>7.34</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29">
         <v>8</v>
       </c>
     </row>
@@ -21240,25 +21248,25 @@
       <c r="G30" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="17">
-        <v>25</v>
-      </c>
-      <c r="L30" s="13">
+      <c r="I30" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>25</v>
+      </c>
+      <c r="L30" s="3">
         <v>725</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="3">
         <v>10.18</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30">
         <v>9</v>
       </c>
     </row>
@@ -21281,25 +21289,25 @@
       <c r="F31" s="3">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="J31" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="22">
-        <v>25</v>
-      </c>
-      <c r="L31" s="22">
+      <c r="I31" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="4">
+        <v>25</v>
+      </c>
+      <c r="L31" s="4">
         <v>1000</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="4">
         <v>13.61</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="14">
         <v>10</v>
       </c>
     </row>
@@ -21322,25 +21330,25 @@
       <c r="F32" s="3">
         <v>8.4700000000000006</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K32" s="17">
-        <v>25</v>
-      </c>
-      <c r="L32" s="13">
+      <c r="I32" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="3">
+        <v>25</v>
+      </c>
+      <c r="L32" s="3">
         <v>2825</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="3">
         <v>22.56</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32">
         <v>1</v>
       </c>
     </row>
@@ -21357,31 +21365,31 @@
       <c r="D33" s="4">
         <v>50</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="3">
         <v>450</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="3">
         <v>8.51</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K33" s="17">
-        <v>25</v>
-      </c>
-      <c r="L33" s="13">
+      <c r="I33" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="3">
+        <v>25</v>
+      </c>
+      <c r="L33" s="3">
         <v>875</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="3">
         <v>18.03</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33">
         <v>2</v>
       </c>
     </row>
@@ -21398,10 +21406,10 @@
       <c r="D34" s="3">
         <v>25</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="3">
         <v>200</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="3">
         <v>17.55</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -21416,10 +21424,10 @@
       <c r="K34" s="8">
         <v>25</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="8">
         <v>1650</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="8">
         <v>30.92</v>
       </c>
       <c r="N34" s="6">
@@ -21439,31 +21447,31 @@
       <c r="D35" s="3">
         <v>25</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="3">
         <v>125</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="3">
         <v>17.87</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J35" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K35" s="17">
-        <v>25</v>
-      </c>
-      <c r="L35" s="13">
+      <c r="I35" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="3">
+        <v>25</v>
+      </c>
+      <c r="L35" s="3">
         <v>1875</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="3">
         <v>35.44</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35">
         <v>4</v>
       </c>
     </row>
@@ -21480,31 +21488,31 @@
       <c r="D36" s="3">
         <v>50</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="3">
         <v>500</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="3">
         <v>30.66</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" t="s">
         <v>97</v>
       </c>
-      <c r="I36" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J36" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K36" s="17">
-        <v>25</v>
-      </c>
-      <c r="L36" s="13">
+      <c r="I36" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="3">
+        <v>25</v>
+      </c>
+      <c r="L36" s="3">
         <v>1000</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="3">
         <v>25.05</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36">
         <v>5</v>
       </c>
     </row>
@@ -21521,31 +21529,31 @@
       <c r="D37" s="4">
         <v>50</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="3">
         <v>250</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="3">
         <v>28.76</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" t="s">
         <v>97</v>
       </c>
-      <c r="I37" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K37" s="17">
-        <v>25</v>
-      </c>
-      <c r="L37" s="13">
+      <c r="I37" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="3">
+        <v>25</v>
+      </c>
+      <c r="L37" s="3">
         <v>1825</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="3">
         <v>35.869999999999997</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37">
         <v>6</v>
       </c>
     </row>
@@ -21562,31 +21570,31 @@
       <c r="D38" s="3">
         <v>25</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="3">
         <v>1675</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="3">
         <v>24.35</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K38" s="17">
-        <v>25</v>
-      </c>
-      <c r="L38" s="13">
+      <c r="I38" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="3">
+        <v>25</v>
+      </c>
+      <c r="L38" s="3">
         <v>1850</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="3">
         <v>35.96</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38">
         <v>7</v>
       </c>
     </row>
@@ -21603,34 +21611,34 @@
       <c r="D39" s="8">
         <v>25</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="8">
         <v>1975</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="8">
         <v>37.36</v>
       </c>
       <c r="G39" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J39" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K39" s="17">
-        <v>25</v>
-      </c>
-      <c r="L39" s="13">
+      <c r="I39" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="3">
+        <v>25</v>
+      </c>
+      <c r="L39" s="3">
         <v>2025</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="3">
         <v>38.01</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39">
         <v>8</v>
       </c>
     </row>
@@ -21647,31 +21655,31 @@
       <c r="D40" s="3">
         <v>50</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="3">
         <v>3300</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="3">
         <v>34.92</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J40" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K40" s="17">
-        <v>25</v>
-      </c>
-      <c r="L40" s="13">
+      <c r="I40" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K40" s="3">
+        <v>25</v>
+      </c>
+      <c r="L40" s="3">
         <v>1550</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="3">
         <v>32.729999999999997</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40">
         <v>9</v>
       </c>
     </row>
@@ -21688,31 +21696,31 @@
       <c r="D41" s="4">
         <v>50</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="3">
         <v>34.68</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="J41" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K41" s="22">
-        <v>25</v>
-      </c>
-      <c r="L41" s="22">
+      <c r="I41" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K41" s="4">
+        <v>25</v>
+      </c>
+      <c r="L41" s="4">
         <v>1975</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="4">
         <v>37.36</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="14">
         <v>10</v>
       </c>
     </row>
@@ -21729,31 +21737,31 @@
       <c r="D42" s="3">
         <v>25</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="3">
         <v>21.79</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J42" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K42" s="13">
-        <v>50</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N42" s="23">
+      <c r="I42" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="3">
+        <v>50</v>
+      </c>
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42">
         <v>1</v>
       </c>
     </row>
@@ -21770,31 +21778,31 @@
       <c r="D43" s="3">
         <v>25</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="3">
         <v>275</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="3">
         <v>29.43</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J43" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K43" s="13">
-        <v>50</v>
-      </c>
-      <c r="L43" s="13">
+      <c r="I43" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K43" s="3">
+        <v>50</v>
+      </c>
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="3">
         <v>23.2</v>
       </c>
-      <c r="N43" s="23">
+      <c r="N43">
         <v>2</v>
       </c>
     </row>
@@ -21811,31 +21819,31 @@
       <c r="D44" s="3">
         <v>50</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="3">
         <v>450</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="3">
         <v>27.45</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" t="s">
         <v>99</v>
       </c>
-      <c r="I44" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J44" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K44" s="13">
-        <v>50</v>
-      </c>
-      <c r="L44" s="13">
+      <c r="I44" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K44" s="3">
+        <v>50</v>
+      </c>
+      <c r="L44" s="3">
         <v>950</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="3">
         <v>22.14</v>
       </c>
-      <c r="N44" s="23">
+      <c r="N44">
         <v>3</v>
       </c>
     </row>
@@ -21852,31 +21860,31 @@
       <c r="D45" s="4">
         <v>50</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="3">
         <v>47.63</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I45" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J45" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K45" s="14">
-        <v>50</v>
-      </c>
-      <c r="L45" s="14">
+      <c r="I45" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K45" s="8">
+        <v>50</v>
+      </c>
+      <c r="L45" s="8">
         <v>2250</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="8">
         <v>39.99</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N45" s="6">
         <v>4</v>
       </c>
     </row>
@@ -21893,31 +21901,31 @@
       <c r="D46" s="3">
         <v>25</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="3">
         <v>2625</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="3">
         <v>29.85</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" t="s">
         <v>99</v>
       </c>
-      <c r="I46" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J46" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K46" s="13">
-        <v>50</v>
-      </c>
-      <c r="L46" s="13">
+      <c r="I46" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K46" s="3">
+        <v>50</v>
+      </c>
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="3">
         <v>34.96</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46">
         <v>5</v>
       </c>
     </row>
@@ -21934,34 +21942,34 @@
       <c r="D47" s="8">
         <v>25</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="8">
         <v>1500</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="8">
         <v>30.75</v>
       </c>
       <c r="G47" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" t="s">
         <v>99</v>
       </c>
-      <c r="I47" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K47" s="13">
-        <v>50</v>
-      </c>
-      <c r="L47" s="13">
+      <c r="I47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K47" s="3">
+        <v>50</v>
+      </c>
+      <c r="L47" s="3">
         <v>2450</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="3">
         <v>42.51</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47">
         <v>6</v>
       </c>
     </row>
@@ -21978,31 +21986,31 @@
       <c r="D48" s="3">
         <v>50</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="3">
         <v>21.04</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" t="s">
         <v>99</v>
       </c>
-      <c r="I48" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J48" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K48" s="13">
-        <v>50</v>
-      </c>
-      <c r="L48" s="13">
+      <c r="I48" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K48" s="3">
+        <v>50</v>
+      </c>
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="3">
         <v>44.74</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48">
         <v>7</v>
       </c>
     </row>
@@ -22019,31 +22027,31 @@
       <c r="D49" s="4">
         <v>50</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="3">
         <v>1250</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="3">
         <v>27.57</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J49" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K49" s="13">
-        <v>50</v>
-      </c>
-      <c r="L49" s="13">
+      <c r="I49" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K49" s="3">
+        <v>50</v>
+      </c>
+      <c r="L49" s="3">
         <v>2650</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="3">
         <v>44.32</v>
       </c>
-      <c r="N49" s="23">
+      <c r="N49">
         <v>8</v>
       </c>
     </row>
@@ -22060,31 +22068,31 @@
       <c r="D50" s="3">
         <v>25</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="3">
         <v>825</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="3">
         <v>39.43</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" t="s">
         <v>99</v>
       </c>
-      <c r="I50" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J50" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K50" s="13">
-        <v>50</v>
-      </c>
-      <c r="L50" s="13">
+      <c r="I50" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K50" s="3">
+        <v>50</v>
+      </c>
+      <c r="L50" s="3">
         <v>2300</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="3">
         <v>40.96</v>
       </c>
-      <c r="N50" s="23">
+      <c r="N50">
         <v>9</v>
       </c>
     </row>
@@ -22101,31 +22109,31 @@
       <c r="D51" s="3">
         <v>25</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="3">
         <v>600</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="3">
         <v>46.69</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I51" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="J51" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K51" s="22">
-        <v>50</v>
-      </c>
-      <c r="L51" s="22">
+      <c r="I51" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K51" s="4">
+        <v>50</v>
+      </c>
+      <c r="L51" s="4">
         <v>3150</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="4">
         <v>47.9</v>
       </c>
-      <c r="N51" s="21">
+      <c r="N51" s="14">
         <v>10</v>
       </c>
     </row>
@@ -22142,31 +22150,31 @@
       <c r="D52" s="3">
         <v>50</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="3">
         <v>550</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="3">
         <v>32.83</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" t="s">
         <v>100</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J52" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K52" s="13">
-        <v>50</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52" s="23">
+      <c r="J52" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K52" s="3">
+        <v>50</v>
+      </c>
+      <c r="L52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52">
         <v>1</v>
       </c>
       <c r="O52" t="s">
@@ -22186,31 +22194,31 @@
       <c r="D53" s="4">
         <v>50</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="3">
         <v>600</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="3">
         <v>46.79</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" t="s">
         <v>100</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J53" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K53" s="13">
-        <v>50</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N53" s="23">
+      <c r="J53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K53" s="3">
+        <v>50</v>
+      </c>
+      <c r="L53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53">
         <v>2</v>
       </c>
       <c r="O53" t="s">
@@ -22230,31 +22238,31 @@
       <c r="D54" s="3">
         <v>25</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="3">
         <v>27.14</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" t="s">
         <v>100</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J54" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K54" s="13">
-        <v>50</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N54" s="23">
+      <c r="J54" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K54" s="3">
+        <v>50</v>
+      </c>
+      <c r="L54" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54">
         <v>3</v>
       </c>
       <c r="O54" t="s">
@@ -22265,40 +22273,40 @@
       <c r="A55" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="C55" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="D55" s="17">
-        <v>25</v>
-      </c>
-      <c r="E55" s="13">
+      <c r="B55" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3">
         <v>1375</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="3">
         <v>30.74</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" t="s">
         <v>100</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J55" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K55" s="13">
-        <v>50</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N55" s="23">
+      <c r="J55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="3">
+        <v>50</v>
+      </c>
+      <c r="L55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55">
         <v>4</v>
       </c>
       <c r="O55" t="s">
@@ -22318,31 +22326,31 @@
       <c r="D56" s="3">
         <v>50</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="3">
         <v>4050</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="3">
         <v>39.409999999999997</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" t="s">
         <v>100</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J56" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K56" s="13">
-        <v>50</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N56" s="23">
+      <c r="J56" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K56" s="3">
+        <v>50</v>
+      </c>
+      <c r="L56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56">
         <v>5</v>
       </c>
       <c r="O56" t="s">
@@ -22362,34 +22370,34 @@
       <c r="D57" s="9">
         <v>50</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="8">
         <v>3150</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="8">
         <v>47.9</v>
       </c>
       <c r="G57" t="s">
         <v>73</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" t="s">
         <v>100</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J57" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K57" s="13">
-        <v>50</v>
-      </c>
-      <c r="L57" s="13">
+      <c r="J57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K57" s="3">
+        <v>50</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="3">
         <v>1.65</v>
       </c>
-      <c r="N57" s="23">
+      <c r="N57">
         <v>6</v>
       </c>
     </row>
@@ -22412,25 +22420,25 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" t="s">
         <v>100</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J58" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K58" s="13">
-        <v>50</v>
-      </c>
-      <c r="L58" s="13">
+      <c r="J58" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K58" s="3">
+        <v>50</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="3">
         <v>1.81</v>
       </c>
-      <c r="N58" s="23">
+      <c r="N58">
         <v>7</v>
       </c>
     </row>
@@ -22447,31 +22455,31 @@
       <c r="D59" s="3">
         <v>25</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="3">
         <v>125</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="3">
         <v>11.41</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="8">
         <v>1E-4</v>
       </c>
-      <c r="J59" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K59" s="14">
-        <v>50</v>
-      </c>
-      <c r="L59" s="14">
+      <c r="J59" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K59" s="8">
+        <v>50</v>
+      </c>
+      <c r="L59" s="8">
         <v>1150</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="8">
         <v>2.25</v>
       </c>
-      <c r="N59" s="24">
+      <c r="N59" s="6">
         <v>8</v>
       </c>
     </row>
@@ -22494,25 +22502,25 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" t="s">
         <v>100</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J60" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K60" s="13">
-        <v>50</v>
-      </c>
-      <c r="L60" s="13">
+      <c r="J60" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K60" s="3">
+        <v>50</v>
+      </c>
+      <c r="L60" s="3">
         <v>950</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="3">
         <v>1.99</v>
       </c>
-      <c r="N60" s="23">
+      <c r="N60">
         <v>9</v>
       </c>
     </row>
@@ -22535,25 +22543,25 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="4">
         <v>1E-4</v>
       </c>
-      <c r="J61" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K61" s="22">
-        <v>50</v>
-      </c>
-      <c r="L61" s="22">
+      <c r="J61" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K61" s="4">
+        <v>50</v>
+      </c>
+      <c r="L61" s="4">
         <v>1000</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M61" s="4">
         <v>2.23</v>
       </c>
-      <c r="N61" s="21">
+      <c r="N61" s="14">
         <v>10</v>
       </c>
     </row>
@@ -22579,22 +22587,22 @@
       <c r="H62" t="s">
         <v>101</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J62" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K62" s="13">
-        <v>50</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M62" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N62" s="23">
+      <c r="J62" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K62" s="3">
+        <v>50</v>
+      </c>
+      <c r="L62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" t="s">
+        <v>11</v>
+      </c>
+      <c r="N62">
         <v>1</v>
       </c>
       <c r="O62" t="s">
@@ -22623,22 +22631,22 @@
       <c r="H63" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J63" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K63" s="13">
-        <v>50</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N63" s="23">
+      <c r="J63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K63" s="3">
+        <v>50</v>
+      </c>
+      <c r="L63" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63">
         <v>2</v>
       </c>
       <c r="O63" t="s">
@@ -22667,22 +22675,22 @@
       <c r="H64" t="s">
         <v>101</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J64" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K64" s="13">
-        <v>50</v>
-      </c>
-      <c r="L64" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" s="23">
+      <c r="J64" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K64" s="3">
+        <v>50</v>
+      </c>
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64">
         <v>3</v>
       </c>
       <c r="O64" t="s">
@@ -22702,31 +22710,31 @@
       <c r="D65" s="4">
         <v>50</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="3">
         <v>250</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="3">
         <v>5.13</v>
       </c>
       <c r="H65" t="s">
         <v>101</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J65" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K65" s="13">
-        <v>50</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N65" s="23">
+      <c r="J65" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K65" s="3">
+        <v>50</v>
+      </c>
+      <c r="L65" t="s">
+        <v>11</v>
+      </c>
+      <c r="M65" t="s">
+        <v>11</v>
+      </c>
+      <c r="N65">
         <v>4</v>
       </c>
       <c r="O65" t="s">
@@ -22746,31 +22754,31 @@
       <c r="D66" s="3">
         <v>25</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="3">
         <v>425</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="3">
         <v>3.51</v>
       </c>
       <c r="H66" t="s">
         <v>101</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J66" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K66" s="13">
-        <v>50</v>
-      </c>
-      <c r="L66" s="13">
+      <c r="J66" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K66" s="3">
+        <v>50</v>
+      </c>
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="3">
         <v>1.37</v>
       </c>
-      <c r="N66" s="23">
+      <c r="N66">
         <v>5</v>
       </c>
       <c r="O66" t="s">
@@ -22790,31 +22798,31 @@
       <c r="D67" s="3">
         <v>25</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="3">
         <v>350</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="3">
         <v>3.75</v>
       </c>
       <c r="H67" t="s">
         <v>101</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J67" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K67" s="13">
-        <v>50</v>
-      </c>
-      <c r="L67" s="13">
+      <c r="J67" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K67" s="3">
+        <v>50</v>
+      </c>
+      <c r="L67" s="3">
         <v>1000</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="3">
         <v>1.57</v>
       </c>
-      <c r="N67" s="23">
+      <c r="N67">
         <v>6</v>
       </c>
       <c r="O67" t="s">
@@ -22834,31 +22842,31 @@
       <c r="D68" s="3">
         <v>50</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="3">
         <v>950</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="3">
         <v>7.11</v>
       </c>
       <c r="H68" t="s">
         <v>101</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J68" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K68" s="13">
-        <v>50</v>
-      </c>
-      <c r="L68" s="13">
+      <c r="J68" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K68" s="3">
+        <v>50</v>
+      </c>
+      <c r="L68" s="3">
         <v>1000</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="3">
         <v>1.73</v>
       </c>
-      <c r="N68" s="23">
+      <c r="N68">
         <v>7</v>
       </c>
       <c r="O68" t="s">
@@ -22866,43 +22874,43 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C69" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D69" s="16">
-        <v>50</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="B69" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="5">
+        <v>50</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="H69" t="s">
         <v>101</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J69" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K69" s="13">
-        <v>50</v>
-      </c>
-      <c r="L69" s="13">
+      <c r="J69" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K69" s="3">
+        <v>50</v>
+      </c>
+      <c r="L69" s="3">
         <v>1000</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="3">
         <v>1.86</v>
       </c>
-      <c r="N69" s="23">
+      <c r="N69">
         <v>8</v>
       </c>
       <c r="O69" t="s">
@@ -22922,31 +22930,31 @@
       <c r="D70" s="3">
         <v>25</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="3">
         <v>525</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="3">
         <v>0.92</v>
       </c>
       <c r="H70" t="s">
         <v>101</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J70" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K70" s="13">
-        <v>50</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M70" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N70" s="23">
+      <c r="J70" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K70" s="3">
+        <v>50</v>
+      </c>
+      <c r="L70" t="s">
+        <v>11</v>
+      </c>
+      <c r="M70" t="s">
+        <v>11</v>
+      </c>
+      <c r="N70">
         <v>9</v>
       </c>
       <c r="O70" t="s">
@@ -22966,31 +22974,31 @@
       <c r="D71" s="3">
         <v>25</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="3">
         <v>525</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="4">
         <v>1E-4</v>
       </c>
-      <c r="J71" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K71" s="22">
-        <v>50</v>
-      </c>
-      <c r="L71" s="22">
+      <c r="J71" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K71" s="4">
+        <v>50</v>
+      </c>
+      <c r="L71" s="4">
         <v>1000</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="4">
         <v>2.09</v>
       </c>
-      <c r="N71" s="21">
+      <c r="N71" s="14">
         <v>10</v>
       </c>
       <c r="O71" t="s">
@@ -23010,31 +23018,31 @@
       <c r="D72" s="3">
         <v>50</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="3">
         <v>1000</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="3">
         <v>1.72</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" t="s">
         <v>102</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J72" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K72" s="13">
-        <v>50</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M72" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N72" s="23">
+      <c r="J72" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K72" s="3">
+        <v>50</v>
+      </c>
+      <c r="L72" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" t="s">
+        <v>11</v>
+      </c>
+      <c r="N72">
         <v>1</v>
       </c>
       <c r="O72" t="s">
@@ -23054,34 +23062,34 @@
       <c r="D73" s="7">
         <v>50</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="8">
         <v>1000</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="8">
         <v>2.23</v>
       </c>
       <c r="G73" t="s">
         <v>73</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J73" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K73" s="13">
-        <v>50</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M73" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N73" s="23">
+      <c r="J73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K73" s="3">
+        <v>50</v>
+      </c>
+      <c r="L73" t="s">
+        <v>11</v>
+      </c>
+      <c r="M73" t="s">
+        <v>11</v>
+      </c>
+      <c r="N73">
         <v>2</v>
       </c>
       <c r="O73" t="s">
@@ -23107,25 +23115,25 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" t="s">
         <v>102</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J74" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K74" s="13">
-        <v>50</v>
-      </c>
-      <c r="L74" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M74" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N74" s="23">
+      <c r="J74" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K74" s="3">
+        <v>50</v>
+      </c>
+      <c r="L74" t="s">
+        <v>11</v>
+      </c>
+      <c r="M74" t="s">
+        <v>11</v>
+      </c>
+      <c r="N74">
         <v>3</v>
       </c>
       <c r="O74" t="s">
@@ -23151,25 +23159,25 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" t="s">
         <v>102</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J75" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K75" s="13">
-        <v>50</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M75" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N75" s="23">
+      <c r="J75" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K75" s="3">
+        <v>50</v>
+      </c>
+      <c r="L75" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" t="s">
+        <v>11</v>
+      </c>
+      <c r="N75">
         <v>4</v>
       </c>
       <c r="O75" t="s">
@@ -23195,25 +23203,25 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" t="s">
         <v>102</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J76" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K76" s="13">
-        <v>50</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76" s="23">
+      <c r="J76" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K76" s="3">
+        <v>50</v>
+      </c>
+      <c r="L76" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76">
         <v>5</v>
       </c>
       <c r="O76" t="s">
@@ -23239,25 +23247,25 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" t="s">
         <v>102</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J77" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K77" s="13">
-        <v>50</v>
-      </c>
-      <c r="L77" s="13">
+      <c r="J77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K77" s="3">
+        <v>50</v>
+      </c>
+      <c r="L77" s="3">
         <v>1000</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="3">
         <v>1.59</v>
       </c>
-      <c r="N77" s="23">
+      <c r="N77">
         <v>6</v>
       </c>
       <c r="O77" t="s">
@@ -23283,25 +23291,25 @@
       <c r="F78" s="3">
         <v>4.26</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="H78" t="s">
         <v>102</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J78" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K78" s="13">
-        <v>50</v>
-      </c>
-      <c r="L78" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M78" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N78" s="23">
+      <c r="J78" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K78" s="3">
+        <v>50</v>
+      </c>
+      <c r="L78" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" t="s">
+        <v>11</v>
+      </c>
+      <c r="N78">
         <v>7</v>
       </c>
       <c r="O78" t="s">
@@ -23327,25 +23335,25 @@
       <c r="F79" s="3">
         <v>6.72</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" t="s">
         <v>102</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J79" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K79" s="13">
-        <v>50</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M79" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N79" s="23">
+      <c r="J79" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K79" s="3">
+        <v>50</v>
+      </c>
+      <c r="L79" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" t="s">
+        <v>11</v>
+      </c>
+      <c r="N79">
         <v>8</v>
       </c>
       <c r="O79" t="s">
@@ -23371,25 +23379,25 @@
       <c r="F80" s="3">
         <v>5.84</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" t="s">
         <v>102</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J80" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K80" s="13">
-        <v>50</v>
-      </c>
-      <c r="L80" s="13">
+      <c r="J80" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K80" s="3">
+        <v>50</v>
+      </c>
+      <c r="L80" s="3">
         <v>1000</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M80" s="3">
         <v>2.02</v>
       </c>
-      <c r="N80" s="23">
+      <c r="N80">
         <v>9</v>
       </c>
       <c r="O80" t="s">
@@ -23415,25 +23423,25 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="21" t="s">
+      <c r="H81" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="4">
         <v>1E-4</v>
       </c>
-      <c r="J81" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K81" s="22">
-        <v>50</v>
-      </c>
-      <c r="L81" s="22">
+      <c r="J81" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K81" s="4">
+        <v>50</v>
+      </c>
+      <c r="L81" s="4">
         <v>1000</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M81" s="4">
         <v>2.13</v>
       </c>
-      <c r="N81" s="21">
+      <c r="N81" s="14">
         <v>10</v>
       </c>
       <c r="O81" t="s">
@@ -23459,25 +23467,25 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" t="s">
         <v>103</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J82" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K82" s="13">
-        <v>50</v>
-      </c>
-      <c r="L82" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M82" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N82" s="23">
+      <c r="J82" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K82" s="3">
+        <v>50</v>
+      </c>
+      <c r="L82" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" t="s">
+        <v>11</v>
+      </c>
+      <c r="N82">
         <v>1</v>
       </c>
       <c r="O82" t="s">
@@ -23503,25 +23511,25 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="15" t="s">
+      <c r="H83" t="s">
         <v>103</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J83" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K83" s="13">
-        <v>50</v>
-      </c>
-      <c r="L83" s="13">
+      <c r="J83" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K83" s="3">
+        <v>50</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="3">
         <v>1</v>
       </c>
-      <c r="N83" s="23">
+      <c r="N83">
         <v>2</v>
       </c>
       <c r="O83" t="s">
@@ -23547,25 +23555,25 @@
       <c r="F84" s="3">
         <v>1.62</v>
       </c>
-      <c r="H84" s="15" t="s">
+      <c r="H84" t="s">
         <v>103</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J84" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K84" s="13">
-        <v>50</v>
-      </c>
-      <c r="L84" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M84" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N84" s="23">
+      <c r="J84" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K84" s="3">
+        <v>50</v>
+      </c>
+      <c r="L84" t="s">
+        <v>11</v>
+      </c>
+      <c r="M84" t="s">
+        <v>11</v>
+      </c>
+      <c r="N84">
         <v>3</v>
       </c>
       <c r="O84" t="s">
@@ -23576,40 +23584,40 @@
       <c r="A85" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C85" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D85" s="16">
-        <v>50</v>
-      </c>
-      <c r="E85" s="13">
+      <c r="B85" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D85" s="5">
+        <v>50</v>
+      </c>
+      <c r="E85" s="3">
         <v>650</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="3">
         <v>6.37</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" t="s">
         <v>103</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J85" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K85" s="13">
-        <v>50</v>
-      </c>
-      <c r="L85" s="13">
+      <c r="J85" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K85" s="3">
+        <v>50</v>
+      </c>
+      <c r="L85" s="3">
         <v>1000</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M85" s="3">
         <v>1.59</v>
       </c>
-      <c r="N85" s="23">
+      <c r="N85">
         <v>4</v>
       </c>
       <c r="O85" t="s">
@@ -23635,25 +23643,25 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="15" t="s">
+      <c r="H86" t="s">
         <v>103</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J86" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K86" s="13">
-        <v>50</v>
-      </c>
-      <c r="L86" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M86" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N86" s="23">
+      <c r="J86" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K86" s="3">
+        <v>50</v>
+      </c>
+      <c r="L86" t="s">
+        <v>11</v>
+      </c>
+      <c r="M86" t="s">
+        <v>11</v>
+      </c>
+      <c r="N86">
         <v>5</v>
       </c>
       <c r="O86" t="s">
@@ -23679,25 +23687,25 @@
       <c r="F87" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H87" t="s">
         <v>103</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J87" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K87" s="13">
-        <v>50</v>
-      </c>
-      <c r="L87" s="13">
+      <c r="J87" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K87" s="3">
+        <v>50</v>
+      </c>
+      <c r="L87" s="3">
         <v>1000</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="3">
         <v>2</v>
       </c>
-      <c r="N87" s="23">
+      <c r="N87">
         <v>6</v>
       </c>
     </row>
@@ -23720,25 +23728,25 @@
       <c r="F88" s="3">
         <v>1.67</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="H88" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J88" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K88" s="13">
-        <v>50</v>
-      </c>
-      <c r="L88" s="13">
+      <c r="J88" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K88" s="3">
+        <v>50</v>
+      </c>
+      <c r="L88" s="3">
         <v>2100</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="3">
         <v>4.2699999999999996</v>
       </c>
-      <c r="N88" s="23">
+      <c r="N88">
         <v>7</v>
       </c>
     </row>
@@ -23764,25 +23772,25 @@
       <c r="G89" t="s">
         <v>73</v>
       </c>
-      <c r="H89" s="15" t="s">
+      <c r="H89" t="s">
         <v>103</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J89" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K89" s="13">
-        <v>50</v>
-      </c>
-      <c r="L89" s="13">
+      <c r="J89" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K89" s="3">
+        <v>50</v>
+      </c>
+      <c r="L89" s="3">
         <v>1560</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="3">
         <v>3.62</v>
       </c>
-      <c r="N89" s="23">
+      <c r="N89">
         <v>8</v>
       </c>
     </row>
@@ -23808,22 +23816,22 @@
       <c r="H90" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="8">
         <v>1E-4</v>
       </c>
-      <c r="J90" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K90" s="14">
-        <v>50</v>
-      </c>
-      <c r="L90" s="14">
+      <c r="J90" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K90" s="8">
+        <v>50</v>
+      </c>
+      <c r="L90" s="8">
         <v>2450</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M90" s="8">
         <v>5.3</v>
       </c>
-      <c r="N90" s="24">
+      <c r="N90" s="6">
         <v>9</v>
       </c>
     </row>
@@ -23846,25 +23854,25 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="H91" s="21" t="s">
+      <c r="H91" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I91" s="22">
+      <c r="I91" s="4">
         <v>1E-4</v>
       </c>
-      <c r="J91" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K91" s="22">
-        <v>50</v>
-      </c>
-      <c r="L91" s="26">
+      <c r="J91" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K91" s="4">
+        <v>50</v>
+      </c>
+      <c r="L91" s="15">
         <v>1000</v>
       </c>
-      <c r="M91" s="26">
+      <c r="M91" s="15">
         <v>2.35</v>
       </c>
-      <c r="N91" s="21">
+      <c r="N91" s="14">
         <v>10</v>
       </c>
     </row>
@@ -23887,25 +23895,25 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="15" t="s">
+      <c r="H92" t="s">
         <v>104</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J92" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K92" s="13">
-        <v>50</v>
-      </c>
-      <c r="L92" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M92" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N92" s="23">
+      <c r="J92" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K92" s="3">
+        <v>50</v>
+      </c>
+      <c r="L92" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" t="s">
+        <v>11</v>
+      </c>
+      <c r="N92">
         <v>1</v>
       </c>
     </row>
@@ -23928,25 +23936,25 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="15" t="s">
+      <c r="H93" t="s">
         <v>104</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J93" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K93" s="13">
-        <v>50</v>
-      </c>
-      <c r="L93" s="13">
+      <c r="J93" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K93" s="3">
+        <v>50</v>
+      </c>
+      <c r="L93" s="3">
         <v>1000</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="3">
         <v>1</v>
       </c>
-      <c r="N93" s="23">
+      <c r="N93">
         <v>2</v>
       </c>
     </row>
@@ -23969,25 +23977,25 @@
       <c r="F94" s="3">
         <v>6.14</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" t="s">
         <v>104</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J94" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K94" s="13">
-        <v>50</v>
-      </c>
-      <c r="L94" s="13">
+      <c r="J94" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K94" s="3">
+        <v>50</v>
+      </c>
+      <c r="L94" s="3">
         <v>1450</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M94" s="3">
         <v>1.82</v>
       </c>
-      <c r="N94" s="23">
+      <c r="N94">
         <v>3</v>
       </c>
     </row>
@@ -24010,25 +24018,25 @@
       <c r="F95" s="3">
         <v>7.23</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="H95" t="s">
         <v>104</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J95" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K95" s="13">
-        <v>50</v>
-      </c>
-      <c r="L95" s="13">
+      <c r="J95" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K95" s="3">
+        <v>50</v>
+      </c>
+      <c r="L95" s="3">
         <v>900</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="3">
         <v>1.37</v>
       </c>
-      <c r="N95" s="23">
+      <c r="N95">
         <v>4</v>
       </c>
     </row>
@@ -24051,25 +24059,25 @@
       <c r="F96" s="3">
         <v>3.99</v>
       </c>
-      <c r="H96" s="15" t="s">
+      <c r="H96" t="s">
         <v>104</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J96" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K96" s="13">
-        <v>50</v>
-      </c>
-      <c r="L96" s="13">
+      <c r="J96" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K96" s="3">
+        <v>50</v>
+      </c>
+      <c r="L96" s="3">
         <v>1000</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="3">
         <v>1.73</v>
       </c>
-      <c r="N96" s="23">
+      <c r="N96">
         <v>5</v>
       </c>
     </row>
@@ -24086,31 +24094,31 @@
       <c r="D97" s="4">
         <v>50</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="3">
         <v>350</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="3">
         <v>6.87</v>
       </c>
-      <c r="H97" s="15" t="s">
+      <c r="H97" t="s">
         <v>104</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J97" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K97" s="13">
-        <v>50</v>
-      </c>
-      <c r="L97" s="13">
+      <c r="J97" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K97" s="3">
+        <v>50</v>
+      </c>
+      <c r="L97" s="3">
         <v>1350</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="3">
         <v>2.52</v>
       </c>
-      <c r="N97" s="23">
+      <c r="N97">
         <v>6</v>
       </c>
     </row>
@@ -24127,31 +24135,31 @@
       <c r="D98" s="3">
         <v>25</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="3">
         <v>600</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="3">
         <v>4.7699999999999996</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" t="s">
         <v>104</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J98" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K98" s="13">
-        <v>50</v>
-      </c>
-      <c r="L98" s="13">
+      <c r="J98" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K98" s="3">
+        <v>50</v>
+      </c>
+      <c r="L98" s="3">
         <v>1000</v>
       </c>
-      <c r="M98" s="13">
+      <c r="M98" s="3">
         <v>2.02</v>
       </c>
-      <c r="N98" s="23">
+      <c r="N98">
         <v>7</v>
       </c>
     </row>
@@ -24174,25 +24182,25 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H99" t="s">
         <v>104</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J99" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K99" s="13">
-        <v>50</v>
-      </c>
-      <c r="L99" s="13">
+      <c r="J99" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K99" s="3">
+        <v>50</v>
+      </c>
+      <c r="L99" s="3">
         <v>950</v>
       </c>
-      <c r="M99" s="13">
+      <c r="M99" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N99" s="23">
+      <c r="N99">
         <v>8</v>
       </c>
     </row>
@@ -24215,25 +24223,25 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="H100" t="s">
         <v>104</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J100" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K100" s="13">
-        <v>50</v>
-      </c>
-      <c r="L100" s="13">
+      <c r="J100" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K100" s="3">
+        <v>50</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="13">
+      <c r="M100" s="3">
         <v>2.15</v>
       </c>
-      <c r="N100" s="23">
+      <c r="N100">
         <v>9</v>
       </c>
     </row>
@@ -24241,40 +24249,40 @@
       <c r="A101" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C101" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D101" s="16">
-        <v>50</v>
-      </c>
-      <c r="E101" s="13" t="s">
+      <c r="B101" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D101" s="5">
+        <v>50</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="21" t="s">
+      <c r="H101" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I101" s="22">
+      <c r="I101" s="4">
         <v>1E-4</v>
       </c>
-      <c r="J101" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K101" s="22">
-        <v>50</v>
-      </c>
-      <c r="L101" s="22">
+      <c r="J101" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K101" s="4">
+        <v>50</v>
+      </c>
+      <c r="L101" s="4">
         <v>1550</v>
       </c>
-      <c r="M101" s="22">
+      <c r="M101" s="4">
         <v>3.24</v>
       </c>
-      <c r="N101" s="21">
+      <c r="N101" s="14">
         <v>10</v>
       </c>
     </row>
@@ -24297,25 +24305,25 @@
       <c r="F102" s="3">
         <v>0.87</v>
       </c>
-      <c r="H102" s="15" t="s">
+      <c r="H102" t="s">
         <v>105</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J102" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K102" s="13">
-        <v>50</v>
-      </c>
-      <c r="L102" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M102" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N102" s="23">
+      <c r="J102" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K102" s="3">
+        <v>50</v>
+      </c>
+      <c r="L102" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" t="s">
+        <v>11</v>
+      </c>
+      <c r="N102">
         <v>1</v>
       </c>
     </row>
@@ -24338,25 +24346,25 @@
       <c r="F103" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H103" t="s">
         <v>105</v>
       </c>
-      <c r="I103" s="13">
+      <c r="I103" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J103" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K103" s="13">
-        <v>50</v>
-      </c>
-      <c r="L103" s="13">
+      <c r="J103" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K103" s="3">
+        <v>50</v>
+      </c>
+      <c r="L103" s="3">
         <v>1000</v>
       </c>
-      <c r="M103" s="13">
+      <c r="M103" s="3">
         <v>0.53</v>
       </c>
-      <c r="N103" s="23">
+      <c r="N103">
         <v>2</v>
       </c>
     </row>
@@ -24379,25 +24387,25 @@
       <c r="F104" s="3">
         <v>1.61</v>
       </c>
-      <c r="H104" s="15" t="s">
+      <c r="H104" t="s">
         <v>105</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J104" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K104" s="13">
-        <v>50</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M104" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N104" s="23">
+      <c r="J104" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K104" s="3">
+        <v>50</v>
+      </c>
+      <c r="L104" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" t="s">
+        <v>11</v>
+      </c>
+      <c r="N104">
         <v>3</v>
       </c>
     </row>
@@ -24423,25 +24431,25 @@
       <c r="G105" t="s">
         <v>73</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" t="s">
         <v>105</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J105" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K105" s="13">
-        <v>50</v>
-      </c>
-      <c r="L105" s="13">
+      <c r="J105" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K105" s="3">
+        <v>50</v>
+      </c>
+      <c r="L105" s="3">
         <v>1000</v>
       </c>
-      <c r="M105" s="13">
+      <c r="M105" s="3">
         <v>0.81</v>
       </c>
-      <c r="N105" s="23">
+      <c r="N105">
         <v>4</v>
       </c>
     </row>
@@ -24464,25 +24472,25 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="H106" t="s">
         <v>105</v>
       </c>
-      <c r="I106" s="13">
+      <c r="I106" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J106" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K106" s="13">
-        <v>50</v>
-      </c>
-      <c r="L106" s="13">
+      <c r="J106" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K106" s="3">
+        <v>50</v>
+      </c>
+      <c r="L106" s="3">
         <v>1000</v>
       </c>
-      <c r="M106" s="13">
+      <c r="M106" s="3">
         <v>0.93</v>
       </c>
-      <c r="N106" s="23">
+      <c r="N106">
         <v>5</v>
       </c>
     </row>
@@ -24505,25 +24513,25 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H107" t="s">
         <v>105</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J107" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K107" s="13">
-        <v>50</v>
-      </c>
-      <c r="L107" s="13">
+      <c r="J107" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K107" s="3">
+        <v>50</v>
+      </c>
+      <c r="L107" s="3">
         <v>1000</v>
       </c>
-      <c r="M107" s="13">
+      <c r="M107" s="3">
         <v>1.04</v>
       </c>
-      <c r="N107" s="23">
+      <c r="N107">
         <v>6</v>
       </c>
     </row>
@@ -24546,25 +24554,25 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="H108" s="15" t="s">
+      <c r="H108" t="s">
         <v>105</v>
       </c>
-      <c r="I108" s="13">
+      <c r="I108" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J108" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K108" s="13">
-        <v>50</v>
-      </c>
-      <c r="L108" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M108" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N108" s="23">
+      <c r="J108" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K108" s="3">
+        <v>50</v>
+      </c>
+      <c r="L108" t="s">
+        <v>11</v>
+      </c>
+      <c r="M108" t="s">
+        <v>11</v>
+      </c>
+      <c r="N108">
         <v>7</v>
       </c>
     </row>
@@ -24587,25 +24595,25 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="15" t="s">
+      <c r="H109" t="s">
         <v>105</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J109" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K109" s="13">
-        <v>50</v>
-      </c>
-      <c r="L109" s="13">
+      <c r="J109" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K109" s="3">
+        <v>50</v>
+      </c>
+      <c r="L109" s="3">
         <v>1000</v>
       </c>
-      <c r="M109" s="13">
+      <c r="M109" s="3">
         <v>1.78</v>
       </c>
-      <c r="N109" s="23">
+      <c r="N109">
         <v>8</v>
       </c>
     </row>
@@ -24628,25 +24636,25 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="H110" t="s">
         <v>105</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J110" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K110" s="13">
-        <v>50</v>
-      </c>
-      <c r="L110" s="13">
+      <c r="J110" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K110" s="3">
+        <v>50</v>
+      </c>
+      <c r="L110" s="3">
         <v>850</v>
       </c>
-      <c r="M110" s="13">
+      <c r="M110" s="3">
         <v>1.03</v>
       </c>
-      <c r="N110" s="23">
+      <c r="N110">
         <v>9</v>
       </c>
     </row>
@@ -24669,25 +24677,25 @@
       <c r="F111" s="3">
         <v>7.21</v>
       </c>
-      <c r="H111" s="21" t="s">
+      <c r="H111" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I111" s="22">
+      <c r="I111" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J111" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="K111" s="22">
-        <v>50</v>
-      </c>
-      <c r="L111" s="22">
+      <c r="J111" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K111" s="4">
+        <v>50</v>
+      </c>
+      <c r="L111" s="4">
         <v>1000</v>
       </c>
-      <c r="M111" s="22">
+      <c r="M111" s="4">
         <v>1.22</v>
       </c>
-      <c r="N111" s="21">
+      <c r="N111" s="14">
         <v>10</v>
       </c>
     </row>
@@ -24724,10 +24732,10 @@
       <c r="D113" s="4">
         <v>50</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="3">
         <v>300</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="3">
         <v>6.33</v>
       </c>
     </row>
@@ -24792,22 +24800,22 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+      <c r="A117" t="s">
         <v>103</v>
       </c>
-      <c r="B117" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C117" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D117" s="16">
-        <v>50</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="19" t="s">
+      <c r="B117" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D117" s="5">
+        <v>50</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -24884,10 +24892,10 @@
       <c r="D121" s="7">
         <v>50</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="13">
         <v>1000</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="13">
         <v>2.35</v>
       </c>
       <c r="G121" t="s">
@@ -25118,19 +25126,19 @@
       <c r="A133" t="s">
         <v>104</v>
       </c>
-      <c r="B133" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C133" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D133" s="16">
-        <v>50</v>
-      </c>
-      <c r="E133" s="13">
+      <c r="B133" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D133" s="5">
+        <v>50</v>
+      </c>
+      <c r="E133" s="3">
         <v>350</v>
       </c>
-      <c r="F133" s="13">
+      <c r="F133" s="3">
         <v>3.65</v>
       </c>
     </row>
@@ -25207,10 +25215,10 @@
       <c r="D137" s="7">
         <v>50</v>
       </c>
-      <c r="E137" s="14">
+      <c r="E137" s="8">
         <v>1550</v>
       </c>
-      <c r="F137" s="14">
+      <c r="F137" s="8">
         <v>3.24</v>
       </c>
       <c r="G137" t="s">
@@ -25441,13 +25449,13 @@
       <c r="A149" t="s">
         <v>105</v>
       </c>
-      <c r="B149" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C149" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D149" s="16">
+      <c r="B149" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D149" s="5">
         <v>50</v>
       </c>
       <c r="E149" t="s">
@@ -25518,22 +25526,22 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" t="s">
         <v>105</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C153" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D153" s="16">
-        <v>50</v>
-      </c>
-      <c r="E153" s="13">
+      <c r="C153" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D153" s="5">
+        <v>50</v>
+      </c>
+      <c r="E153" s="3">
         <v>900</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="3">
         <v>2.14</v>
       </c>
     </row>
@@ -25610,10 +25618,10 @@
       <c r="D157" s="7">
         <v>50</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157" s="8">
         <v>1000</v>
       </c>
-      <c r="F157" s="14">
+      <c r="F157" s="8">
         <v>1.22</v>
       </c>
       <c r="G157" t="s">
@@ -25904,22 +25912,22 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="15" t="s">
+      <c r="A172" t="s">
         <v>107</v>
       </c>
-      <c r="B172" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="C172" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D172" s="17">
-        <v>50</v>
-      </c>
-      <c r="E172" s="17">
+      <c r="B172" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D172" s="3">
+        <v>50</v>
+      </c>
+      <c r="E172" s="3">
         <v>1800</v>
       </c>
-      <c r="F172" s="17">
+      <c r="F172" s="3">
         <v>26.76</v>
       </c>
     </row>
@@ -25959,10 +25967,10 @@
       <c r="D174" s="3">
         <v>25</v>
       </c>
-      <c r="E174" s="17">
+      <c r="E174" s="3">
         <v>350</v>
       </c>
-      <c r="F174" s="17">
+      <c r="F174" s="3">
         <v>27.06</v>
       </c>
     </row>
@@ -25979,10 +25987,10 @@
       <c r="D175" s="3">
         <v>25</v>
       </c>
-      <c r="E175" s="17">
+      <c r="E175" s="3">
         <v>250</v>
       </c>
-      <c r="F175" s="17">
+      <c r="F175" s="3">
         <v>28.41</v>
       </c>
     </row>
@@ -25999,10 +26007,10 @@
       <c r="D176" s="3">
         <v>50</v>
       </c>
-      <c r="E176" s="17">
+      <c r="E176" s="3">
         <v>300</v>
       </c>
-      <c r="F176" s="17">
+      <c r="F176" s="3">
         <v>24.46</v>
       </c>
     </row>
@@ -26019,10 +26027,10 @@
       <c r="D177" s="4">
         <v>50</v>
       </c>
-      <c r="E177" s="17">
+      <c r="E177" s="3">
         <v>250</v>
       </c>
-      <c r="F177" s="17">
+      <c r="F177" s="3">
         <v>28.32</v>
       </c>
     </row>
@@ -26039,10 +26047,10 @@
       <c r="D178" s="3">
         <v>25</v>
       </c>
-      <c r="E178" s="17">
+      <c r="E178" s="3">
         <v>1925</v>
       </c>
-      <c r="F178" s="17">
+      <c r="F178" s="3">
         <v>28.94</v>
       </c>
     </row>
@@ -26059,10 +26067,10 @@
       <c r="D179" s="3">
         <v>25</v>
       </c>
-      <c r="E179" s="17">
+      <c r="E179" s="3">
         <v>1300</v>
       </c>
-      <c r="F179" s="17">
+      <c r="F179" s="3">
         <v>29.34</v>
       </c>
     </row>
@@ -26070,19 +26078,19 @@
       <c r="A180" t="s">
         <v>108</v>
       </c>
-      <c r="B180" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="C180" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D180" s="17">
-        <v>50</v>
-      </c>
-      <c r="E180" s="17">
+      <c r="B180" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D180" s="3">
+        <v>50</v>
+      </c>
+      <c r="E180" s="3">
         <v>1900</v>
       </c>
-      <c r="F180" s="17">
+      <c r="F180" s="3">
         <v>28.89</v>
       </c>
     </row>
@@ -26115,6 +26123,2232 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C96F8A3-E2A3-D44C-B397-5F57A81F9889}">
+  <dimension ref="A1:O65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="N24" sqref="H24:N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="14" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="19">
+        <v>50</v>
+      </c>
+      <c r="L2" s="19">
+        <v>850</v>
+      </c>
+      <c r="M2" s="19">
+        <v>1.27</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="19">
+        <v>50</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="17">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="19">
+        <v>50</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="17">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="19">
+        <v>50</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>50</v>
+      </c>
+      <c r="L6" s="19">
+        <v>650</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3.88</v>
+      </c>
+      <c r="N6" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>50</v>
+      </c>
+      <c r="L7" s="8">
+        <v>750</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5.01</v>
+      </c>
+      <c r="N7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="19">
+        <v>50</v>
+      </c>
+      <c r="L8" s="19">
+        <v>700</v>
+      </c>
+      <c r="M8" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N8" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" s="16">
+        <v>200</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4.33</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="19">
+        <v>50</v>
+      </c>
+      <c r="L9" s="19">
+        <v>400</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3.24</v>
+      </c>
+      <c r="N9" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>550</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="19">
+        <v>50</v>
+      </c>
+      <c r="L10" s="19">
+        <v>850</v>
+      </c>
+      <c r="M10" s="19">
+        <v>6.98</v>
+      </c>
+      <c r="N10" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="23">
+        <v>50</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1150</v>
+      </c>
+      <c r="M11" s="23">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="N11" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1150</v>
+      </c>
+      <c r="F12" s="8">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="19">
+        <v>25</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="18">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>25</v>
+      </c>
+      <c r="L13" s="20">
+        <v>2300</v>
+      </c>
+      <c r="M13" s="20">
+        <v>23.22</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>125</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9.65</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="19">
+        <v>25</v>
+      </c>
+      <c r="L14" s="16">
+        <v>875</v>
+      </c>
+      <c r="M14" s="16">
+        <v>13.12</v>
+      </c>
+      <c r="N14" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="19">
+        <v>25</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="19">
+        <v>25</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1475</v>
+      </c>
+      <c r="M16" s="16">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="N16" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="19">
+        <v>25</v>
+      </c>
+      <c r="L17" s="16">
+        <v>850</v>
+      </c>
+      <c r="M17" s="16">
+        <v>12.82</v>
+      </c>
+      <c r="N17" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1850</v>
+      </c>
+      <c r="F18" s="8">
+        <v>22.31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="19">
+        <v>25</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1875</v>
+      </c>
+      <c r="M18" s="16">
+        <v>22.49</v>
+      </c>
+      <c r="N18" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="19">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19">
+        <v>850</v>
+      </c>
+      <c r="F19" s="19">
+        <v>19.37</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="19">
+        <v>25</v>
+      </c>
+      <c r="L19" s="16">
+        <v>975</v>
+      </c>
+      <c r="M19" s="16">
+        <v>14.46</v>
+      </c>
+      <c r="N19" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17.23</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="19">
+        <v>25</v>
+      </c>
+      <c r="L20" s="16">
+        <v>850</v>
+      </c>
+      <c r="M20" s="16">
+        <v>12.85</v>
+      </c>
+      <c r="N20" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="23">
+        <v>25</v>
+      </c>
+      <c r="L21" s="23">
+        <v>1850</v>
+      </c>
+      <c r="M21" s="23">
+        <v>22.31</v>
+      </c>
+      <c r="N21" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="16">
+        <v>50</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="19">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="16">
+        <v>50</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="19">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="16">
+        <v>50</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="19">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="20">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="20">
+        <v>50</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="16">
+        <v>50</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3">
+        <v>125</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="16">
+        <v>50</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="N27" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="16">
+        <v>50</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="16">
+        <v>50</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="16">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="16">
+        <v>50</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>275</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="23">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J31" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="23">
+        <v>50</v>
+      </c>
+      <c r="L31" s="23">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="N31" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="16">
+        <v>50</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1150</v>
+      </c>
+      <c r="M32" s="16">
+        <v>3.37</v>
+      </c>
+      <c r="N32" s="19">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="5">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="16">
+        <v>50</v>
+      </c>
+      <c r="L33" s="16">
+        <v>2700</v>
+      </c>
+      <c r="M33" s="16">
+        <v>12.22</v>
+      </c>
+      <c r="N33" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J34" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="K34" s="20">
+        <v>50</v>
+      </c>
+      <c r="L34" s="20">
+        <v>1900</v>
+      </c>
+      <c r="M34" s="20">
+        <v>12.94</v>
+      </c>
+      <c r="N34" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="16">
+        <v>50</v>
+      </c>
+      <c r="L35" s="16">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="16">
+        <v>15.92</v>
+      </c>
+      <c r="N35" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="16">
+        <v>50</v>
+      </c>
+      <c r="L36" s="16">
+        <v>1300</v>
+      </c>
+      <c r="M36" s="16">
+        <v>12.89</v>
+      </c>
+      <c r="N36" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="18">
+        <v>50</v>
+      </c>
+      <c r="E37" s="16">
+        <v>900</v>
+      </c>
+      <c r="F37" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="16">
+        <v>50</v>
+      </c>
+      <c r="L37" s="16">
+        <v>1850</v>
+      </c>
+      <c r="M37" s="16">
+        <v>17.86</v>
+      </c>
+      <c r="N37" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="16">
+        <v>50</v>
+      </c>
+      <c r="L38" s="16">
+        <v>1350</v>
+      </c>
+      <c r="M38" s="16">
+        <v>15.02</v>
+      </c>
+      <c r="N38" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3">
+        <v>525</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="16">
+        <v>50</v>
+      </c>
+      <c r="L39" s="16">
+        <v>1400</v>
+      </c>
+      <c r="M39" s="16">
+        <v>16.07</v>
+      </c>
+      <c r="N39" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3">
+        <v>950</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K40" s="16">
+        <v>50</v>
+      </c>
+      <c r="L40" s="16">
+        <v>1450</v>
+      </c>
+      <c r="M40" s="16">
+        <v>17.18</v>
+      </c>
+      <c r="N40" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="7">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="7">
+        <v>50</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="K41" s="23">
+        <v>50</v>
+      </c>
+      <c r="L41" s="23">
+        <v>2000</v>
+      </c>
+      <c r="M41" s="23">
+        <v>22.08</v>
+      </c>
+      <c r="N41" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="4">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3">
+        <v>575</v>
+      </c>
+      <c r="F50" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3">
+        <v>400</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="8">
+        <v>50</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="8">
+        <v>10.27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="5">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3">
+        <v>125</v>
+      </c>
+      <c r="F55" s="3">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>25</v>
+      </c>
+      <c r="E58" s="3">
+        <v>650</v>
+      </c>
+      <c r="F58" s="3">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="3">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3">
+        <v>575</v>
+      </c>
+      <c r="F59" s="3">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="19">
+        <v>50</v>
+      </c>
+      <c r="E60" s="19">
+        <v>900</v>
+      </c>
+      <c r="F60" s="19">
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="4">
+        <v>50</v>
+      </c>
+      <c r="E61" s="16">
+        <v>900</v>
+      </c>
+      <c r="F61" s="16">
+        <v>20.51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>25</v>
+      </c>
+      <c r="E62" s="16">
+        <v>1600</v>
+      </c>
+      <c r="F62" s="16">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>25</v>
+      </c>
+      <c r="E63" s="16">
+        <v>1350</v>
+      </c>
+      <c r="F63" s="16">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C64" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="19">
+        <v>50</v>
+      </c>
+      <c r="E64" s="16">
+        <v>900</v>
+      </c>
+      <c r="F64" s="16">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="9">
+        <v>50</v>
+      </c>
+      <c r="E65" s="20">
+        <v>2000</v>
+      </c>
+      <c r="F65" s="20">
+        <v>22.08</v>
+      </c>
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9E8FAE-9D3F-EB45-A4F2-3DB3FD7677F4}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -26769,7 +29003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F100F66-9910-BB4F-B314-AD0619FF0014}">
   <dimension ref="A1:N823"/>
   <sheetViews>
@@ -44214,7 +46448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB484E-3818-5645-B1B5-5A409D44CC36}">
   <dimension ref="A1:N855"/>
   <sheetViews>
@@ -59194,7 +61428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD63B63-4DC9-FB44-8946-4E1BF9F6D1A8}">
   <dimension ref="A1:F654"/>
   <sheetViews>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45AF19-123E-5E4B-8542-AAFD7784804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE543E-9C19-8F49-BB21-9392F694BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="560" windowWidth="11700" windowHeight="16380" firstSheet="1" activeTab="2" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="18740" yWindow="560" windowWidth="10000" windowHeight="16380" firstSheet="3" activeTab="4" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="crt.v.drt.yr1.final" sheetId="12" r:id="rId1"/>
     <sheet name="crt.v.drt.otl.rm.MAP.DSI" sheetId="14" r:id="rId2"/>
     <sheet name="crt.v.drt.otl.rm.DSI" sheetId="15" r:id="rId3"/>
     <sheet name="crt.v.drt.otl.rm.response" sheetId="13" r:id="rId4"/>
+    <sheet name="correct.traits" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="52">
   <si>
     <t>model</t>
   </si>
@@ -184,6 +185,18 @@
   <si>
     <t>tc = 1, with 2-10 loop</t>
   </si>
+  <si>
+    <t>tc = 2, cycle through 4</t>
+  </si>
+  <si>
+    <t>cycle 2:10</t>
+  </si>
+  <si>
+    <t>cycle 1:10</t>
+  </si>
+  <si>
+    <t>had to use tc = 2 to generate at least 1000 trees in final model</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,20 +302,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6816,7 +6820,7 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="3">
         <v>1E-4</v>
       </c>
       <c r="J2" s="3">
@@ -6860,7 +6864,7 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="3">
         <v>1E-4</v>
       </c>
       <c r="J3" s="3">
@@ -6901,7 +6905,7 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="3">
         <v>1E-4</v>
       </c>
       <c r="J4" s="3">
@@ -6980,25 +6984,25 @@
       <c r="F6" s="3">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="14">
-        <v>50</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3">
         <v>1000</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="3">
         <v>1.28</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6">
         <v>5</v>
       </c>
     </row>
@@ -7021,25 +7025,25 @@
       <c r="F7" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="14">
-        <v>50</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="J7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>50</v>
+      </c>
+      <c r="L7" s="3">
         <v>1000</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="3">
         <v>1.45</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7">
         <v>6</v>
       </c>
     </row>
@@ -7062,25 +7066,25 @@
       <c r="F8" s="3">
         <v>7.23</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J8" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="14">
-        <v>50</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="3">
         <v>1.59</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8">
         <v>7</v>
       </c>
     </row>
@@ -7103,25 +7107,25 @@
       <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J9" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="14">
-        <v>50</v>
-      </c>
-      <c r="L9" s="14">
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="3">
         <v>1.72</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9">
         <v>8</v>
       </c>
     </row>
@@ -7144,25 +7148,25 @@
       <c r="F10" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J10" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="14">
-        <v>50</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="J10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="3">
         <v>1.84</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10">
         <v>9</v>
       </c>
     </row>
@@ -7185,25 +7189,25 @@
       <c r="F11" s="3">
         <v>5.38</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J11" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="17">
-        <v>50</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="J11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>50</v>
+      </c>
+      <c r="L11" s="3">
         <v>1000</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="3">
         <v>1.95</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="11">
         <v>10</v>
       </c>
     </row>
@@ -7211,19 +7215,19 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="14">
-        <v>50</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
         <v>350</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="3">
         <v>3.36</v>
       </c>
       <c r="H12" t="s">
@@ -7238,10 +7242,10 @@
       <c r="K12" s="3">
         <v>50</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="3">
         <v>13.22</v>
       </c>
       <c r="N12" s="3">
@@ -7264,10 +7268,10 @@
       <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="3">
         <v>250</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="3">
         <v>2.81</v>
       </c>
       <c r="H13" t="s">
@@ -7416,22 +7420,22 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="16">
-        <v>50</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="C17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="3">
         <v>0.93</v>
       </c>
       <c r="H17" t="s">
@@ -7601,22 +7605,22 @@
       <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="14">
-        <v>50</v>
-      </c>
-      <c r="L21" s="14">
+      <c r="I21" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>50</v>
+      </c>
+      <c r="L21" s="3">
         <v>1050</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="3">
         <v>15.32</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="4">
         <v>10</v>
       </c>
     </row>
@@ -7624,19 +7628,19 @@
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="14">
-        <v>25</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="B22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H22" t="s">
@@ -7759,10 +7763,10 @@
       <c r="D25" s="4">
         <v>50</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="3">
         <v>500</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="3">
         <v>12.96</v>
       </c>
       <c r="H25" t="s">
@@ -8014,22 +8018,22 @@
       <c r="H31" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J31" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="17">
-        <v>50</v>
-      </c>
-      <c r="L31" s="14">
+      <c r="J31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="4">
+        <v>50</v>
+      </c>
+      <c r="L31" s="3">
         <v>1000</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="4">
         <v>10</v>
       </c>
     </row>
@@ -8231,10 +8235,10 @@
       <c r="D37" s="5">
         <v>50</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="3">
         <v>250</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="3">
         <v>3.12</v>
       </c>
       <c r="H37" t="s">
@@ -8379,10 +8383,10 @@
       <c r="D41" s="5">
         <v>50</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="3">
         <v>850</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="3">
         <v>2.12</v>
       </c>
       <c r="H41" t="s">
@@ -8416,10 +8420,10 @@
       <c r="D42" s="3">
         <v>25</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="3">
         <v>125</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="3">
         <v>11.81</v>
       </c>
       <c r="H42" t="s">
@@ -8681,10 +8685,10 @@
       <c r="D49" s="4">
         <v>50</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="3">
         <v>6.11</v>
       </c>
       <c r="H49" t="s">
@@ -9003,22 +9007,22 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
+      <c r="A63" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C63" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D63" s="14">
-        <v>25</v>
-      </c>
-      <c r="E63" s="14">
+      <c r="B63" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3">
         <v>625</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="3">
         <v>8.86</v>
       </c>
     </row>
@@ -9071,7 +9075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D0EF22-F7D5-3042-A220-904A7DCAAEA8}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -9137,7 +9141,7 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="3">
         <v>1E-4</v>
       </c>
       <c r="J2" s="3">
@@ -9181,7 +9185,7 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="3">
         <v>1E-4</v>
       </c>
       <c r="J3" s="3">
@@ -9222,7 +9226,7 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="3">
         <v>1E-4</v>
       </c>
       <c r="J4" s="3">
@@ -9260,25 +9264,25 @@
       <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="14">
-        <v>50</v>
-      </c>
-      <c r="L5" s="14">
+      <c r="J5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3">
         <v>750</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="3">
         <v>0.8</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5">
         <v>4</v>
       </c>
     </row>
@@ -9301,25 +9305,25 @@
       <c r="F6" s="3">
         <v>6.27</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="14">
-        <v>50</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3">
         <v>950</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6">
         <v>5</v>
       </c>
     </row>
@@ -9386,25 +9390,25 @@
       <c r="F8" s="3">
         <v>4.3899999999999997</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J8" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="14">
-        <v>50</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="3">
         <v>1.51</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8">
         <v>7</v>
       </c>
     </row>
@@ -9427,25 +9431,25 @@
       <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J9" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="14">
-        <v>50</v>
-      </c>
-      <c r="L9" s="14">
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="3">
         <v>1.64</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9">
         <v>8</v>
       </c>
     </row>
@@ -9468,25 +9472,25 @@
       <c r="F10" s="3">
         <v>5.37</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J10" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="14">
-        <v>50</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="J10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3">
         <v>950</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="3">
         <v>1.66</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10">
         <v>9</v>
       </c>
     </row>
@@ -9509,25 +9513,25 @@
       <c r="F11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="3">
         <v>1E-4</v>
       </c>
-      <c r="J11" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="17">
-        <v>50</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="J11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>50</v>
+      </c>
+      <c r="L11" s="3">
         <v>1000</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="3">
         <v>1.84</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="11">
         <v>10</v>
       </c>
     </row>
@@ -9535,13 +9539,13 @@
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
         <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -9597,13 +9601,13 @@
       <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="3">
         <v>1E-3</v>
       </c>
       <c r="J13" s="3">
         <v>0.5</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="3">
         <v>25</v>
       </c>
       <c r="L13" s="3">
@@ -9638,13 +9642,13 @@
       <c r="H14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="3">
         <v>1E-3</v>
       </c>
       <c r="J14" s="3">
         <v>0.5</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="3">
         <v>25</v>
       </c>
       <c r="L14" s="3">
@@ -9676,21 +9680,21 @@
       <c r="F15" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="14">
-        <v>25</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15">
+      <c r="I15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>25</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15">
         <v>4</v>
       </c>
     </row>
@@ -9716,55 +9720,55 @@
       <c r="H16" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="14">
-        <v>25</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15">
+      <c r="I16" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>25</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="16">
-        <v>50</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="14">
-        <v>25</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15">
+      <c r="I17" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17">
         <v>6</v>
       </c>
     </row>
@@ -9781,27 +9785,27 @@
       <c r="D18" s="3">
         <v>25</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="14">
-        <v>25</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15">
+      <c r="I18" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>25</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18">
         <v>7</v>
       </c>
     </row>
@@ -9818,27 +9822,27 @@
       <c r="D19" s="3">
         <v>25</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="14">
-        <v>25</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15">
+      <c r="I19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19">
         <v>8</v>
       </c>
     </row>
@@ -9855,27 +9859,27 @@
       <c r="D20" s="3">
         <v>50</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="14">
-        <v>25</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15">
+      <c r="I20" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>25</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20">
         <v>9</v>
       </c>
     </row>
@@ -9892,27 +9896,27 @@
       <c r="D21" s="4">
         <v>50</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="14">
-        <v>25</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="18">
+      <c r="I21" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>25</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="11">
         <v>10</v>
       </c>
     </row>
@@ -9938,10 +9942,10 @@
       <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="3">
         <v>0.5</v>
       </c>
       <c r="K22" s="3">
@@ -9999,31 +10003,31 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="14">
-        <v>50</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="B24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3">
         <v>750</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="3">
         <v>11.3</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="3">
         <v>0.5</v>
       </c>
       <c r="K24" s="3">
@@ -10052,22 +10056,22 @@
       <c r="D25" s="4">
         <v>50</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J25" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="14">
+      <c r="J25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="3">
         <v>50</v>
       </c>
       <c r="L25" t="s">
@@ -10076,7 +10080,7 @@
       <c r="M25" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25">
         <v>4</v>
       </c>
     </row>
@@ -10093,31 +10097,31 @@
       <c r="D26" s="3">
         <v>25</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J26" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="14">
-        <v>50</v>
-      </c>
-      <c r="L26" s="14">
+      <c r="J26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>50</v>
+      </c>
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="3">
         <v>0.69</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26">
         <v>5</v>
       </c>
     </row>
@@ -10134,19 +10138,19 @@
       <c r="D27" s="3">
         <v>25</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="3">
         <v>0.5</v>
       </c>
       <c r="K27" s="8">
@@ -10158,7 +10162,7 @@
       <c r="M27">
         <v>0.78</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27">
         <v>6</v>
       </c>
     </row>
@@ -10175,25 +10179,25 @@
       <c r="D28" s="3">
         <v>50</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J28" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="14">
-        <v>50</v>
-      </c>
-      <c r="N28" s="15">
+      <c r="J28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>50</v>
+      </c>
+      <c r="N28">
         <v>7</v>
       </c>
     </row>
@@ -10210,25 +10214,25 @@
       <c r="D29" s="4">
         <v>50</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J29" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="14">
-        <v>50</v>
-      </c>
-      <c r="N29" s="15">
+      <c r="J29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>50</v>
+      </c>
+      <c r="N29">
         <v>8</v>
       </c>
     </row>
@@ -10254,16 +10258,16 @@
       <c r="H30" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J30" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="14">
-        <v>50</v>
-      </c>
-      <c r="N30" s="15">
+      <c r="J30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>50</v>
+      </c>
+      <c r="N30">
         <v>9</v>
       </c>
     </row>
@@ -10280,25 +10284,25 @@
       <c r="D31" s="3">
         <v>25</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J31" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="17">
-        <v>50</v>
-      </c>
-      <c r="N31" s="18">
+      <c r="J31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="4">
+        <v>50</v>
+      </c>
+      <c r="N31" s="11">
         <v>10</v>
       </c>
     </row>
@@ -10315,10 +10319,10 @@
       <c r="D32" s="3">
         <v>50</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H32" t="s">
@@ -10327,7 +10331,7 @@
       <c r="I32" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="3">
         <v>0.75</v>
       </c>
       <c r="K32" s="3">
@@ -10356,10 +10360,10 @@
       <c r="D33" s="4">
         <v>50</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H33" t="s">
@@ -10368,7 +10372,7 @@
       <c r="I33" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="3">
         <v>0.75</v>
       </c>
       <c r="K33" s="3">
@@ -10397,10 +10401,10 @@
       <c r="D34" s="3">
         <v>25</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H34" t="s">
@@ -10409,7 +10413,7 @@
       <c r="I34" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="3">
         <v>0.75</v>
       </c>
       <c r="K34" s="3">
@@ -10438,10 +10442,10 @@
       <c r="D35" s="3">
         <v>25</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H35" t="s">
@@ -10450,7 +10454,7 @@
       <c r="I35" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="3">
         <v>0.75</v>
       </c>
       <c r="K35" s="3">
@@ -10462,7 +10466,7 @@
       <c r="M35" s="3">
         <v>8.06</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35">
         <v>4</v>
       </c>
     </row>
@@ -10479,10 +10483,10 @@
       <c r="D36" s="3">
         <v>50</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H36" t="s">
@@ -10491,15 +10495,15 @@
       <c r="I36" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="3">
         <v>0.75</v>
       </c>
       <c r="K36" s="3">
         <v>25</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="15">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36">
         <v>5</v>
       </c>
     </row>
@@ -10516,10 +10520,10 @@
       <c r="D37" s="5">
         <v>50</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H37" t="s">
@@ -10528,13 +10532,13 @@
       <c r="I37" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="3">
         <v>0.75</v>
       </c>
       <c r="K37" s="3">
         <v>25</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37">
         <v>6</v>
       </c>
     </row>
@@ -10551,10 +10555,10 @@
       <c r="D38" s="3">
         <v>25</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H38" t="s">
@@ -10563,13 +10567,13 @@
       <c r="I38" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="3">
         <v>0.75</v>
       </c>
       <c r="K38" s="3">
         <v>25</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38">
         <v>7</v>
       </c>
     </row>
@@ -10598,13 +10602,13 @@
       <c r="I39" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="3">
         <v>0.75</v>
       </c>
       <c r="K39" s="3">
         <v>25</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39">
         <v>8</v>
       </c>
     </row>
@@ -10621,10 +10625,10 @@
       <c r="D40" s="3">
         <v>50</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H40" t="s">
@@ -10633,33 +10637,33 @@
       <c r="I40" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="3">
         <v>0.75</v>
       </c>
       <c r="K40" s="3">
         <v>25</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C41" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="16">
-        <v>50</v>
-      </c>
-      <c r="E41" s="13">
+      <c r="C41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="5">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3">
         <v>950</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="3">
         <v>2.25</v>
       </c>
       <c r="H41" t="s">
@@ -10668,13 +10672,13 @@
       <c r="I41" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="3">
         <v>0.75</v>
       </c>
       <c r="K41" s="3">
         <v>25</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="11">
         <v>10</v>
       </c>
     </row>
@@ -10742,19 +10746,19 @@
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="5">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C45" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D45" s="16">
-        <v>50</v>
-      </c>
-      <c r="E45" s="14">
+      <c r="C45" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="3">
         <v>0.37</v>
       </c>
     </row>
@@ -10762,13 +10766,13 @@
       <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C46" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="14">
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
         <v>25</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -10782,13 +10786,13 @@
       <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C47" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
         <v>25</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -10802,19 +10806,19 @@
       <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C48" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="14">
-        <v>50</v>
-      </c>
-      <c r="E48" s="14">
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -10822,13 +10826,13 @@
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C49" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="C49" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="5">
         <v>50</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -10851,10 +10855,10 @@
       <c r="D50" s="3">
         <v>25</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="3">
         <v>150</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="3">
         <v>13.45</v>
       </c>
     </row>
@@ -10991,10 +10995,10 @@
       <c r="D57" s="4">
         <v>50</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="3">
         <v>350</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="3">
         <v>9.6199999999999992</v>
       </c>
     </row>
@@ -11042,22 +11046,22 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C60" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="14">
-        <v>50</v>
-      </c>
-      <c r="E60" s="14">
+      <c r="B60" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>50</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="3">
         <v>7.22</v>
       </c>
     </row>
@@ -11308,19 +11312,19 @@
       <c r="A73" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C73" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="D73" s="17">
-        <v>50</v>
-      </c>
-      <c r="E73" s="14">
+      <c r="B73" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="4">
+        <v>50</v>
+      </c>
+      <c r="E73" s="3">
         <v>1050</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="3">
         <v>13.52</v>
       </c>
     </row>
@@ -11333,8 +11337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C96F8A3-E2A3-D44C-B397-5F57A81F9889}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13546,4 +13550,2131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD29FC8-E06E-2C42-BBA9-8E3993B10234}">
+  <dimension ref="A1:P69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="3">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="3">
+        <v>50</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="8">
+        <v>50</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="3">
+        <v>50</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>375</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="3">
+        <v>50</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>350</v>
+      </c>
+      <c r="F7">
+        <v>7.13</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="3">
+        <v>50</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="3">
+        <v>50</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>350</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.21</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="3">
+        <v>50</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>775</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.71</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="3">
+        <v>50</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>975</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="4">
+        <v>50</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>650</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>50</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1600</v>
+      </c>
+      <c r="N12" s="8">
+        <v>11.57</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="5">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>500</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>50</v>
+      </c>
+      <c r="M13" s="3">
+        <v>500</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7.21</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>525</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>50</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N14" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>525</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>50</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>14.37</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N16" s="3">
+        <v>20.85</v>
+      </c>
+      <c r="O16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>50</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1150</v>
+      </c>
+      <c r="N17" s="3">
+        <v>15.62</v>
+      </c>
+      <c r="O17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>400</v>
+      </c>
+      <c r="F18">
+        <v>21.89</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>50</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>17.54</v>
+      </c>
+      <c r="O18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>17.62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3">
+        <v>550</v>
+      </c>
+      <c r="N19" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>14.21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>50</v>
+      </c>
+      <c r="M20" s="3">
+        <v>900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>13.16</v>
+      </c>
+      <c r="O20" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>50</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1900</v>
+      </c>
+      <c r="N21" s="4">
+        <v>21.46</v>
+      </c>
+      <c r="O21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1075</v>
+      </c>
+      <c r="F22" s="3">
+        <v>14.87</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>825</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18.55</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1900</v>
+      </c>
+      <c r="F24" s="8">
+        <v>21.46</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>550</v>
+      </c>
+      <c r="F25">
+        <v>13.84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="3">
+        <v>50</v>
+      </c>
+      <c r="M25" s="3">
+        <v>250</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="O25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>50</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="8">
+        <v>50</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="O27" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="3">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <v>0.85</v>
+      </c>
+      <c r="O28" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>0.89</v>
+      </c>
+      <c r="O29" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3">
+        <v>125</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>50</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="O30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>50</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="O31" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>450</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="5">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3">
+        <v>450</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3">
+        <v>525</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3">
+        <v>425</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="5">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="8">
+        <v>50</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3">
+        <v>125</v>
+      </c>
+      <c r="F46" s="3">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="4">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3">
+        <v>625</v>
+      </c>
+      <c r="F50" s="3">
+        <v>11.15</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3">
+        <v>200</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3">
+        <v>650</v>
+      </c>
+      <c r="F52" s="3">
+        <v>11.51</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="4">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>25</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1025</v>
+      </c>
+      <c r="F54" s="3">
+        <v>9.73</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3">
+        <v>550</v>
+      </c>
+      <c r="F55" s="3">
+        <v>7.71</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>50</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F56" s="8">
+        <v>10.86</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="5">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>25</v>
+      </c>
+      <c r="E58" s="3">
+        <v>175</v>
+      </c>
+      <c r="F58" s="3">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="3">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>50</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="4">
+        <v>50</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>25</v>
+      </c>
+      <c r="E62" s="3">
+        <v>850</v>
+      </c>
+      <c r="F62" s="3">
+        <v>14.73</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3">
+        <v>675</v>
+      </c>
+      <c r="F63" s="3">
+        <v>15.89</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50</v>
+      </c>
+      <c r="E64" s="3">
+        <v>850</v>
+      </c>
+      <c r="F64" s="3">
+        <v>14.34</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="4">
+        <v>50</v>
+      </c>
+      <c r="E65" s="3">
+        <v>500</v>
+      </c>
+      <c r="F65" s="3">
+        <v>12.66</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1325</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11.83</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="3">
+        <v>25</v>
+      </c>
+      <c r="E67" s="3">
+        <v>800</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10.51</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="15">
+        <v>50</v>
+      </c>
+      <c r="E68" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F68" s="15">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="9">
+        <v>50</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1150</v>
+      </c>
+      <c r="F69" s="8">
+        <v>14.16</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE543E-9C19-8F49-BB21-9392F694BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E08E673-4108-E241-BA55-B7B76A6D46E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18740" yWindow="560" windowWidth="10000" windowHeight="16380" firstSheet="3" activeTab="4" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="19120" yWindow="560" windowWidth="11580" windowHeight="16380" firstSheet="5" activeTab="5" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="crt.v.drt.yr1.final" sheetId="12" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="crt.v.drt.otl.rm.DSI" sheetId="15" r:id="rId3"/>
     <sheet name="crt.v.drt.otl.rm.response" sheetId="13" r:id="rId4"/>
     <sheet name="correct.traits" sheetId="16" r:id="rId5"/>
+    <sheet name="correct.traits.2" sheetId="17" r:id="rId6"/>
+    <sheet name="correc.traits.2.map.dsi" sheetId="18" r:id="rId7"/>
+    <sheet name="correct.traits.2.dsi" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="54">
   <si>
     <t>model</t>
   </si>
@@ -197,6 +200,12 @@
   <si>
     <t>had to use tc = 2 to generate at least 1000 trees in final model</t>
   </si>
+  <si>
+    <t>cycle 2:9</t>
+  </si>
+  <si>
+    <t>T.C.</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,11 +311,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11337,7 +11359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C96F8A3-E2A3-D44C-B397-5F57A81F9889}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:O31"/>
     </sheetView>
   </sheetViews>
@@ -13556,8 +13578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD29FC8-E06E-2C42-BBA9-8E3993B10234}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15541,7 +15563,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="3">
@@ -15629,22 +15651,22 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C68" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="15">
-        <v>50</v>
-      </c>
-      <c r="E68" s="15">
+      <c r="B68" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>50</v>
+      </c>
+      <c r="E68" s="3">
         <v>1500</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="3">
         <v>13.04</v>
       </c>
     </row>
@@ -15673,6 +15695,5436 @@
       <c r="H69" s="8" t="s">
         <v>11</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB26E21-FD12-0B47-B6B7-59A809752B30}">
+  <dimension ref="A1:P77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28:Q30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="10.83203125" style="14"/>
+    <col min="8" max="13" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>25</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="15">
+        <v>50</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="15">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="15">
+        <v>50</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="15">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="8">
+        <v>50</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="16">
+        <v>50</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="15">
+        <v>50</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="15">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>150</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2.76</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="15">
+        <v>50</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1.37</v>
+      </c>
+      <c r="N6" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="15">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15">
+        <v>200</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4.32</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="15">
+        <v>50</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1.58</v>
+      </c>
+      <c r="N7" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15">
+        <v>350</v>
+      </c>
+      <c r="F8" s="15">
+        <v>6.02</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="15">
+        <v>50</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1.77</v>
+      </c>
+      <c r="N8" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="16">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15">
+        <v>400</v>
+      </c>
+      <c r="F9" s="15">
+        <v>7.88</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="15">
+        <v>50</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1.94</v>
+      </c>
+      <c r="N9" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15">
+        <v>625</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="15">
+        <v>50</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="15">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="N10" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="15">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15">
+        <v>500</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5.26</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="16">
+        <v>50</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2.17</v>
+      </c>
+      <c r="N11" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>50</v>
+      </c>
+      <c r="E12" s="15">
+        <v>850</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7.18</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="15">
+        <v>50</v>
+      </c>
+      <c r="L12" s="15">
+        <v>750</v>
+      </c>
+      <c r="M12" s="15">
+        <v>6.64</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="17">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15">
+        <v>800</v>
+      </c>
+      <c r="F13" s="15">
+        <v>7.96</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="15">
+        <v>50</v>
+      </c>
+      <c r="L13" s="15">
+        <v>500</v>
+      </c>
+      <c r="M13" s="15">
+        <v>7.34</v>
+      </c>
+      <c r="N13" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="15">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15">
+        <v>525</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="8">
+        <v>50</v>
+      </c>
+      <c r="L14" s="8">
+        <v>2150</v>
+      </c>
+      <c r="M14" s="8">
+        <v>23</v>
+      </c>
+      <c r="N14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="15">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15">
+        <v>525</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1.18</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="15">
+        <v>50</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1300</v>
+      </c>
+      <c r="M15" s="15">
+        <v>16.71</v>
+      </c>
+      <c r="N15" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>50</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1.86</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="15">
+        <v>50</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1200</v>
+      </c>
+      <c r="M16" s="15">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="N16" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="15">
+        <v>50</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1050</v>
+      </c>
+      <c r="M17" s="15">
+        <v>14.37</v>
+      </c>
+      <c r="N17" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>25</v>
+      </c>
+      <c r="E18" s="15">
+        <v>300</v>
+      </c>
+      <c r="F18" s="15">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="15">
+        <v>50</v>
+      </c>
+      <c r="L18" s="15">
+        <v>950</v>
+      </c>
+      <c r="M18" s="15">
+        <v>13.71</v>
+      </c>
+      <c r="N18" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="15">
+        <v>25</v>
+      </c>
+      <c r="E19" s="15">
+        <v>200</v>
+      </c>
+      <c r="F19" s="15">
+        <v>21.62</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="15">
+        <v>50</v>
+      </c>
+      <c r="L19" s="15">
+        <v>750</v>
+      </c>
+      <c r="M19" s="15">
+        <v>11.66</v>
+      </c>
+      <c r="N19" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="15">
+        <v>50</v>
+      </c>
+      <c r="E20" s="15">
+        <v>400</v>
+      </c>
+      <c r="F20" s="15">
+        <v>22.67</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="15">
+        <v>50</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1150</v>
+      </c>
+      <c r="M20" s="15">
+        <v>15.89</v>
+      </c>
+      <c r="N20" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="16">
+        <v>50</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="15">
+        <v>50</v>
+      </c>
+      <c r="L21" s="16">
+        <v>2050</v>
+      </c>
+      <c r="M21" s="16">
+        <v>22.54</v>
+      </c>
+      <c r="N21" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>25</v>
+      </c>
+      <c r="E22" s="15">
+        <v>300</v>
+      </c>
+      <c r="F22" s="15">
+        <v>13.11</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="15">
+        <v>50</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="15">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="15">
+        <v>50</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2050</v>
+      </c>
+      <c r="F24" s="8">
+        <v>22.54</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="15">
+        <v>50</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="16">
+        <v>50</v>
+      </c>
+      <c r="E25" s="18">
+        <v>300</v>
+      </c>
+      <c r="F25" s="18">
+        <v>8.06</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="15">
+        <v>50</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="15">
+        <v>50</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="15">
+        <v>25</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="15">
+        <v>50</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="15">
+        <v>50</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="15">
+        <v>50</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="15">
+        <v>7</v>
+      </c>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+    </row>
+    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="16">
+        <v>50</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="8">
+        <v>50</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N29" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="15">
+        <v>25</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="15">
+        <v>50</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="15">
+        <v>9</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="15">
+        <v>25</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="15">
+        <v>50</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="N31" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>50</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="15">
+        <v>50</v>
+      </c>
+      <c r="L32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="N32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="16">
+        <v>50</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="15">
+        <v>50</v>
+      </c>
+      <c r="L33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1.32</v>
+      </c>
+      <c r="N33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>25</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="15">
+        <v>50</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="N34" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="15">
+        <v>25</v>
+      </c>
+      <c r="E35" s="15">
+        <v>250</v>
+      </c>
+      <c r="F35" s="15">
+        <v>2.87</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="15">
+        <v>50</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M35" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="N35" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="15">
+        <v>50</v>
+      </c>
+      <c r="E36" s="15">
+        <v>350</v>
+      </c>
+      <c r="F36" s="15">
+        <v>3.29</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="15">
+        <v>50</v>
+      </c>
+      <c r="L36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1.96</v>
+      </c>
+      <c r="N36" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="17">
+        <v>50</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="15">
+        <v>50</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="18">
+        <v>2.13</v>
+      </c>
+      <c r="N37" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="15">
+        <v>25</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="15">
+        <v>50</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1300</v>
+      </c>
+      <c r="M38" s="18">
+        <v>2.81</v>
+      </c>
+      <c r="N38" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="15">
+        <v>25</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="15">
+        <v>50</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M39" s="18">
+        <v>2.15</v>
+      </c>
+      <c r="N39" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>50</v>
+      </c>
+      <c r="E40" s="15">
+        <v>950</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1.86</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="15">
+        <v>50</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="18">
+        <v>2.19</v>
+      </c>
+      <c r="N40" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="17">
+        <v>50</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="15">
+        <v>50</v>
+      </c>
+      <c r="L41" s="15">
+        <v>2650</v>
+      </c>
+      <c r="M41" s="15">
+        <v>5.37</v>
+      </c>
+      <c r="N41" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C42" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="15">
+        <v>25</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="15">
+        <v>25</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="15">
+        <v>50</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="7">
+        <v>50</v>
+      </c>
+      <c r="E45" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="15">
+        <v>25</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="15">
+        <v>25</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="15">
+        <v>50</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="17">
+        <v>50</v>
+      </c>
+      <c r="E49" s="18">
+        <v>950</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="15">
+        <v>25</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="15">
+        <v>25</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="15">
+        <v>50</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="16">
+        <v>50</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="15">
+        <v>25</v>
+      </c>
+      <c r="E54" s="15">
+        <v>175</v>
+      </c>
+      <c r="F54" s="15">
+        <v>3.61</v>
+      </c>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="15">
+        <v>25</v>
+      </c>
+      <c r="E55" s="15">
+        <v>175</v>
+      </c>
+      <c r="F55" s="15">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="15">
+        <v>50</v>
+      </c>
+      <c r="E56" s="15">
+        <v>400</v>
+      </c>
+      <c r="F56" s="15">
+        <v>7.38</v>
+      </c>
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="16">
+        <v>50</v>
+      </c>
+      <c r="E57" s="18">
+        <v>200</v>
+      </c>
+      <c r="F57" s="18">
+        <v>5.66</v>
+      </c>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="15">
+        <v>25</v>
+      </c>
+      <c r="E58" s="18">
+        <v>650</v>
+      </c>
+      <c r="F58" s="18">
+        <v>6.49</v>
+      </c>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="15">
+        <v>25</v>
+      </c>
+      <c r="E59" s="18">
+        <v>400</v>
+      </c>
+      <c r="F59" s="18">
+        <v>5.58</v>
+      </c>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="15">
+        <v>50</v>
+      </c>
+      <c r="E60" s="18">
+        <v>650</v>
+      </c>
+      <c r="F60" s="18">
+        <v>6.49</v>
+      </c>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="17">
+        <v>50</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="15">
+        <v>25</v>
+      </c>
+      <c r="E62" s="18">
+        <v>525</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1.18</v>
+      </c>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="15">
+        <v>25</v>
+      </c>
+      <c r="E63" s="18">
+        <v>525</v>
+      </c>
+      <c r="F63" s="18">
+        <v>1.59</v>
+      </c>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="8">
+        <v>50</v>
+      </c>
+      <c r="E64" s="18">
+        <v>2650</v>
+      </c>
+      <c r="F64" s="18">
+        <v>5.37</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="17">
+        <v>50</v>
+      </c>
+      <c r="E65" s="18">
+        <v>850</v>
+      </c>
+      <c r="F65" s="18">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="15">
+        <v>25</v>
+      </c>
+      <c r="E66" s="15">
+        <v>225</v>
+      </c>
+      <c r="F66" s="15">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C67" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="15">
+        <v>25</v>
+      </c>
+      <c r="E67" s="15">
+        <v>175</v>
+      </c>
+      <c r="F67" s="15">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="15">
+        <v>50</v>
+      </c>
+      <c r="E68" s="15">
+        <v>200</v>
+      </c>
+      <c r="F68" s="15">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="16">
+        <v>50</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="15">
+        <v>25</v>
+      </c>
+      <c r="E70" s="15">
+        <v>850</v>
+      </c>
+      <c r="F70" s="15">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="15">
+        <v>25</v>
+      </c>
+      <c r="E71" s="15">
+        <v>550</v>
+      </c>
+      <c r="F71" s="15">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="8">
+        <v>50</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1050</v>
+      </c>
+      <c r="F72" s="8">
+        <v>16.79</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="16">
+        <v>50</v>
+      </c>
+      <c r="E73" s="15">
+        <v>750</v>
+      </c>
+      <c r="F73" s="15">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="15">
+        <v>25</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C75" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="15">
+        <v>25</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="15">
+        <v>50</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="16">
+        <v>50</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB9993E-D751-1D4F-8CE5-589E1CC97083}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="A48:F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>25</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="15">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="16">
+        <v>50</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="15">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="15">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="16">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="15">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>50</v>
+      </c>
+      <c r="E12" s="15">
+        <v>600</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="17">
+        <v>50</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="15">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15">
+        <v>525</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="15">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15">
+        <v>525</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>50</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>25</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="15">
+        <v>25</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="15">
+        <v>50</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="16">
+        <v>50</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>25</v>
+      </c>
+      <c r="E22" s="15">
+        <v>750</v>
+      </c>
+      <c r="F22" s="15">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="15">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="8">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="16">
+        <v>50</v>
+      </c>
+      <c r="E25" s="18">
+        <v>400</v>
+      </c>
+      <c r="F25" s="18">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="15">
+        <v>25</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="15">
+        <v>50</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="16">
+        <v>50</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="15">
+        <v>25</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="15">
+        <v>25</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>50</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="16">
+        <v>50</v>
+      </c>
+      <c r="E33" s="15">
+        <v>200</v>
+      </c>
+      <c r="F33" s="15">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>25</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="15">
+        <v>25</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="15">
+        <v>50</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="17">
+        <v>50</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="15">
+        <v>25</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="15">
+        <v>25</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>50</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="17">
+        <v>50</v>
+      </c>
+      <c r="E41" s="15">
+        <v>500</v>
+      </c>
+      <c r="F41" s="15">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C42" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="15">
+        <v>25</v>
+      </c>
+      <c r="E42" s="15">
+        <v>425</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="15">
+        <v>25</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="15">
+        <v>50</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="17">
+        <v>50</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="15">
+        <v>25</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="15">
+        <v>25</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="8">
+        <v>50</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="17">
+        <v>50</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="15">
+        <v>25</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="15">
+        <v>25</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="15">
+        <v>50</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="16">
+        <v>50</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="15">
+        <v>25</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="15">
+        <v>25</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="15">
+        <v>50</v>
+      </c>
+      <c r="E56" s="15">
+        <v>300</v>
+      </c>
+      <c r="F56" s="15">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="16">
+        <v>50</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="15">
+        <v>25</v>
+      </c>
+      <c r="E58" s="18">
+        <v>775</v>
+      </c>
+      <c r="F58" s="18">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="15">
+        <v>25</v>
+      </c>
+      <c r="E59" s="18">
+        <v>600</v>
+      </c>
+      <c r="F59" s="18">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="8">
+        <v>50</v>
+      </c>
+      <c r="E60" s="19">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="19">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="17">
+        <v>50</v>
+      </c>
+      <c r="E61" s="18">
+        <v>400</v>
+      </c>
+      <c r="F61" s="18">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="15">
+        <v>25</v>
+      </c>
+      <c r="E62" s="18">
+        <v>150</v>
+      </c>
+      <c r="F62" s="18">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="15">
+        <v>25</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="15">
+        <v>50</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="17">
+        <v>50</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="15">
+        <v>25</v>
+      </c>
+      <c r="E66" s="15">
+        <v>150</v>
+      </c>
+      <c r="F66" s="15">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C67" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="15">
+        <v>25</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="15">
+        <v>50</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="16">
+        <v>50</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="15">
+        <v>25</v>
+      </c>
+      <c r="E70" s="15">
+        <v>650</v>
+      </c>
+      <c r="F70" s="15">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="15">
+        <v>25</v>
+      </c>
+      <c r="E71" s="15">
+        <v>650</v>
+      </c>
+      <c r="F71" s="15">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="15">
+        <v>50</v>
+      </c>
+      <c r="E72" s="15">
+        <v>650</v>
+      </c>
+      <c r="F72" s="15">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="16">
+        <v>50</v>
+      </c>
+      <c r="E73" s="15">
+        <v>350</v>
+      </c>
+      <c r="F73" s="15">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="15">
+        <v>25</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1100</v>
+      </c>
+      <c r="F74" s="15">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="8">
+        <v>25</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F75" s="8">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="15">
+        <v>50</v>
+      </c>
+      <c r="E76" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="15">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="16">
+        <v>50</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F77" s="15">
+        <v>13.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3985A45C-2AC1-314D-924C-4C04BDC97906}">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>25</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="15">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="16">
+        <v>50</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="15">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="15">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="16">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="15">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="17">
+        <v>50</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="15">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15">
+        <v>525</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="15">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>50</v>
+      </c>
+      <c r="E16" s="15">
+        <v>600</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="17">
+        <v>50</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>25</v>
+      </c>
+      <c r="E18" s="15">
+        <v>525</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="15">
+        <v>25</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="15">
+        <v>50</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="7">
+        <v>50</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>25</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="15">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="15">
+        <v>50</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="16">
+        <v>50</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15">
+        <v>725</v>
+      </c>
+      <c r="F26" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="15">
+        <v>25</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="15">
+        <v>50</v>
+      </c>
+      <c r="E28" s="15">
+        <v>300</v>
+      </c>
+      <c r="F28" s="15">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="16">
+        <v>50</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="15">
+        <v>25</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="15">
+        <v>25</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>50</v>
+      </c>
+      <c r="E32" s="15">
+        <v>500</v>
+      </c>
+      <c r="F32" s="15">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="16">
+        <v>50</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>25</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="15">
+        <v>25</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="15">
+        <v>50</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="16">
+        <v>50</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="15">
+        <v>25</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="15">
+        <v>25</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>50</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="16">
+        <v>50</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C42" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="15">
+        <v>25</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="15">
+        <v>25</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="15">
+        <v>50</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="17">
+        <v>50</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="15">
+        <v>25</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="15">
+        <v>25</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="15">
+        <v>50</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="17">
+        <v>50</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="15">
+        <v>25</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="15">
+        <v>25</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="15">
+        <v>50</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="17">
+        <v>50</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="15">
+        <v>25</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="15">
+        <v>25</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="15">
+        <v>50</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="16">
+        <v>50</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="15">
+        <v>25</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="15">
+        <v>25</v>
+      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="15">
+        <v>50</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="16">
+        <v>50</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="15">
+        <v>25</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="15">
+        <v>25</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="15">
+        <v>50</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="17">
+        <v>50</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="15">
+        <v>25</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C67" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="15">
+        <v>25</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="15">
+        <v>50</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="17">
+        <v>50</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="15">
+        <v>25</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="15">
+        <v>25</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="15">
+        <v>50</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="16">
+        <v>50</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="15">
+        <v>25</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C75" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="15">
+        <v>25</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="15">
+        <v>50</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="16">
+        <v>50</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C78" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="15">
+        <v>25</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C79" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="15">
+        <v>25</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="15">
+        <v>50</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C81" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="16">
+        <v>50</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8E68D-9480-D04F-BDF3-72F251F4B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E33CE-750C-7A42-B745-8898A2D8ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="560" windowWidth="10000" windowHeight="16380" firstSheet="5" activeTab="6" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="18800" yWindow="560" windowWidth="10000" windowHeight="16380" firstSheet="5" activeTab="5" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="crt.v.drt.yr1.final" sheetId="12" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="crt.v.drt.otl.rm.DSI" sheetId="15" r:id="rId3"/>
     <sheet name="crt.v.drt.otl.rm.response" sheetId="13" r:id="rId4"/>
     <sheet name="correct.traits" sheetId="16" r:id="rId5"/>
-    <sheet name="correct.traits.2" sheetId="17" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId7"/>
-    <sheet name="correc.traits.2.map.dsi" sheetId="18" r:id="rId8"/>
-    <sheet name="correct.traits.2.dsi" sheetId="19" r:id="rId9"/>
+    <sheet name="BACI.models" sheetId="21" r:id="rId6"/>
+    <sheet name="correct.traits.2" sheetId="17" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId8"/>
+    <sheet name="correc.traits.2.map.dsi" sheetId="18" r:id="rId9"/>
+    <sheet name="correct.traits.2.dsi" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="61">
   <si>
     <t>model</t>
   </si>
@@ -307,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,11 +334,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -358,9 +363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +403,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -504,7 +509,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6780,6 +6785,1437 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3985A45C-2AC1-314D-924C-4C04BDC97906}">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="5">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>525</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>600</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>525</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="7">
+        <v>50</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>725</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3">
+        <v>300</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="4">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="5">
+        <v>50</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="5">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>25</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>25</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="3">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>50</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="4">
+        <v>50</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>25</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="5">
+        <v>50</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="3">
+        <v>25</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>50</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="5">
+        <v>50</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="3">
+        <v>25</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="3">
+        <v>25</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>50</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="4">
+        <v>50</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>25</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="3">
+        <v>25</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>50</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="4">
+        <v>50</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="3">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="3">
+        <v>25</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>50</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="4">
+        <v>50</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F14B4-0B1F-9048-9659-B5CBB9EF5996}">
   <dimension ref="A1:O65"/>
@@ -15713,11 +17149,1237 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED511216-EDCC-714D-9907-D1CDBD22A990}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3">
+        <v>525</v>
+      </c>
+      <c r="F2" s="3">
+        <v>34.51</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="17">
+        <v>25</v>
+      </c>
+      <c r="L2" s="17">
+        <v>1600</v>
+      </c>
+      <c r="M2" s="17">
+        <v>6.82</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>375</v>
+      </c>
+      <c r="F3" s="3">
+        <v>34.65</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="17">
+        <v>25</v>
+      </c>
+      <c r="L3" s="17">
+        <v>750</v>
+      </c>
+      <c r="M3" s="17">
+        <v>7.05</v>
+      </c>
+      <c r="N3" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>600</v>
+      </c>
+      <c r="F4" s="3">
+        <v>36.61</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="17">
+        <v>25</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1650</v>
+      </c>
+      <c r="M4" s="17">
+        <v>17.61</v>
+      </c>
+      <c r="N4" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13">
+        <v>400</v>
+      </c>
+      <c r="F5" s="13">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="17">
+        <v>25</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1050</v>
+      </c>
+      <c r="M5" s="17">
+        <v>15.38</v>
+      </c>
+      <c r="N5" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1425</v>
+      </c>
+      <c r="F6" s="13">
+        <v>24.21</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="17">
+        <v>25</v>
+      </c>
+      <c r="L6" s="17">
+        <v>775</v>
+      </c>
+      <c r="M6" s="17">
+        <v>14.05</v>
+      </c>
+      <c r="N6" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1300</v>
+      </c>
+      <c r="F7" s="13">
+        <v>27.85</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="17">
+        <v>25</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="17">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="N7" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="13">
+        <v>29.83</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="17">
+        <v>25</v>
+      </c>
+      <c r="L8" s="17">
+        <v>600</v>
+      </c>
+      <c r="M8" s="17">
+        <v>13.42</v>
+      </c>
+      <c r="N8" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="9">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="15">
+        <v>32.99</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="17">
+        <v>25</v>
+      </c>
+      <c r="L9" s="17">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="17">
+        <v>25.01</v>
+      </c>
+      <c r="N9" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13">
+        <v>275</v>
+      </c>
+      <c r="F10" s="13">
+        <v>16.05</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17">
+        <v>725</v>
+      </c>
+      <c r="M10" s="17">
+        <v>17.18</v>
+      </c>
+      <c r="N10" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13">
+        <v>175</v>
+      </c>
+      <c r="F11" s="13">
+        <v>18.45</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="17">
+        <v>25</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1325</v>
+      </c>
+      <c r="M11" s="13">
+        <v>27.19</v>
+      </c>
+      <c r="N11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="13">
+        <v>200</v>
+      </c>
+      <c r="F12" s="13">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
+      <c r="E13" s="13">
+        <v>200</v>
+      </c>
+      <c r="F13" s="13">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13">
+        <v>825</v>
+      </c>
+      <c r="F14" s="13">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="13">
+        <v>450</v>
+      </c>
+      <c r="F15" s="13">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>50</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1150</v>
+      </c>
+      <c r="F16" s="15">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+      <c r="E17" s="13">
+        <v>450</v>
+      </c>
+      <c r="F17" s="13">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="13">
+        <v>275</v>
+      </c>
+      <c r="F18" s="13">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" s="13">
+        <v>175</v>
+      </c>
+      <c r="F19" s="13">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>50</v>
+      </c>
+      <c r="E20" s="13">
+        <v>200</v>
+      </c>
+      <c r="F20" s="13">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+      <c r="E21" s="13">
+        <v>200</v>
+      </c>
+      <c r="F21" s="13">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1075</v>
+      </c>
+      <c r="F22" s="13">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="8">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1325</v>
+      </c>
+      <c r="F23" s="15">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="13">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="13">
+        <v>850</v>
+      </c>
+      <c r="F25" s="13">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="13">
+        <v>300</v>
+      </c>
+      <c r="F26" s="13">
+        <v>20.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13">
+        <v>250</v>
+      </c>
+      <c r="F27" s="13">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" s="13">
+        <v>250</v>
+      </c>
+      <c r="F28" s="13">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+      <c r="E29" s="13">
+        <v>200</v>
+      </c>
+      <c r="F29" s="13">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1175</v>
+      </c>
+      <c r="F30" s="13">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="13">
+        <v>800</v>
+      </c>
+      <c r="F31" s="13">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="8">
+        <v>50</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="15">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+      <c r="E33" s="13">
+        <v>450</v>
+      </c>
+      <c r="F33" s="13">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="13">
+        <v>375</v>
+      </c>
+      <c r="F34" s="13">
+        <v>30.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" s="13">
+        <v>325</v>
+      </c>
+      <c r="F35" s="13">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" s="13">
+        <v>450</v>
+      </c>
+      <c r="F36" s="13">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
+      <c r="E37" s="13">
+        <v>200</v>
+      </c>
+      <c r="F37" s="13">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1875</v>
+      </c>
+      <c r="F38" s="13">
+        <v>30.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="13">
+        <v>825</v>
+      </c>
+      <c r="F39" s="13">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="17">
+        <v>50</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1350</v>
+      </c>
+      <c r="F40" s="13">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="9">
+        <v>50</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1450</v>
+      </c>
+      <c r="F41" s="15">
+        <v>34.130000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" s="13">
+        <v>525</v>
+      </c>
+      <c r="F42" s="13">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" s="13">
+        <v>175</v>
+      </c>
+      <c r="F43" s="13">
+        <v>18.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="13">
+        <v>200</v>
+      </c>
+      <c r="F44" s="13">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
+      <c r="E45" s="13">
+        <v>200</v>
+      </c>
+      <c r="F45" s="13">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25</v>
+      </c>
+      <c r="E46" s="13">
+        <v>700</v>
+      </c>
+      <c r="F46" s="13">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
+      </c>
+      <c r="E47" s="13">
+        <v>775</v>
+      </c>
+      <c r="F47" s="13">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="8">
+        <v>50</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1250</v>
+      </c>
+      <c r="F48" s="15">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="4">
+        <v>50</v>
+      </c>
+      <c r="E49" s="13">
+        <v>600</v>
+      </c>
+      <c r="F49" s="13">
+        <v>13.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB26E21-FD12-0B47-B6B7-59A809752B30}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F17"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18146,11 +20808,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B82E5-E0FE-9942-991D-76D2980C07EA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
@@ -18225,7 +20887,7 @@
       <c r="K2" s="8">
         <v>0.75</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="3">
         <v>50</v>
       </c>
       <c r="M2" s="6">
@@ -18269,7 +20931,7 @@
       <c r="K3" s="3">
         <v>0.75</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="3">
         <v>50</v>
       </c>
       <c r="M3">
@@ -18313,7 +20975,7 @@
       <c r="K4" s="3">
         <v>0.75</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="3">
         <v>50</v>
       </c>
       <c r="M4">
@@ -18354,7 +21016,7 @@
       <c r="K5" s="3">
         <v>0.75</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="3">
         <v>50</v>
       </c>
       <c r="M5">
@@ -18398,7 +21060,7 @@
       <c r="K6" s="3">
         <v>0.75</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="3">
         <v>50</v>
       </c>
       <c r="M6">
@@ -18439,7 +21101,7 @@
       <c r="K7" s="3">
         <v>0.75</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="3">
         <v>50</v>
       </c>
       <c r="M7">
@@ -18480,7 +21142,7 @@
       <c r="K8" s="3">
         <v>0.75</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="3">
         <v>50</v>
       </c>
       <c r="M8">
@@ -18521,7 +21183,7 @@
       <c r="K9" s="3">
         <v>0.75</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="3">
         <v>50</v>
       </c>
       <c r="M9">
@@ -18562,7 +21224,7 @@
       <c r="K10" s="3">
         <v>0.75</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="3">
         <v>50</v>
       </c>
       <c r="M10">
@@ -18597,19 +21259,19 @@
       <c r="I11" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="5">
         <v>1E-4</v>
       </c>
-      <c r="K11" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="L11" s="15">
-        <v>50</v>
-      </c>
-      <c r="M11" s="14">
+      <c r="K11" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="5">
+        <v>50</v>
+      </c>
+      <c r="M11" s="3">
         <v>1250</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="3">
         <v>3.63</v>
       </c>
       <c r="O11">
@@ -18676,22 +21338,22 @@
       <c r="F13" s="3">
         <v>2.91</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K13" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="14">
-        <v>50</v>
-      </c>
-      <c r="M13" s="14">
+      <c r="K13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>50</v>
+      </c>
+      <c r="M13" s="3">
         <v>1150</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="3">
         <v>7.3</v>
       </c>
       <c r="O13">
@@ -18720,22 +21382,22 @@
       <c r="F14" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K14" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="14">
-        <v>50</v>
-      </c>
-      <c r="M14" s="14">
+      <c r="K14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>50</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="3">
         <v>9.32</v>
       </c>
       <c r="O14">
@@ -18761,22 +21423,22 @@
       <c r="F15" s="3">
         <v>1.58</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="14">
-        <v>50</v>
-      </c>
-      <c r="M15" s="14">
+      <c r="K15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>50</v>
+      </c>
+      <c r="M15" s="3">
         <v>1150</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="3">
         <v>9.83</v>
       </c>
       <c r="O15">
@@ -18802,22 +21464,22 @@
       <c r="F16" s="3">
         <v>2.86</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K16" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="14">
-        <v>50</v>
-      </c>
-      <c r="M16" s="14">
+      <c r="K16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3">
         <v>650</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="3">
         <v>6.33</v>
       </c>
       <c r="O16">
@@ -18846,22 +21508,22 @@
       <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K17" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="14">
-        <v>50</v>
-      </c>
-      <c r="M17" s="14">
+      <c r="K17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>50</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="3">
         <v>6.61</v>
       </c>
       <c r="O17">
@@ -18887,22 +21549,22 @@
       <c r="F18" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K18" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="14">
-        <v>50</v>
-      </c>
-      <c r="M18" s="14">
+      <c r="K18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>50</v>
+      </c>
+      <c r="M18" s="3">
         <v>1150</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="3">
         <v>10.029999999999999</v>
       </c>
       <c r="O18">
@@ -18928,22 +21590,22 @@
       <c r="F19" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K19" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="14">
-        <v>50</v>
-      </c>
-      <c r="M19" s="14">
+      <c r="K19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3">
         <v>1150</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="3">
         <v>10.15</v>
       </c>
       <c r="O19">
@@ -18969,22 +21631,22 @@
       <c r="F20" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K20" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="14">
-        <v>50</v>
-      </c>
-      <c r="M20" s="14">
+      <c r="K20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>50</v>
+      </c>
+      <c r="M20" s="3">
         <v>950</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="3">
         <v>8.7200000000000006</v>
       </c>
       <c r="O20">
@@ -19010,7 +21672,7 @@
       <c r="F21" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" t="s">
         <v>55</v>
       </c>
       <c r="J21" s="5">
@@ -19022,10 +21684,10 @@
       <c r="L21" s="5">
         <v>50</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="3">
         <v>1450</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="3">
         <v>11.83</v>
       </c>
       <c r="O21">
@@ -19095,25 +21757,25 @@
       <c r="F23" s="3">
         <v>6.44</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23">
         <v>1E-4</v>
       </c>
-      <c r="K23" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L23" s="13">
-        <v>50</v>
-      </c>
-      <c r="M23" s="14">
+      <c r="K23">
+        <v>0.75</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="3">
         <v>1.44</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23">
         <v>2</v>
       </c>
     </row>
@@ -19136,25 +21798,25 @@
       <c r="F24" s="3">
         <v>9.02</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24">
         <v>1E-4</v>
       </c>
-      <c r="K24" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L24" s="13">
-        <v>50</v>
-      </c>
-      <c r="M24" s="14">
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24">
         <v>3</v>
       </c>
     </row>
@@ -19177,25 +21839,25 @@
       <c r="F25" s="3">
         <v>6.99</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25">
         <v>1E-4</v>
       </c>
-      <c r="K25" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L25" s="13">
-        <v>50</v>
-      </c>
-      <c r="M25" s="14">
+      <c r="K25">
+        <v>0.75</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25" s="3">
         <v>1150</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="3">
         <v>2.63</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25">
         <v>4</v>
       </c>
     </row>
@@ -19218,25 +21880,25 @@
       <c r="F26" s="3">
         <v>5.93</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26">
         <v>1E-4</v>
       </c>
-      <c r="K26" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L26" s="13">
-        <v>50</v>
-      </c>
-      <c r="M26" s="14">
+      <c r="K26">
+        <v>0.75</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="3">
         <v>2.59</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26">
         <v>5</v>
       </c>
     </row>
@@ -19259,25 +21921,25 @@
       <c r="F27" s="3">
         <v>8.74</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27">
         <v>1E-4</v>
       </c>
-      <c r="K27" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L27" s="13">
-        <v>50</v>
-      </c>
-      <c r="M27" s="14">
+      <c r="K27">
+        <v>0.75</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27" s="3">
         <v>2150</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="3">
         <v>5.6</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27">
         <v>6</v>
       </c>
     </row>
@@ -19303,25 +21965,25 @@
       <c r="G28" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28">
         <v>1E-4</v>
       </c>
-      <c r="K28" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L28" s="13">
-        <v>50</v>
-      </c>
-      <c r="M28" s="14">
+      <c r="K28">
+        <v>0.75</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28" s="3">
         <v>1000</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="3">
         <v>2.92</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28">
         <v>7</v>
       </c>
     </row>
@@ -19344,30 +22006,30 @@
       <c r="F29" s="3">
         <v>7.06</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29">
         <v>1E-4</v>
       </c>
-      <c r="K29" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L29" s="13">
-        <v>50</v>
-      </c>
-      <c r="M29" s="14">
+      <c r="K29">
+        <v>0.75</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="3">
         <v>2.99</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="3">
@@ -19385,30 +22047,30 @@
       <c r="F30" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30">
         <v>1E-4</v>
       </c>
-      <c r="K30" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="L30" s="13">
-        <v>50</v>
-      </c>
-      <c r="M30" s="14">
+      <c r="K30">
+        <v>0.75</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30" s="3">
         <v>1400</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="3">
@@ -19426,30 +22088,30 @@
       <c r="F31" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="5">
         <v>1E-4</v>
       </c>
-      <c r="K31" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="L31" s="15">
-        <v>50</v>
-      </c>
-      <c r="M31" s="14">
+      <c r="K31" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="L31" s="5">
+        <v>50</v>
+      </c>
+      <c r="M31" s="3">
         <v>1000</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="3">
         <v>2.99</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="3">
@@ -19469,7 +22131,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="4">
@@ -19489,7 +22151,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="3">
@@ -19509,7 +22171,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -19529,7 +22191,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="3">
@@ -19549,7 +22211,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="4">
@@ -19569,7 +22231,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="3">
@@ -19589,7 +22251,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="3">
@@ -19609,7 +22271,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="3">
@@ -19629,7 +22291,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="5">
@@ -19649,7 +22311,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="3">
@@ -19669,7 +22331,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="3">
@@ -19689,7 +22351,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="3">
@@ -19709,7 +22371,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="7">
@@ -19734,7 +22396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB9993E-D751-1D4F-8CE5-589E1CC97083}">
   <dimension ref="A1:F77"/>
   <sheetViews>
@@ -21287,1435 +23949,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3985A45C-2AC1-314D-924C-4C04BDC97906}">
-  <dimension ref="A1:F81"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D3" s="3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D5" s="4">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="3">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="4">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="3">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D13" s="5">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>525</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="3">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>600</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="5">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3">
-        <v>525</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>50</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D21" s="7">
-        <v>50</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>25</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="3">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>50</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="4">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>725</v>
-      </c>
-      <c r="F26" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3">
-        <v>300</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="4">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>25</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D31" s="3">
-        <v>25</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D33" s="4">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="3">
-        <v>25</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D35" s="3">
-        <v>25</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D37" s="4">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>25</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D39" s="3">
-        <v>25</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="4">
-        <v>50</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="3">
-        <v>25</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D43" s="3">
-        <v>25</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D45" s="5">
-        <v>50</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="3">
-        <v>25</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D47" s="3">
-        <v>25</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="3">
-        <v>50</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D49" s="5">
-        <v>50</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="3">
-        <v>25</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D51" s="3">
-        <v>25</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D53" s="5">
-        <v>50</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="3">
-        <v>25</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D55" s="3">
-        <v>25</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="3">
-        <v>50</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D57" s="4">
-        <v>50</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="3">
-        <v>25</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D59" s="3">
-        <v>25</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="3">
-        <v>50</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D61" s="4">
-        <v>50</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="3">
-        <v>25</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D63" s="3">
-        <v>25</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="3">
-        <v>50</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D65" s="5">
-        <v>50</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D66" s="3">
-        <v>25</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D67" s="3">
-        <v>25</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="3">
-        <v>50</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D69" s="5">
-        <v>50</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="3">
-        <v>25</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D71" s="3">
-        <v>25</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D72" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D73" s="4">
-        <v>50</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D74" s="3">
-        <v>25</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D75" s="3">
-        <v>25</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D76" s="3">
-        <v>50</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D77" s="4">
-        <v>50</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D78" s="3">
-        <v>25</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C79" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D79" s="3">
-        <v>25</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C80" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D80" s="3">
-        <v>50</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C81" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D81" s="4">
-        <v>50</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E33CE-750C-7A42-B745-8898A2D8ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FDB275-B96D-5148-B82E-8F67DBC0F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="560" windowWidth="10000" windowHeight="16380" firstSheet="5" activeTab="5" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="19560" yWindow="560" windowWidth="10000" windowHeight="16380" firstSheet="5" activeTab="7" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="crt.v.drt.yr1.final" sheetId="12" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="crt.v.drt.otl.rm.response" sheetId="13" r:id="rId4"/>
     <sheet name="correct.traits" sheetId="16" r:id="rId5"/>
     <sheet name="BACI.models" sheetId="21" r:id="rId6"/>
-    <sheet name="correct.traits.2" sheetId="17" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId8"/>
-    <sheet name="correc.traits.2.map.dsi" sheetId="18" r:id="rId9"/>
-    <sheet name="correct.traits.2.dsi" sheetId="19" r:id="rId10"/>
+    <sheet name="BACI.map.dsi" sheetId="22" r:id="rId7"/>
+    <sheet name="BACI.dsi" sheetId="23" r:id="rId8"/>
+    <sheet name="correct.traits.2" sheetId="17" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId10"/>
+    <sheet name="correc.traits.2.map.dsi" sheetId="18" r:id="rId11"/>
+    <sheet name="correct.traits.2.dsi" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="63">
   <si>
     <t>model</t>
   </si>
@@ -229,6 +231,12 @@
   <si>
     <t>tc. =2 is best for loop of 1-6, but some times won't loop</t>
   </si>
+  <si>
+    <t>grass.perennial.map.dsi</t>
+  </si>
+  <si>
+    <t>grass.perennial.dsi</t>
+  </si>
 </sst>
 </file>
 
@@ -337,14 +345,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6786,6 +6796,3149 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B82E5-E0FE-9942-991D-76D2980C07EA}">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="3">
+        <v>50</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1.3</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="3">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>950</v>
+      </c>
+      <c r="N4">
+        <v>1.63</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="3">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="N5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>475</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8.73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="3">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>1600</v>
+      </c>
+      <c r="N6">
+        <v>3.58</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>250</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="3">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>2.52</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.06</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="3">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>1500</v>
+      </c>
+      <c r="N8">
+        <v>3.94</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="3">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>2.84</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>675</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="3">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>2.9</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>525</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="5">
+        <v>50</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1250</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>50</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2400</v>
+      </c>
+      <c r="N12" s="8">
+        <v>7.96</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="5">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>50</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1150</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>525</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>50</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N14" s="3">
+        <v>9.32</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>525</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>50</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1150</v>
+      </c>
+      <c r="N15" s="3">
+        <v>9.83</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1350</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3">
+        <v>650</v>
+      </c>
+      <c r="N16" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1250</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3.63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>50</v>
+      </c>
+      <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.61</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>50</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1150</v>
+      </c>
+      <c r="N18" s="3">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1150</v>
+      </c>
+      <c r="N19" s="3">
+        <v>10.15</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>50</v>
+      </c>
+      <c r="M20" s="3">
+        <v>950</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="O20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="5">
+        <v>50</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1450</v>
+      </c>
+      <c r="N21" s="3">
+        <v>11.83</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>650</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11.04</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="L22" s="6">
+        <v>50</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>225</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6.44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23">
+        <v>1E-4</v>
+      </c>
+      <c r="K23">
+        <v>0.75</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9.02</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>1E-4</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3">
+        <v>250</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6.99</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25">
+        <v>1E-4</v>
+      </c>
+      <c r="K25">
+        <v>0.75</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1150</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.93</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26">
+        <v>1E-4</v>
+      </c>
+      <c r="K26">
+        <v>0.75</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3">
+        <v>650</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8.74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27">
+        <v>1E-4</v>
+      </c>
+      <c r="K27">
+        <v>0.75</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2150</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1450</v>
+      </c>
+      <c r="F28" s="8">
+        <v>11.83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28">
+        <v>1E-4</v>
+      </c>
+      <c r="K28">
+        <v>0.75</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="5">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3">
+        <v>500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29">
+        <v>1E-4</v>
+      </c>
+      <c r="K29">
+        <v>0.75</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30">
+        <v>1E-4</v>
+      </c>
+      <c r="K30">
+        <v>0.75</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N30" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="L31" s="5">
+        <v>50</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="O31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>325</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3">
+        <v>125</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3">
+        <v>400</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3">
+        <v>725</v>
+      </c>
+      <c r="F39" s="3">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3">
+        <v>600</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="5">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3">
+        <v>500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3">
+        <v>825</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="7">
+        <v>50</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB9993E-D751-1D4F-8CE5-589E1CC97083}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="A48:F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="5">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>525</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>525</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>750</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="8">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3">
+        <v>400</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="5">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="5">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3">
+        <v>425</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="8">
+        <v>50</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="5">
+        <v>50</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="4">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>25</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3">
+        <v>300</v>
+      </c>
+      <c r="F56" s="3">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>25</v>
+      </c>
+      <c r="E58" s="3">
+        <v>775</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="3">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="8">
+        <v>50</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="8">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="5">
+        <v>50</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>25</v>
+      </c>
+      <c r="E62" s="3">
+        <v>150</v>
+      </c>
+      <c r="F62" s="3">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="5">
+        <v>50</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3">
+        <v>150</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="3">
+        <v>25</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>50</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="4">
+        <v>50</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="3">
+        <v>25</v>
+      </c>
+      <c r="E70" s="3">
+        <v>650</v>
+      </c>
+      <c r="F70" s="3">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="3">
+        <v>25</v>
+      </c>
+      <c r="E71" s="3">
+        <v>650</v>
+      </c>
+      <c r="F71" s="3">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>50</v>
+      </c>
+      <c r="E72" s="3">
+        <v>650</v>
+      </c>
+      <c r="F72" s="3">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="4">
+        <v>50</v>
+      </c>
+      <c r="E73" s="3">
+        <v>350</v>
+      </c>
+      <c r="F73" s="3">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>25</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F74" s="3">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="8">
+        <v>25</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F75" s="8">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>50</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="4">
+        <v>50</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F77" s="3">
+        <v>13.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3985A45C-2AC1-314D-924C-4C04BDC97906}">
   <dimension ref="A1:F81"/>
   <sheetViews>
@@ -17152,8 +20305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED511216-EDCC-714D-9907-D1CDBD22A990}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17218,25 +20371,25 @@
       <c r="F2" s="3">
         <v>34.51</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K2" s="17">
-        <v>25</v>
-      </c>
-      <c r="L2" s="17">
+      <c r="I2" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="3">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3">
         <v>1600</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="3">
         <v>6.82</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -17259,25 +20412,25 @@
       <c r="F3" s="3">
         <v>34.65</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="17">
-        <v>25</v>
-      </c>
-      <c r="L3" s="17">
+      <c r="I3" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="3">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3">
         <v>750</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="3">
         <v>7.05</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -17300,25 +20453,25 @@
       <c r="F4" s="3">
         <v>36.61</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K4" s="17">
-        <v>25</v>
-      </c>
-      <c r="L4" s="17">
+      <c r="I4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="3">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3">
         <v>1650</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="3">
         <v>17.61</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -17335,31 +20488,31 @@
       <c r="D5" s="4">
         <v>50</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="3">
         <v>400</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="3">
         <v>35.950000000000003</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="17">
-        <v>25</v>
-      </c>
-      <c r="L5" s="17">
+      <c r="I5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="3">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3">
         <v>1050</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="3">
         <v>15.38</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="3">
         <v>4</v>
       </c>
     </row>
@@ -17376,31 +20529,31 @@
       <c r="D6" s="3">
         <v>25</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="3">
         <v>1425</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="3">
         <v>24.21</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="17">
-        <v>25</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="I6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="3">
+        <v>25</v>
+      </c>
+      <c r="L6" s="3">
         <v>775</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="3">
         <v>14.05</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="3">
         <v>5</v>
       </c>
     </row>
@@ -17417,31 +20570,31 @@
       <c r="D7" s="3">
         <v>25</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="3">
         <v>1300</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="3">
         <v>27.85</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="17">
-        <v>25</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="I7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="3">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3">
         <v>1000</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="3">
         <v>18.690000000000001</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="3">
         <v>6</v>
       </c>
     </row>
@@ -17458,36 +20611,36 @@
       <c r="D8" s="3">
         <v>50</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="3">
         <v>29.83</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="17">
-        <v>25</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="I8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="3">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="3">
         <v>13.42</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="9">
@@ -17499,31 +20652,31 @@
       <c r="D9" s="9">
         <v>50</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="8">
         <v>1700</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="8">
         <v>32.99</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="17">
-        <v>25</v>
-      </c>
-      <c r="L9" s="17">
+      <c r="I9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="3">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="3">
         <v>25.01</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="3">
         <v>8</v>
       </c>
     </row>
@@ -17540,31 +20693,31 @@
       <c r="D10" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3">
         <v>275</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <v>16.05</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17">
+      <c r="I10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="3">
+        <v>25</v>
+      </c>
+      <c r="L10" s="3">
         <v>725</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="3">
         <v>17.18</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="3">
         <v>9</v>
       </c>
     </row>
@@ -17581,31 +20734,31 @@
       <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>175</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>18.45</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="17">
-        <v>25</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="I11" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="3">
+        <v>25</v>
+      </c>
+      <c r="L11" s="3">
         <v>1325</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="3">
         <v>27.19</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="3">
         <v>10</v>
       </c>
     </row>
@@ -17622,10 +20775,10 @@
       <c r="D12" s="3">
         <v>50</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>13.29</v>
       </c>
     </row>
@@ -17642,10 +20795,10 @@
       <c r="D13" s="4">
         <v>50</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="3">
         <v>200</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="3">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -17662,10 +20815,10 @@
       <c r="D14" s="3">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="3">
         <v>825</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="3">
         <v>11.36</v>
       </c>
     </row>
@@ -17682,10 +20835,10 @@
       <c r="D15" s="3">
         <v>25</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="3">
         <v>450</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="3">
         <v>10.83</v>
       </c>
     </row>
@@ -17702,10 +20855,10 @@
       <c r="D16" s="8">
         <v>50</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="8">
         <v>1150</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="8">
         <v>13.99</v>
       </c>
     </row>
@@ -17722,10 +20875,10 @@
       <c r="D17" s="4">
         <v>50</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="3">
         <v>450</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="3">
         <v>10.88</v>
       </c>
     </row>
@@ -17742,10 +20895,10 @@
       <c r="D18" s="3">
         <v>25</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="3">
         <v>275</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="3">
         <v>21.57</v>
       </c>
     </row>
@@ -17762,10 +20915,10 @@
       <c r="D19" s="3">
         <v>25</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="3">
         <v>175</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="3">
         <v>20.92</v>
       </c>
     </row>
@@ -17782,10 +20935,10 @@
       <c r="D20" s="3">
         <v>50</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="3">
         <v>16.97</v>
       </c>
     </row>
@@ -17802,10 +20955,10 @@
       <c r="D21" s="4">
         <v>50</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="3">
         <v>22.51</v>
       </c>
     </row>
@@ -17822,10 +20975,10 @@
       <c r="D22" s="3">
         <v>25</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="3">
         <v>1075</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="3">
         <v>17.79</v>
       </c>
     </row>
@@ -17842,10 +20995,10 @@
       <c r="D23" s="8">
         <v>25</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="8">
         <v>1325</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="8">
         <v>27.19</v>
       </c>
     </row>
@@ -17862,10 +21015,10 @@
       <c r="D24" s="3">
         <v>50</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="3">
         <v>21.34</v>
       </c>
     </row>
@@ -17882,10 +21035,10 @@
       <c r="D25" s="4">
         <v>50</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="3">
         <v>850</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="3">
         <v>19.97</v>
       </c>
     </row>
@@ -17902,10 +21055,10 @@
       <c r="D26" s="3">
         <v>25</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="3">
         <v>20.43</v>
       </c>
     </row>
@@ -17922,10 +21075,10 @@
       <c r="D27" s="3">
         <v>25</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="3">
         <v>250</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="3">
         <v>25.56</v>
       </c>
     </row>
@@ -17942,10 +21095,10 @@
       <c r="D28" s="3">
         <v>50</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="3">
         <v>250</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="3">
         <v>18.559999999999999</v>
       </c>
     </row>
@@ -17962,10 +21115,10 @@
       <c r="D29" s="4">
         <v>50</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="3">
         <v>22.52</v>
       </c>
     </row>
@@ -17982,10 +21135,10 @@
       <c r="D30" s="3">
         <v>25</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="3">
         <v>1175</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="3">
         <v>17.63</v>
       </c>
     </row>
@@ -18002,10 +21155,10 @@
       <c r="D31" s="3">
         <v>25</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="3">
         <v>800</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="3">
         <v>19.22</v>
       </c>
     </row>
@@ -18022,10 +21175,10 @@
       <c r="D32" s="8">
         <v>50</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="8">
         <v>1600</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="8">
         <v>21.57</v>
       </c>
     </row>
@@ -18042,10 +21195,10 @@
       <c r="D33" s="4">
         <v>50</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="3">
         <v>450</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="3">
         <v>12.35</v>
       </c>
     </row>
@@ -18062,10 +21215,10 @@
       <c r="D34" s="3">
         <v>25</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="3">
         <v>375</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="3">
         <v>30.33</v>
       </c>
     </row>
@@ -18082,10 +21235,10 @@
       <c r="D35" s="3">
         <v>25</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="3">
         <v>325</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="3">
         <v>36.950000000000003</v>
       </c>
     </row>
@@ -18102,10 +21255,10 @@
       <c r="D36" s="3">
         <v>50</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="3">
         <v>450</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="3">
         <v>33.33</v>
       </c>
     </row>
@@ -18122,10 +21275,10 @@
       <c r="D37" s="4">
         <v>50</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="3">
         <v>200</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="3">
         <v>27.63</v>
       </c>
     </row>
@@ -18142,10 +21295,10 @@
       <c r="D38" s="3">
         <v>25</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="3">
         <v>1875</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="3">
         <v>30.37</v>
       </c>
     </row>
@@ -18162,30 +21315,30 @@
       <c r="D39" s="3">
         <v>25</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="3">
         <v>825</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="3">
         <v>24.47</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="17">
-        <v>50</v>
-      </c>
-      <c r="E40" s="13">
+      <c r="B40" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3">
         <v>1350</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="3">
         <v>25.17</v>
       </c>
     </row>
@@ -18202,10 +21355,10 @@
       <c r="D41" s="9">
         <v>50</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="8">
         <v>1450</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="8">
         <v>34.130000000000003</v>
       </c>
     </row>
@@ -18222,10 +21375,10 @@
       <c r="D42" s="3">
         <v>25</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="3">
         <v>525</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="3">
         <v>24.29</v>
       </c>
     </row>
@@ -18242,10 +21395,10 @@
       <c r="D43" s="3">
         <v>25</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="3">
         <v>175</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="3">
         <v>18.27</v>
       </c>
     </row>
@@ -18262,10 +21415,10 @@
       <c r="D44" s="3">
         <v>50</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="3">
         <v>12.96</v>
       </c>
     </row>
@@ -18282,10 +21435,10 @@
       <c r="D45" s="4">
         <v>50</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="3">
         <v>19.86</v>
       </c>
     </row>
@@ -18302,10 +21455,10 @@
       <c r="D46" s="3">
         <v>25</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="3">
         <v>10.07</v>
       </c>
     </row>
@@ -18322,10 +21475,10 @@
       <c r="D47" s="3">
         <v>25</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="3">
         <v>775</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="3">
         <v>16.579999999999998</v>
       </c>
     </row>
@@ -18342,10 +21495,10 @@
       <c r="D48" s="8">
         <v>50</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="8">
         <v>1250</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="8">
         <v>15.26</v>
       </c>
     </row>
@@ -18362,10 +21515,10 @@
       <c r="D49" s="4">
         <v>50</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="3">
         <v>13.92</v>
       </c>
     </row>
@@ -18375,6 +21528,2316 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C34D09-FAFA-F84A-A87F-EE99FD1BC19A}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F54" sqref="A54:F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3">
+        <v>325</v>
+      </c>
+      <c r="F2" s="3">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>375</v>
+      </c>
+      <c r="F3" s="3">
+        <v>36.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>350</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13">
+        <v>350</v>
+      </c>
+      <c r="F5" s="13">
+        <v>34.869999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1750</v>
+      </c>
+      <c r="F6" s="13">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="13">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="15">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="14">
+        <v>50</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1050</v>
+      </c>
+      <c r="F9" s="13">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13">
+        <v>125</v>
+      </c>
+      <c r="F10" s="13">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="13">
+        <v>200</v>
+      </c>
+      <c r="F12" s="13">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13">
+        <v>950</v>
+      </c>
+      <c r="F14" s="13">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>850</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="16">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16">
+        <v>400</v>
+      </c>
+      <c r="F16" s="16">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+      <c r="E17" s="13">
+        <v>550</v>
+      </c>
+      <c r="F17" s="13">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="13">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>950</v>
+      </c>
+      <c r="F19" s="3">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="8">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+      <c r="E21" s="13">
+        <v>800</v>
+      </c>
+      <c r="F21" s="13">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="13">
+        <v>200</v>
+      </c>
+      <c r="F22" s="13">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="13">
+        <v>150</v>
+      </c>
+      <c r="F23" s="13">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="13">
+        <v>250</v>
+      </c>
+      <c r="F24" s="13">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="13">
+        <v>250</v>
+      </c>
+      <c r="F25" s="13">
+        <v>27.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="13">
+        <v>500</v>
+      </c>
+      <c r="F26" s="13">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="16">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13">
+        <v>225</v>
+      </c>
+      <c r="F27" s="13">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="16">
+        <v>50</v>
+      </c>
+      <c r="E28" s="13">
+        <v>600</v>
+      </c>
+      <c r="F28" s="13">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="14">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>900</v>
+      </c>
+      <c r="F29" s="13">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="16">
+        <v>25</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F30" s="13">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="16">
+        <v>25</v>
+      </c>
+      <c r="E31" s="13">
+        <v>775</v>
+      </c>
+      <c r="F31" s="13">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="8">
+        <v>50</v>
+      </c>
+      <c r="E32" s="15">
+        <v>2100</v>
+      </c>
+      <c r="F32" s="15">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="14">
+        <v>50</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1050</v>
+      </c>
+      <c r="F33" s="13">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="13">
+        <v>150</v>
+      </c>
+      <c r="F34" s="13">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" s="13">
+        <v>200</v>
+      </c>
+      <c r="F35" s="13">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" s="13">
+        <v>250</v>
+      </c>
+      <c r="F36" s="13">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
+      <c r="E37" s="13">
+        <v>400</v>
+      </c>
+      <c r="F37" s="13">
+        <v>34.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="8">
+        <v>25</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1475</v>
+      </c>
+      <c r="F38" s="15">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="13">
+        <v>775</v>
+      </c>
+      <c r="F39" s="13">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="16">
+        <v>50</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1300</v>
+      </c>
+      <c r="F40" s="13">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="4">
+        <v>50</v>
+      </c>
+      <c r="E41" s="13">
+        <v>700</v>
+      </c>
+      <c r="F41" s="13">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" s="13">
+        <v>275</v>
+      </c>
+      <c r="F42" s="13">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" s="13">
+        <v>300</v>
+      </c>
+      <c r="F43" s="13">
+        <v>36.869999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="13">
+        <v>350</v>
+      </c>
+      <c r="F44" s="13">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
+      <c r="E45" s="13">
+        <v>250</v>
+      </c>
+      <c r="F45" s="13">
+        <v>33.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="13">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
+      </c>
+      <c r="E47" s="13">
+        <v>950</v>
+      </c>
+      <c r="F47" s="13">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="13">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="9">
+        <v>50</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="15">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>25</v>
+      </c>
+      <c r="E50" s="13">
+        <v>600</v>
+      </c>
+      <c r="F50" s="13">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="13">
+        <v>200</v>
+      </c>
+      <c r="F52" s="13">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="4">
+        <v>50</v>
+      </c>
+      <c r="E53" s="13">
+        <v>200</v>
+      </c>
+      <c r="F53" s="13">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="8">
+        <v>25</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="15">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="13">
+        <v>325</v>
+      </c>
+      <c r="F55" s="13">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="16">
+        <v>50</v>
+      </c>
+      <c r="E56" s="16">
+        <v>400</v>
+      </c>
+      <c r="F56" s="16">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
+      <c r="E57" s="13">
+        <v>500</v>
+      </c>
+      <c r="F57" s="13">
+        <v>12.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F414C4-E33D-6244-AB7D-36540823B4EF}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3">
+        <v>225</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>375</v>
+      </c>
+      <c r="F3" s="3">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>300</v>
+      </c>
+      <c r="F4" s="3">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13">
+        <v>200</v>
+      </c>
+      <c r="F5" s="13">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1150</v>
+      </c>
+      <c r="F6" s="13">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13">
+        <v>850</v>
+      </c>
+      <c r="F7" s="13">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="13">
+        <v>31.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="9">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="15">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13">
+        <v>200</v>
+      </c>
+      <c r="F10" s="13">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13">
+        <v>150</v>
+      </c>
+      <c r="F11" s="13">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="13">
+        <v>350</v>
+      </c>
+      <c r="F12" s="13">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13">
+        <v>675</v>
+      </c>
+      <c r="F14" s="13">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="13">
+        <v>575</v>
+      </c>
+      <c r="F15" s="13">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="16">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16">
+        <v>750</v>
+      </c>
+      <c r="F16" s="16">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+      <c r="E17" s="13">
+        <v>550</v>
+      </c>
+      <c r="F17" s="13">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2175</v>
+      </c>
+      <c r="F18" s="13">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" s="13">
+        <v>925</v>
+      </c>
+      <c r="F19" s="13">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="16">
+        <v>50</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="16">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="9">
+        <v>50</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="15">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="16">
+        <v>300</v>
+      </c>
+      <c r="F22" s="16">
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="16">
+        <v>125</v>
+      </c>
+      <c r="F23" s="16">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="16">
+        <v>250</v>
+      </c>
+      <c r="F24" s="16">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="16">
+        <v>550</v>
+      </c>
+      <c r="F26" s="16">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="16">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16">
+        <v>900</v>
+      </c>
+      <c r="F27" s="16">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F28" s="8">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+      <c r="E29" s="13">
+        <v>550</v>
+      </c>
+      <c r="F29" s="13">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" s="13">
+        <v>175</v>
+      </c>
+      <c r="F30" s="13">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+      <c r="E33" s="13">
+        <v>200</v>
+      </c>
+      <c r="F33" s="13">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="13">
+        <v>700</v>
+      </c>
+      <c r="F34" s="13">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3">
+        <v>725</v>
+      </c>
+      <c r="F35" s="3">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="16">
+        <v>50</v>
+      </c>
+      <c r="E36" s="16">
+        <v>400</v>
+      </c>
+      <c r="F36" s="16">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
+      <c r="E37" s="13">
+        <v>550</v>
+      </c>
+      <c r="F37" s="13">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1600</v>
+      </c>
+      <c r="F38" s="13">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1025</v>
+      </c>
+      <c r="F39" s="3">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="16">
+        <v>50</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1300</v>
+      </c>
+      <c r="F40" s="16">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="9">
+        <v>50</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1350</v>
+      </c>
+      <c r="F41" s="15">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>25</v>
+      </c>
+      <c r="E42" s="16">
+        <v>350</v>
+      </c>
+      <c r="F42" s="16">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>25</v>
+      </c>
+      <c r="E43" s="16">
+        <v>200</v>
+      </c>
+      <c r="F43" s="16">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="16">
+        <v>300</v>
+      </c>
+      <c r="F44" s="16">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
+      <c r="E45" s="16">
+        <v>200</v>
+      </c>
+      <c r="F45" s="16">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1825</v>
+      </c>
+      <c r="F46" s="16">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="8">
+        <v>25</v>
+      </c>
+      <c r="E47" s="8">
+        <v>1150</v>
+      </c>
+      <c r="F47" s="8">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="16">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="14">
+        <v>50</v>
+      </c>
+      <c r="E49" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="16">
+        <v>29.36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>25</v>
+      </c>
+      <c r="E50" s="16">
+        <v>225</v>
+      </c>
+      <c r="F50" s="16">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="16">
+        <v>200</v>
+      </c>
+      <c r="F52" s="16">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="4">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>25</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="16">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="3">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3">
+        <v>250</v>
+      </c>
+      <c r="F55" s="3">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>50</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1350</v>
+      </c>
+      <c r="F56" s="8">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
+      <c r="E57" s="13">
+        <v>550</v>
+      </c>
+      <c r="F57" s="13">
+        <v>12.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB26E21-FD12-0B47-B6B7-59A809752B30}">
   <dimension ref="A1:P77"/>
   <sheetViews>
@@ -20806,3147 +26269,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283B82E5-E0FE-9942-991D-76D2980C07EA}">
-  <dimension ref="A1:Q46"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="3">
-        <v>50</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D3" s="3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L3" s="3">
-        <v>50</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="N3">
-        <v>1.3</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L4" s="3">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <v>950</v>
-      </c>
-      <c r="N4">
-        <v>1.63</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D5" s="4">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L5" s="3">
-        <v>50</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-      <c r="N5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3">
-        <v>475</v>
-      </c>
-      <c r="F6" s="3">
-        <v>8.73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L6" s="3">
-        <v>50</v>
-      </c>
-      <c r="M6">
-        <v>1600</v>
-      </c>
-      <c r="N6">
-        <v>3.58</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="3">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3">
-        <v>250</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6.82</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="3">
-        <v>50</v>
-      </c>
-      <c r="M7">
-        <v>1000</v>
-      </c>
-      <c r="N7">
-        <v>2.52</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>9.06</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L8" s="3">
-        <v>50</v>
-      </c>
-      <c r="M8">
-        <v>1500</v>
-      </c>
-      <c r="N8">
-        <v>3.94</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="4">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L9" s="3">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
-      </c>
-      <c r="N9">
-        <v>2.84</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>675</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6.46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L10" s="3">
-        <v>50</v>
-      </c>
-      <c r="M10">
-        <v>1000</v>
-      </c>
-      <c r="N10">
-        <v>2.9</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="3">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>525</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="L11" s="5">
-        <v>50</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1250</v>
-      </c>
-      <c r="N11" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7.55</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="8">
-        <v>50</v>
-      </c>
-      <c r="M12" s="8">
-        <v>2400</v>
-      </c>
-      <c r="N12" s="8">
-        <v>7.96</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D13" s="5">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>200</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.91</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="3">
-        <v>50</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1150</v>
-      </c>
-      <c r="N13" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>525</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>50</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N14" s="3">
-        <v>9.32</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="3">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>525</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>50</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1150</v>
-      </c>
-      <c r="N15" s="3">
-        <v>9.83</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1350</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2.86</v>
-      </c>
-      <c r="I16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>50</v>
-      </c>
-      <c r="M16" s="3">
-        <v>650</v>
-      </c>
-      <c r="N16" s="3">
-        <v>6.33</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="7">
-        <v>50</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1250</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3.63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="3">
-        <v>50</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>6.61</v>
-      </c>
-      <c r="O17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="3">
-        <v>50</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1150</v>
-      </c>
-      <c r="N18" s="3">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="O18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>50</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1150</v>
-      </c>
-      <c r="N19" s="3">
-        <v>10.15</v>
-      </c>
-      <c r="O19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>50</v>
-      </c>
-      <c r="M20" s="3">
-        <v>950</v>
-      </c>
-      <c r="N20" s="3">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="O20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D21" s="4">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="5">
-        <v>50</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1450</v>
-      </c>
-      <c r="N21" s="3">
-        <v>11.83</v>
-      </c>
-      <c r="O21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>25</v>
-      </c>
-      <c r="E22" s="3">
-        <v>650</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11.04</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1E-4</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="L22" s="6">
-        <v>50</v>
-      </c>
-      <c r="M22" s="8">
-        <v>1000</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0.81</v>
-      </c>
-      <c r="O22" s="6">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="3">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3">
-        <v>225</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6.44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23">
-        <v>1E-4</v>
-      </c>
-      <c r="K23">
-        <v>0.75</v>
-      </c>
-      <c r="L23">
-        <v>50</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>50</v>
-      </c>
-      <c r="E24" s="3">
-        <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>9.02</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24">
-        <v>1E-4</v>
-      </c>
-      <c r="K24">
-        <v>0.75</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="4">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3">
-        <v>250</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6.99</v>
-      </c>
-      <c r="I25" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25">
-        <v>1E-4</v>
-      </c>
-      <c r="K25">
-        <v>0.75</v>
-      </c>
-      <c r="L25">
-        <v>50</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1150</v>
-      </c>
-      <c r="N25" s="3">
-        <v>2.63</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5.93</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26">
-        <v>1E-4</v>
-      </c>
-      <c r="K26">
-        <v>0.75</v>
-      </c>
-      <c r="L26">
-        <v>50</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2.59</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3">
-        <v>650</v>
-      </c>
-      <c r="F27" s="3">
-        <v>8.74</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27">
-        <v>1E-4</v>
-      </c>
-      <c r="K27">
-        <v>0.75</v>
-      </c>
-      <c r="L27">
-        <v>50</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2150</v>
-      </c>
-      <c r="N27" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="O27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="8">
-        <v>50</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1450</v>
-      </c>
-      <c r="F28" s="8">
-        <v>11.83</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28">
-        <v>1E-4</v>
-      </c>
-      <c r="K28">
-        <v>0.75</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2.92</v>
-      </c>
-      <c r="O28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="5">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3">
-        <v>500</v>
-      </c>
-      <c r="F29" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29">
-        <v>1E-4</v>
-      </c>
-      <c r="K29">
-        <v>0.75</v>
-      </c>
-      <c r="L29">
-        <v>50</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N29" s="3">
-        <v>2.99</v>
-      </c>
-      <c r="O29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30">
-        <v>1E-4</v>
-      </c>
-      <c r="K30">
-        <v>0.75</v>
-      </c>
-      <c r="L30">
-        <v>50</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N30" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D31" s="3">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="L31" s="5">
-        <v>50</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2.99</v>
-      </c>
-      <c r="O31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D33" s="4">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="3">
-        <v>25</v>
-      </c>
-      <c r="E34" s="3">
-        <v>325</v>
-      </c>
-      <c r="F34" s="3">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D35" s="3">
-        <v>25</v>
-      </c>
-      <c r="E35" s="3">
-        <v>125</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D37" s="4">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>25</v>
-      </c>
-      <c r="E38" s="3">
-        <v>400</v>
-      </c>
-      <c r="F38" s="3">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D39" s="3">
-        <v>25</v>
-      </c>
-      <c r="E39" s="3">
-        <v>725</v>
-      </c>
-      <c r="F39" s="3">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3">
-        <v>600</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="5">
-        <v>50</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="3">
-        <v>25</v>
-      </c>
-      <c r="E42" s="3">
-        <v>500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D43" s="3">
-        <v>25</v>
-      </c>
-      <c r="E43" s="3">
-        <v>825</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D45" s="7">
-        <v>50</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F45" s="8">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB9993E-D751-1D4F-8CE5-589E1CC97083}">
-  <dimension ref="A1:F77"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F48" sqref="A48:F48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D3" s="3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D5" s="4">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="3">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="4">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="3">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D13" s="5">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>525</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="3">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>525</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="7">
-        <v>50</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="8">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>50</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D21" s="4">
-        <v>50</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>25</v>
-      </c>
-      <c r="E22" s="3">
-        <v>750</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="3">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="8">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1800</v>
-      </c>
-      <c r="F24" s="8">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="4">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3">
-        <v>400</v>
-      </c>
-      <c r="F25" s="3">
-        <v>10.46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="4">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>25</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D31" s="3">
-        <v>25</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D33" s="4">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="3">
-        <v>25</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D35" s="3">
-        <v>25</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D37" s="5">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>25</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D39" s="3">
-        <v>25</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="5">
-        <v>50</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="3">
-        <v>25</v>
-      </c>
-      <c r="E42" s="3">
-        <v>425</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D43" s="3">
-        <v>25</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D45" s="5">
-        <v>50</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="3">
-        <v>25</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D47" s="3">
-        <v>25</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C48" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="8">
-        <v>50</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D49" s="5">
-        <v>50</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="3">
-        <v>25</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D51" s="3">
-        <v>25</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D53" s="4">
-        <v>50</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="3">
-        <v>25</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D55" s="3">
-        <v>25</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="3">
-        <v>50</v>
-      </c>
-      <c r="E56" s="3">
-        <v>300</v>
-      </c>
-      <c r="F56" s="3">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D57" s="4">
-        <v>50</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="3">
-        <v>25</v>
-      </c>
-      <c r="E58" s="3">
-        <v>775</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D59" s="3">
-        <v>25</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>8.5299999999999994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="8">
-        <v>50</v>
-      </c>
-      <c r="E60" s="8">
-        <v>1200</v>
-      </c>
-      <c r="F60" s="8">
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D61" s="5">
-        <v>50</v>
-      </c>
-      <c r="E61" s="3">
-        <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="3">
-        <v>25</v>
-      </c>
-      <c r="E62" s="3">
-        <v>150</v>
-      </c>
-      <c r="F62" s="3">
-        <v>13.47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D63" s="3">
-        <v>25</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="3">
-        <v>50</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D65" s="5">
-        <v>50</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D66" s="3">
-        <v>25</v>
-      </c>
-      <c r="E66" s="3">
-        <v>150</v>
-      </c>
-      <c r="F66" s="3">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D67" s="3">
-        <v>25</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="3">
-        <v>50</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D69" s="4">
-        <v>50</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="3">
-        <v>25</v>
-      </c>
-      <c r="E70" s="3">
-        <v>650</v>
-      </c>
-      <c r="F70" s="3">
-        <v>11.82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D71" s="3">
-        <v>25</v>
-      </c>
-      <c r="E71" s="3">
-        <v>650</v>
-      </c>
-      <c r="F71" s="3">
-        <v>16.04</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D72" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" s="3">
-        <v>650</v>
-      </c>
-      <c r="F72" s="3">
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D73" s="4">
-        <v>50</v>
-      </c>
-      <c r="E73" s="3">
-        <v>350</v>
-      </c>
-      <c r="F73" s="3">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D74" s="3">
-        <v>25</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F74" s="3">
-        <v>10.37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C75" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="D75" s="8">
-        <v>25</v>
-      </c>
-      <c r="E75" s="8">
-        <v>1100</v>
-      </c>
-      <c r="F75" s="8">
-        <v>14.15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D76" s="3">
-        <v>50</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>9.59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D77" s="4">
-        <v>50</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F77" s="3">
-        <v>13.13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7BFCAE-BB49-0D40-A0DF-2838566B2124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76052F73-7CE7-674B-9C5A-4ABE8B85F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="560" windowWidth="10000" windowHeight="16380" firstSheet="4" activeTab="4" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="9980" yWindow="560" windowWidth="18360" windowHeight="16380" firstSheet="4" activeTab="4" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="crt.v.drt.yr1.final" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="76">
   <si>
     <t>model</t>
   </si>
@@ -274,6 +274,9 @@
   <si>
     <t>tc = 9</t>
   </si>
+  <si>
+    <t>grass.annual.dsi</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -391,28 +394,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -20672,8 +20659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9576503-5928-6A48-A4AE-2F3B98241732}">
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176:D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20859,14 +20846,14 @@
       <c r="D9" s="4">
         <v>50</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="3">
         <v>6.05</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -20881,14 +20868,14 @@
       <c r="D10" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <v>5.57</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -20903,14 +20890,14 @@
       <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>925</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>6.8</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -20925,16 +20912,16 @@
       <c r="D12" s="8">
         <v>50</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
         <v>1850</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
         <v>11.06</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -20949,14 +20936,14 @@
       <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="3">
         <v>850</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="3">
         <v>6.32</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -20971,14 +20958,14 @@
       <c r="D14" s="3">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="3">
         <v>150</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="3">
         <v>9.11</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -20993,14 +20980,14 @@
       <c r="D15" s="3">
         <v>25</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="3">
         <v>175</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="3">
         <v>10.96</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -21055,14 +21042,14 @@
       <c r="D18" s="3">
         <v>25</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="3">
         <v>750</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="3">
         <v>9.16</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -21083,8 +21070,8 @@
       <c r="F19" s="3">
         <v>10.39</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -21121,14 +21108,14 @@
       <c r="D21" s="4">
         <v>50</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="3">
         <v>750</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="3">
         <v>9.85</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -21143,14 +21130,14 @@
       <c r="D22" s="3">
         <v>25</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="3">
         <v>6.06</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -21165,14 +21152,14 @@
       <c r="D23" s="3">
         <v>25</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="3">
         <v>950</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="3">
         <v>6.8</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -21187,16 +21174,16 @@
       <c r="D24" s="8">
         <v>50</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="8">
         <v>1650</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="8">
         <v>9.8800000000000008</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -21211,14 +21198,14 @@
       <c r="D25" s="5">
         <v>50</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="3">
         <v>1200</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="3">
         <v>8.32</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -21233,10 +21220,10 @@
       <c r="D26" s="3">
         <v>25</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="3">
         <v>125</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="3">
         <v>10.96</v>
       </c>
     </row>
@@ -21273,10 +21260,10 @@
       <c r="D28" s="3">
         <v>50</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="3">
         <v>200</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="3">
         <v>15.82</v>
       </c>
     </row>
@@ -21313,10 +21300,10 @@
       <c r="D30" s="3">
         <v>25</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="3">
         <v>575</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="3">
         <v>10.35</v>
       </c>
       <c r="G30" s="3"/>
@@ -21379,14 +21366,14 @@
       <c r="D33" s="4">
         <v>50</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="3">
         <v>5.75</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -21401,14 +21388,14 @@
       <c r="D34" s="3">
         <v>25</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="3">
         <v>525</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="3">
         <v>5.23</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -21423,14 +21410,14 @@
       <c r="D35" s="3">
         <v>25</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="3">
         <v>650</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="3">
         <v>8.69</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -21445,16 +21432,16 @@
       <c r="D36" s="8">
         <v>50</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="8">
         <v>1200</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="8">
         <v>10.64</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -21469,14 +21456,14 @@
       <c r="D37" s="5">
         <v>50</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="3">
         <v>600</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="3">
         <v>8.16</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -21491,14 +21478,14 @@
       <c r="D38" s="3">
         <v>25</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="E38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -21513,14 +21500,14 @@
       <c r="D39" s="3">
         <v>25</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -21535,14 +21522,14 @@
       <c r="D40" s="3">
         <v>50</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="E40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -21557,14 +21544,14 @@
       <c r="D41" s="4">
         <v>50</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="E41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -21645,14 +21632,14 @@
       <c r="D45" s="4">
         <v>50</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="3">
         <v>450</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="3">
         <v>11.17</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -21667,14 +21654,14 @@
       <c r="D46" s="3">
         <v>25</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="3">
         <v>1275</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="3">
         <v>10.89</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -21689,14 +21676,14 @@
       <c r="D47" s="3">
         <v>25</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="3">
         <v>650</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="3">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -21711,16 +21698,16 @@
       <c r="D48" s="8">
         <v>50</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="8">
         <v>1600</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="8">
         <v>12.9</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -21735,14 +21722,14 @@
       <c r="D49" s="5">
         <v>50</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="3">
         <v>12.11</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -21763,8 +21750,8 @@
       <c r="F50" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -21905,14 +21892,14 @@
       <c r="D57" s="4">
         <v>50</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="3">
         <v>250</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="3">
         <v>4.34</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -21927,14 +21914,14 @@
       <c r="D58" s="3">
         <v>25</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="3">
         <v>5.56</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -21949,36 +21936,36 @@
       <c r="D59" s="3">
         <v>25</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="3">
         <v>625</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="3">
         <v>5.37</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C60" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="17">
-        <v>50</v>
-      </c>
-      <c r="E60" s="13">
+      <c r="B60" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>50</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="3">
         <v>6.86</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -21993,104 +21980,104 @@
       <c r="D61" s="5">
         <v>50</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="3">
         <v>5.9</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C62" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="20">
-        <v>25</v>
-      </c>
-      <c r="E62" s="13">
+      <c r="C62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>25</v>
+      </c>
+      <c r="E62" s="3">
         <v>525</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="3">
         <v>0.92</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C63" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D63" s="20">
-        <v>25</v>
-      </c>
-      <c r="E63" s="13">
+      <c r="C63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3">
         <v>525</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="3">
         <v>0.97</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C64" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="20">
-        <v>50</v>
-      </c>
-      <c r="E64" s="13">
+      <c r="C64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50</v>
+      </c>
+      <c r="E64" s="3">
         <v>1000</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="3">
         <v>1.69</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C65" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="D65" s="15">
-        <v>50</v>
-      </c>
-      <c r="E65" s="15">
+      <c r="C65" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D65" s="8">
+        <v>50</v>
+      </c>
+      <c r="E65" s="8">
         <v>1000</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="8">
         <v>1.82</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="13"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -22105,14 +22092,14 @@
       <c r="D66" s="3">
         <v>25</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="3">
         <v>150</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="3">
         <v>10.41</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -22231,10 +22218,10 @@
       <c r="D72" s="3">
         <v>50</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="3">
         <v>550</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="3">
         <v>7.96</v>
       </c>
       <c r="G72" s="3"/>
@@ -22253,14 +22240,14 @@
       <c r="D73" s="4">
         <v>50</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="3">
         <v>500</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="3">
         <v>7.88</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -22275,16 +22262,16 @@
       <c r="D74" s="8">
         <v>25</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="8">
         <v>1000</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="8">
         <v>7.43</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="15"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -22299,36 +22286,36 @@
       <c r="D75" s="3">
         <v>25</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="3">
         <v>900</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="3">
         <v>7.25</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+      <c r="A76" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C76" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D76" s="17">
-        <v>50</v>
-      </c>
-      <c r="E76" s="13">
+      <c r="B76" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>50</v>
+      </c>
+      <c r="E76" s="3">
         <v>850</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="3">
         <v>6.49</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -22343,14 +22330,14 @@
       <c r="D77" s="5">
         <v>50</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="3">
         <v>850</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="3">
         <v>6.87</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -22511,14 +22498,14 @@
       <c r="D85" s="4">
         <v>50</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="3">
         <v>500</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="3">
         <v>12.21</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -22533,14 +22520,14 @@
       <c r="D86" s="3">
         <v>25</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="3">
         <v>650</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="3">
         <v>6.9</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -22555,14 +22542,14 @@
       <c r="D87" s="3">
         <v>25</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="3">
         <v>600</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="3">
         <v>8.02</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -22577,14 +22564,14 @@
       <c r="D88" s="3">
         <v>50</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="3">
         <v>700</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="3">
         <v>7.32</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -22599,14 +22586,14 @@
       <c r="D89" s="5">
         <v>50</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="3">
         <v>10.31</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -22621,14 +22608,14 @@
       <c r="D90" s="3">
         <v>25</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="3">
         <v>525</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="3">
         <v>1.28</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -22643,14 +22630,14 @@
       <c r="D91" s="3">
         <v>25</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="3">
         <v>525</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="3">
         <v>1.59</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
@@ -22665,38 +22652,38 @@
       <c r="D92" s="8">
         <v>50</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="8">
         <v>2400</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F92" s="8">
         <v>5.29</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="G92" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="15"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="14">
+      <c r="B93" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C93" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D93" s="14">
-        <v>50</v>
-      </c>
-      <c r="E93" s="13">
+      <c r="C93" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D93" s="5">
+        <v>50</v>
+      </c>
+      <c r="E93" s="3">
         <v>1800</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="3">
         <v>5.12</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -22857,14 +22844,14 @@
       <c r="D101" s="4">
         <v>50</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="3">
         <v>350</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="3">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -22879,14 +22866,14 @@
       <c r="D102" s="3">
         <v>25</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="13">
+      <c r="F102" s="3">
         <v>5.35</v>
       </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -22901,14 +22888,14 @@
       <c r="D103" s="3">
         <v>25</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="3">
         <v>900</v>
       </c>
-      <c r="F103" s="13">
+      <c r="F103" s="3">
         <v>10.87</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -22923,14 +22910,14 @@
       <c r="D104" s="3">
         <v>50</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="3">
         <v>800</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="3">
         <v>8.0399999999999991</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -22945,14 +22932,14 @@
       <c r="D105" s="5">
         <v>50</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="3">
         <v>300</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="3">
         <v>4.25</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -22967,14 +22954,14 @@
       <c r="D106" s="3">
         <v>25</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="3">
         <v>525</v>
       </c>
-      <c r="F106" s="13">
+      <c r="F106" s="3">
         <v>1.25</v>
       </c>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -22989,14 +22976,14 @@
       <c r="D107" s="3">
         <v>25</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="3">
         <v>525</v>
       </c>
-      <c r="F107" s="13">
+      <c r="F107" s="3">
         <v>1.55</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
@@ -23011,38 +22998,38 @@
       <c r="D108" s="8">
         <v>50</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="8">
         <v>4100</v>
       </c>
-      <c r="F108" s="15">
+      <c r="F108" s="8">
         <v>8.15</v>
       </c>
-      <c r="G108" s="21" t="s">
+      <c r="G108" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H108" s="13"/>
-    </row>
-    <row r="109" spans="1:8" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>68</v>
       </c>
-      <c r="B109" s="14">
+      <c r="B109" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C109" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D109" s="14">
-        <v>50</v>
-      </c>
-      <c r="E109" s="13">
+      <c r="C109" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D109" s="5">
+        <v>50</v>
+      </c>
+      <c r="E109" s="3">
         <v>2000</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="3">
         <v>5.48</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -23295,8 +23282,8 @@
       <c r="F121" t="s">
         <v>1</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -23317,8 +23304,8 @@
       <c r="F122" t="s">
         <v>1</v>
       </c>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -23339,8 +23326,8 @@
       <c r="F123" s="3">
         <v>1.05</v>
       </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
@@ -23361,22 +23348,21 @@
       <c r="F124" s="8">
         <v>1.81</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="G124" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>69</v>
       </c>
-      <c r="B125" s="14">
+      <c r="B125" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C125" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D125" s="14">
+      <c r="C125" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D125" s="5">
         <v>50</v>
       </c>
       <c r="E125" t="s">
@@ -23387,7 +23373,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B126" s="3">
@@ -23399,15 +23385,15 @@
       <c r="D126" s="3">
         <v>25</v>
       </c>
-      <c r="G126" s="13">
+      <c r="G126" s="3">
         <v>525</v>
       </c>
-      <c r="H126" s="13">
+      <c r="H126" s="3">
         <v>0.48</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B127" s="3">
@@ -23427,16 +23413,16 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C128" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D128" s="17">
+      <c r="C128" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D128" s="3">
         <v>50</v>
       </c>
       <c r="G128" t="s">
@@ -23447,22 +23433,22 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B129" s="14">
+      <c r="B129" s="5">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C129" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D129" s="14">
-        <v>50</v>
-      </c>
-      <c r="G129" s="13">
+      <c r="C129" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D129" s="5">
+        <v>50</v>
+      </c>
+      <c r="G129" s="3">
         <v>800</v>
       </c>
-      <c r="H129" s="13">
+      <c r="H129" s="3">
         <v>0.85</v>
       </c>
     </row>
@@ -23625,14 +23611,14 @@
       <c r="D137" s="4">
         <v>50</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="3">
         <v>200</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="3">
         <v>3.86</v>
       </c>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -23647,14 +23633,14 @@
       <c r="D138" s="3">
         <v>25</v>
       </c>
-      <c r="E138" s="13">
+      <c r="E138" s="3">
         <v>525</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="3">
         <v>4.26</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -23669,14 +23655,14 @@
       <c r="D139" s="3">
         <v>25</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E139" s="3">
         <v>200</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139" s="3">
         <v>2</v>
       </c>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
@@ -23691,16 +23677,16 @@
       <c r="D140" s="8">
         <v>50</v>
       </c>
-      <c r="E140" s="15">
+      <c r="E140" s="8">
         <v>1000</v>
       </c>
-      <c r="F140" s="15">
+      <c r="F140" s="8">
         <v>7.6</v>
       </c>
-      <c r="G140" s="22" t="s">
+      <c r="G140" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="13"/>
+      <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -23715,14 +23701,14 @@
       <c r="D141" s="5">
         <v>50</v>
       </c>
-      <c r="E141" s="13">
+      <c r="E141" s="3">
         <v>500</v>
       </c>
-      <c r="F141" s="13">
+      <c r="F141" s="3">
         <v>4.78</v>
       </c>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -23737,10 +23723,10 @@
       <c r="D142" s="3">
         <v>25</v>
       </c>
-      <c r="E142" s="13">
+      <c r="E142" s="3">
         <v>125</v>
       </c>
-      <c r="F142" s="13">
+      <c r="F142" s="3">
         <v>11.65</v>
       </c>
     </row>
@@ -23877,10 +23863,10 @@
       <c r="D149" s="4">
         <v>50</v>
       </c>
-      <c r="E149" s="13">
+      <c r="E149" s="3">
         <v>550</v>
       </c>
-      <c r="F149" s="13">
+      <c r="F149" s="3">
         <v>14.78</v>
       </c>
     </row>
@@ -23897,10 +23883,10 @@
       <c r="D150" s="3">
         <v>25</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="3">
         <v>825</v>
       </c>
-      <c r="F150" s="13">
+      <c r="F150" s="3">
         <v>8.64</v>
       </c>
     </row>
@@ -23917,13 +23903,13 @@
       <c r="D151" s="8">
         <v>25</v>
       </c>
-      <c r="E151" s="15">
+      <c r="E151" s="8">
         <v>1200</v>
       </c>
-      <c r="F151" s="15">
+      <c r="F151" s="8">
         <v>15.62</v>
       </c>
-      <c r="G151" s="21" t="s">
+      <c r="G151" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -23940,10 +23926,10 @@
       <c r="D152" s="3">
         <v>50</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="3">
         <v>1050</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="3">
         <v>10.52</v>
       </c>
     </row>
@@ -23960,10 +23946,10 @@
       <c r="D153" s="5">
         <v>50</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="3">
         <v>1000</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="3">
         <v>13.5</v>
       </c>
     </row>
@@ -23980,10 +23966,10 @@
       <c r="D154" s="3">
         <v>25</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="3">
         <v>125</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="3">
         <v>11.39</v>
       </c>
     </row>
@@ -24000,10 +23986,10 @@
       <c r="D155" s="3">
         <v>25</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="3">
         <v>125</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155" s="3">
         <v>15.47</v>
       </c>
     </row>
@@ -24060,10 +24046,10 @@
       <c r="D158" s="3">
         <v>25</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="3">
         <v>575</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="3">
         <v>10.79</v>
       </c>
     </row>
@@ -24120,10 +24106,10 @@
       <c r="D161" s="4">
         <v>50</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="3">
         <v>400</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161" s="3">
         <v>10.87</v>
       </c>
     </row>
@@ -24140,30 +24126,30 @@
       <c r="D162" s="3">
         <v>25</v>
       </c>
-      <c r="E162" s="13">
+      <c r="E162" s="3">
         <v>700</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="3">
         <v>7.21</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="16" t="s">
+      <c r="A163" t="s">
         <v>55</v>
       </c>
-      <c r="B163" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C163" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="D163" s="17">
-        <v>25</v>
-      </c>
-      <c r="E163" s="13">
+      <c r="B163" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D163" s="3">
+        <v>25</v>
+      </c>
+      <c r="E163" s="3">
         <v>650</v>
       </c>
-      <c r="F163" s="13">
+      <c r="F163" s="3">
         <v>9.11</v>
       </c>
     </row>
@@ -24180,117 +24166,225 @@
       <c r="D164" s="8">
         <v>50</v>
       </c>
-      <c r="E164" s="15">
+      <c r="E164" s="8">
         <v>1050</v>
       </c>
-      <c r="F164" s="15">
+      <c r="F164" s="8">
         <v>10.07</v>
       </c>
-      <c r="G164" s="21" t="s">
+      <c r="G164" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="16" t="s">
+      <c r="A165" t="s">
         <v>55</v>
       </c>
-      <c r="B165" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C165" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D165" s="14">
-        <v>50</v>
-      </c>
-      <c r="E165" s="13">
+      <c r="B165" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D165" s="5">
+        <v>50</v>
+      </c>
+      <c r="E165" s="3">
         <v>650</v>
       </c>
-      <c r="F165" s="13">
+      <c r="F165" s="3">
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="16" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-    </row>
-    <row r="167" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-    </row>
-    <row r="168" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-    </row>
-    <row r="169" spans="1:7" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-    </row>
-    <row r="170" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-    </row>
-    <row r="171" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-    </row>
-    <row r="172" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-    </row>
-    <row r="173" spans="1:7" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-    </row>
-    <row r="174" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-    </row>
-    <row r="175" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-    </row>
-    <row r="176" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-    </row>
-    <row r="177" spans="2:4" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-    </row>
-    <row r="178" spans="2:4" s="16" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-    </row>
-    <row r="179" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-    </row>
-    <row r="180" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-    </row>
-    <row r="181" spans="2:4" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-    </row>
-    <row r="182" spans="2:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>75</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D166" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>75</v>
+      </c>
+      <c r="B167" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D167" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D168" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>75</v>
+      </c>
+      <c r="B169" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C169" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D169" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>75</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D170" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>75</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D171" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D172" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>75</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D173" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>75</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D174" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>75</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D175" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>75</v>
+      </c>
+      <c r="B176" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C176" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D176" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D177" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model.specs.xlsx
+++ b/model.specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjworthy/Documents/GitHub/Drought.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76052F73-7CE7-674B-9C5A-4ABE8B85F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88469DD-A016-6149-8E4A-EB2D6E2F8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="560" windowWidth="18360" windowHeight="16380" firstSheet="4" activeTab="4" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
+    <workbookView xWindow="20540" yWindow="560" windowWidth="14680" windowHeight="16380" firstSheet="4" activeTab="4" xr2:uid="{3222AA7D-5393-D347-BA1D-6AE7AAE61665}"/>
   </bookViews>
   <sheets>
     <sheet name="crt.v.drt.yr1.final" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="76">
   <si>
     <t>model</t>
   </si>
@@ -272,10 +272,10 @@
     <t>tc=1</t>
   </si>
   <si>
-    <t>tc = 9</t>
+    <t>grass.annual.dsi</t>
   </si>
   <si>
-    <t>grass.annual.dsi</t>
+    <t>tc = 10</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,6 +399,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -20657,15 +20661,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9576503-5928-6A48-A4AE-2F3B98241732}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176:D176"/>
+    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20684,8 +20688,11 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -20702,10 +20709,13 @@
         <v>125</v>
       </c>
       <c r="F2" s="3">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -20724,10 +20734,11 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -20746,8 +20757,11 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -20766,8 +20780,11 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -20781,15 +20798,16 @@
         <v>25</v>
       </c>
       <c r="E6" s="3">
-        <v>525</v>
+        <v>200</v>
       </c>
       <c r="F6" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.89</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -20803,15 +20821,16 @@
         <v>25</v>
       </c>
       <c r="E7" s="3">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="F7" s="3">
-        <v>6.64</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.87</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -20825,15 +20844,16 @@
         <v>50</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F8" s="3">
-        <v>7.87</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8.86</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -20846,16 +20866,17 @@
       <c r="D9" s="4">
         <v>50</v>
       </c>
-      <c r="E9" s="3">
-        <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="16">
+        <v>550</v>
+      </c>
+      <c r="F9" s="16">
+        <v>7.82</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -20868,16 +20889,17 @@
       <c r="D10" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="3">
-        <v>800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5.57</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="16">
+        <v>650</v>
+      </c>
+      <c r="F10" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -20890,16 +20912,17 @@
       <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="3">
-        <v>925</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="16">
+        <v>150</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -20912,18 +20935,20 @@
       <c r="D12" s="8">
         <v>50</v>
       </c>
-      <c r="E12" s="8">
-        <v>1850</v>
-      </c>
-      <c r="F12" s="8">
-        <v>11.06</v>
+      <c r="E12" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="16">
+        <v>7.31</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -20936,16 +20961,17 @@
       <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="E13" s="3">
-        <v>850</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.32</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="16">
+        <v>900</v>
+      </c>
+      <c r="F13" s="16">
+        <v>6.55</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -20967,7 +20993,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -20989,7 +21015,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -21709,7 +21735,7 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -21731,7 +21757,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -21744,16 +21770,17 @@
       <c r="D50" s="3">
         <v>25</v>
       </c>
-      <c r="E50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E50" s="3">
+        <v>125</v>
+      </c>
+      <c r="F50" s="3">
+        <v>8.84</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -21772,8 +21799,11 @@
       <c r="F51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -21792,8 +21822,11 @@
       <c r="F52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -21812,8 +21845,11 @@
       <c r="F53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -21827,15 +21863,16 @@
         <v>25</v>
       </c>
       <c r="E54" s="3">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="F54" s="3">
-        <v>5.78</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -21849,15 +21886,16 @@
         <v>25</v>
       </c>
       <c r="E55" s="3">
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="F55" s="3">
-        <v>9.06</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.7</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -21871,15 +21909,16 @@
         <v>50</v>
       </c>
       <c r="E56" s="3">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F56" s="3">
-        <v>6.81</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3.36</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -21892,16 +21931,17 @@
       <c r="D57" s="4">
         <v>50</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="16">
         <v>250</v>
       </c>
-      <c r="F57" s="3">
-        <v>4.34</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F57" s="16">
+        <v>4.38</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -21914,16 +21954,17 @@
       <c r="D58" s="3">
         <v>25</v>
       </c>
-      <c r="E58" s="3">
-        <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5.56</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E58" s="16">
+        <v>525</v>
+      </c>
+      <c r="F58" s="16">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -21936,16 +21977,17 @@
       <c r="D59" s="3">
         <v>25</v>
       </c>
-      <c r="E59" s="3">
-        <v>625</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5.37</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E59" s="16">
+        <v>325</v>
+      </c>
+      <c r="F59" s="16">
+        <v>2.94</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -21958,16 +22000,17 @@
       <c r="D60" s="3">
         <v>50</v>
       </c>
-      <c r="E60" s="3">
-        <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6.86</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="16">
+        <v>800</v>
+      </c>
+      <c r="F60" s="16">
+        <v>6.23</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -21980,16 +22023,17 @@
       <c r="D61" s="5">
         <v>50</v>
       </c>
-      <c r="E61" s="3">
-        <v>700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="16">
+        <v>650</v>
+      </c>
+      <c r="F61" s="16">
+        <v>5.49</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -22002,16 +22046,17 @@
       <c r="D62" s="3">
         <v>25</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="16">
         <v>525</v>
       </c>
-      <c r="F62" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F62" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -22024,16 +22069,17 @@
       <c r="D63" s="3">
         <v>25</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="16">
         <v>525</v>
       </c>
-      <c r="F63" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F63" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -22046,16 +22092,17 @@
       <c r="D64" s="3">
         <v>50</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="16">
         <v>1000</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="16">
         <v>1.69</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
@@ -22068,18 +22115,20 @@
       <c r="D65" s="8">
         <v>50</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="16">
         <v>1000</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="16">
         <v>1.82</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -22098,10 +22147,11 @@
       <c r="F66" s="3">
         <v>10.41</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -22120,8 +22170,11 @@
       <c r="F67" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -22140,8 +22193,11 @@
       <c r="F68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -22161,7 +22217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -22183,7 +22239,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -22205,7 +22261,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -22227,7 +22283,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -22249,7 +22305,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>66</v>
       </c>
@@ -22273,7 +22329,7 @@
       </c>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -22295,7 +22351,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -22317,7 +22373,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -22339,7 +22395,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -22359,7 +22415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -22379,7 +22435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -24198,7 +24254,7 @@
     </row>
     <row r="166" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B166" s="3">
         <v>5.0000000000000001E-3</v>
@@ -24212,7 +24268,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B167" s="3">
         <v>5.0000000000000001E-3</v>
@@ -24226,7 +24282,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B168" s="3">
         <v>5.0000000000000001E-3</v>
@@ -24240,7 +24296,7 @@
     </row>
     <row r="169" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B169" s="4">
         <v>5.0000000000000001E-3</v>
@@ -24254,7 +24310,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B170" s="3">
         <v>1E-3</v>
@@ -24268,7 +24324,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B171" s="3">
         <v>1E-3</v>
@@ -24282,7 +24338,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B172" s="3">
         <v>1E-3</v>
@@ -24296,7 +24352,7 @@
     </row>
     <row r="173" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B173" s="4">
         <v>1E-3</v>
@@ -24310,7 +24366,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B174" s="3">
         <v>5.0000000000000001E-4</v>
@@ -24324,7 +24380,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B175" s="3">
         <v>5.0000000000000001E-4</v>
@@ -24338,21 +24394,21 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>75</v>
-      </c>
-      <c r="B176" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C176" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D176" s="16">
+        <v>74</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D176" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B177" s="5">
         <v>5.0000000000000001E-4</v>
